--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
     <t>[3, 3, 3]</t>
   </si>
   <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
     <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,68 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -630,130 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -761,37 +653,37 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1.000071726285555</v>
+      </c>
+      <c r="D3">
+        <v>0.9998134513274899</v>
+      </c>
+      <c r="E3">
         <v>1.00019126997851</v>
-      </c>
-      <c r="D3">
-        <v>0.9997130926615362</v>
-      </c>
-      <c r="E3">
-        <v>1.000071726285555</v>
       </c>
       <c r="F3">
         <v>1.00019126997851</v>
       </c>
       <c r="G3">
+        <v>1.000106496282311</v>
+      </c>
+      <c r="H3">
         <v>0.9999383498791058</v>
       </c>
-      <c r="H3">
-        <v>1.000106496282312</v>
-      </c>
       <c r="I3">
+        <v>0.9997130926615361</v>
+      </c>
+      <c r="J3">
+        <v>1.000071726285555</v>
+      </c>
+      <c r="K3">
         <v>1.00019126997851</v>
       </c>
-      <c r="J3">
-        <v>0.9997130926615362</v>
-      </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.9999426184261588</v>
       </c>
-      <c r="L3">
-        <v>1.000071726285555</v>
-      </c>
       <c r="M3">
-        <v>0.9998134513274899</v>
+        <v>0.9997130926615361</v>
       </c>
       <c r="N3">
         <v>1.00019126997851</v>
@@ -803,7 +695,7 @@
         <v>0.9998924094735457</v>
       </c>
       <c r="Q3">
-        <v>1.00000503808233</v>
+        <v>1.000005038082331</v>
       </c>
       <c r="R3">
         <v>0.9999920296418671</v>
@@ -824,7 +716,7 @@
         <v>0.9999810913907778</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -832,37 +724,37 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.000138466287114</v>
+      </c>
+      <c r="D4">
+        <v>0.999639869858744</v>
+      </c>
+      <c r="E4">
         <v>1.000369245630465</v>
-      </c>
-      <c r="D4">
-        <v>0.9994461300683479</v>
-      </c>
-      <c r="E4">
-        <v>1.000138466287114</v>
       </c>
       <c r="F4">
         <v>1.000369245630465</v>
       </c>
       <c r="G4">
+        <v>1.000205592129352</v>
+      </c>
+      <c r="H4">
         <v>0.999880985806552</v>
       </c>
-      <c r="H4">
-        <v>1.000205592129352</v>
-      </c>
       <c r="I4">
+        <v>0.9994461300683479</v>
+      </c>
+      <c r="J4">
+        <v>1.000138466287114</v>
+      </c>
+      <c r="K4">
         <v>1.000369245630465</v>
       </c>
-      <c r="J4">
+      <c r="L4">
+        <v>0.9998892274493317</v>
+      </c>
+      <c r="M4">
         <v>0.9994461300683479</v>
-      </c>
-      <c r="K4">
-        <v>0.9998892274493322</v>
-      </c>
-      <c r="L4">
-        <v>1.000138466287114</v>
-      </c>
-      <c r="M4">
-        <v>0.999639869858744</v>
       </c>
       <c r="N4">
         <v>1.000369245630465</v>
@@ -892,10 +784,10 @@
         <v>1.000040814684589</v>
       </c>
       <c r="W4">
-        <v>0.9999634979396276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43">
+        <v>0.9999634979396275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -903,37 +795,37 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>1.000265356436542</v>
+      </c>
+      <c r="D5">
+        <v>0.9993098546379499</v>
+      </c>
+      <c r="E5">
         <v>1.000707616876078</v>
-      </c>
-      <c r="D5">
-        <v>0.9989385745069974</v>
-      </c>
-      <c r="E5">
-        <v>1.000265356436542</v>
       </c>
       <c r="F5">
         <v>1.000707616876078</v>
       </c>
       <c r="G5">
+        <v>1.000393990386991</v>
+      </c>
+      <c r="H5">
         <v>0.9997719215889141</v>
       </c>
-      <c r="H5">
-        <v>1.000393990386991</v>
-      </c>
       <c r="I5">
+        <v>0.9989385745069974</v>
+      </c>
+      <c r="J5">
+        <v>1.000265356436542</v>
+      </c>
+      <c r="K5">
         <v>1.000707616876078</v>
       </c>
-      <c r="J5">
+      <c r="L5">
+        <v>0.9997877181175204</v>
+      </c>
+      <c r="M5">
         <v>0.9989385745069974</v>
-      </c>
-      <c r="K5">
-        <v>0.9997877181175203</v>
-      </c>
-      <c r="L5">
-        <v>1.000265356436542</v>
-      </c>
-      <c r="M5">
-        <v>0.9993098546379499</v>
       </c>
       <c r="N5">
         <v>1.000707616876078</v>
@@ -948,16 +840,16 @@
         <v>1.000018639012728</v>
       </c>
       <c r="R5">
-        <v>0.9999705159398724</v>
+        <v>0.9999705159398727</v>
       </c>
       <c r="S5">
         <v>0.9996586175108179</v>
       </c>
       <c r="T5">
-        <v>0.9999705159398724</v>
+        <v>0.9999705159398727</v>
       </c>
       <c r="U5">
-        <v>0.9999208673521328</v>
+        <v>0.999920867352133</v>
       </c>
       <c r="V5">
         <v>1.000078217256922</v>
@@ -966,7 +858,7 @@
         <v>0.9999300486234419</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -974,37 +866,37 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>1.000389194035772</v>
+      </c>
+      <c r="D6">
+        <v>0.9989877758472795</v>
+      </c>
+      <c r="E6">
         <v>1.001037853662546</v>
-      </c>
-      <c r="D6">
-        <v>0.9984432348543013</v>
-      </c>
-      <c r="E6">
-        <v>1.000389194035772</v>
       </c>
       <c r="F6">
         <v>1.001037853662546</v>
       </c>
       <c r="G6">
+        <v>1.000577867363823</v>
+      </c>
+      <c r="H6">
         <v>0.9996654883417285</v>
       </c>
-      <c r="H6">
-        <v>1.000577867363823</v>
-      </c>
       <c r="I6">
+        <v>0.9984432348543018</v>
+      </c>
+      <c r="J6">
+        <v>1.000389194035772</v>
+      </c>
+      <c r="K6">
         <v>1.001037853662546</v>
       </c>
-      <c r="J6">
-        <v>0.9984432348543013</v>
-      </c>
-      <c r="K6">
+      <c r="L6">
         <v>0.9996886482300847</v>
       </c>
-      <c r="L6">
-        <v>1.000389194035772</v>
-      </c>
       <c r="M6">
-        <v>0.9989877758472795</v>
+        <v>0.9984432348543018</v>
       </c>
       <c r="N6">
         <v>1.001037853662546</v>
@@ -1013,31 +905,31 @@
         <v>1.000389194035772</v>
       </c>
       <c r="P6">
-        <v>0.9994162144450366</v>
+        <v>0.9994162144450368</v>
       </c>
       <c r="Q6">
         <v>1.00002734118875</v>
       </c>
       <c r="R6">
-        <v>0.999956760850873</v>
+        <v>0.9999567608508734</v>
       </c>
       <c r="S6">
-        <v>0.9994993057439339</v>
+        <v>0.999499305743934</v>
       </c>
       <c r="T6">
-        <v>0.999956760850873</v>
+        <v>0.9999567608508734</v>
       </c>
       <c r="U6">
-        <v>0.9998839427235869</v>
+        <v>0.9998839427235872</v>
       </c>
       <c r="V6">
         <v>1.000114724911379</v>
       </c>
       <c r="W6">
-        <v>0.9998974070464134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43">
+        <v>0.9998974070464135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1045,40 +937,40 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000016083635007</v>
+        <v>1.000006030572584</v>
       </c>
       <c r="D7">
+        <v>0.9999843126097737</v>
+      </c>
+      <c r="E7">
+        <v>1.000016083635006</v>
+      </c>
+      <c r="F7">
+        <v>1.000016083635006</v>
+      </c>
+      <c r="G7">
+        <v>1.000008954336435</v>
+      </c>
+      <c r="H7">
+        <v>0.9999948150861965</v>
+      </c>
+      <c r="I7">
         <v>0.9999758722968216</v>
       </c>
-      <c r="E7">
+      <c r="J7">
         <v>1.000006030572584</v>
       </c>
-      <c r="F7">
-        <v>1.000016083635007</v>
-      </c>
-      <c r="G7">
-        <v>0.9999948150861965</v>
-      </c>
-      <c r="H7">
-        <v>1.000008954336435</v>
-      </c>
-      <c r="I7">
-        <v>1.000016083635007</v>
-      </c>
-      <c r="J7">
+      <c r="K7">
+        <v>1.000016083635006</v>
+      </c>
+      <c r="L7">
+        <v>0.999995174115157</v>
+      </c>
+      <c r="M7">
         <v>0.9999758722968216</v>
       </c>
-      <c r="K7">
-        <v>0.999995174115157</v>
-      </c>
-      <c r="L7">
-        <v>1.000006030572584</v>
-      </c>
-      <c r="M7">
-        <v>0.9999843126097737</v>
-      </c>
       <c r="N7">
-        <v>1.000016083635007</v>
+        <v>1.000016083635006</v>
       </c>
       <c r="O7">
         <v>1.000006030572584</v>
@@ -1090,25 +982,25 @@
         <v>1.00000042282939</v>
       </c>
       <c r="R7">
-        <v>0.9999993288348042</v>
+        <v>0.9999993288348041</v>
       </c>
       <c r="S7">
         <v>0.9999922393185341</v>
       </c>
       <c r="T7">
-        <v>0.9999993288348042</v>
+        <v>0.999999328834804</v>
       </c>
       <c r="U7">
-        <v>0.9999982003976523</v>
+        <v>0.9999982003976521</v>
       </c>
       <c r="V7">
         <v>1.000001777045123</v>
       </c>
       <c r="W7">
-        <v>0.99999840915307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43">
+        <v>0.9999984091530699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1116,37 +1008,37 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>1.000017646108837</v>
+      </c>
+      <c r="D8">
+        <v>0.9999541023300308</v>
+      </c>
+      <c r="E8">
         <v>1.00004705876077</v>
-      </c>
-      <c r="D8">
-        <v>0.9999294095016235</v>
-      </c>
-      <c r="E8">
-        <v>1.000017646108837</v>
       </c>
       <c r="F8">
         <v>1.00004705876077</v>
       </c>
       <c r="G8">
+        <v>1.000026201093693</v>
+      </c>
+      <c r="H8">
         <v>0.9999848314531895</v>
       </c>
-      <c r="H8">
-        <v>1.000026201093693</v>
-      </c>
       <c r="I8">
+        <v>0.9999294095016235</v>
+      </c>
+      <c r="J8">
+        <v>1.000017646108837</v>
+      </c>
+      <c r="K8">
         <v>1.00004705876077</v>
       </c>
-      <c r="J8">
+      <c r="L8">
+        <v>0.9999858814875721</v>
+      </c>
+      <c r="M8">
         <v>0.9999294095016235</v>
-      </c>
-      <c r="K8">
-        <v>0.9999858814875721</v>
-      </c>
-      <c r="L8">
-        <v>1.000017646108837</v>
-      </c>
-      <c r="M8">
-        <v>0.9999541023300308</v>
       </c>
       <c r="N8">
         <v>1.00004705876077</v>
@@ -1179,7 +1071,7 @@
         <v>0.9999953471055691</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1187,37 +1079,37 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>1.00002640429888</v>
+      </c>
+      <c r="D9">
+        <v>0.999931323506833</v>
+      </c>
+      <c r="E9">
         <v>1.000070413876132</v>
-      </c>
-      <c r="D9">
-        <v>0.9998943763264262</v>
-      </c>
-      <c r="E9">
-        <v>1.00002640429888</v>
       </c>
       <c r="F9">
         <v>1.000070413876132</v>
       </c>
       <c r="G9">
+        <v>1.000039205748021</v>
+      </c>
+      <c r="H9">
         <v>0.9999773035998936</v>
       </c>
-      <c r="H9">
-        <v>1.000039205748021</v>
-      </c>
       <c r="I9">
+        <v>0.9998943763264262</v>
+      </c>
+      <c r="J9">
+        <v>1.00002640429888</v>
+      </c>
+      <c r="K9">
         <v>1.000070413876132</v>
       </c>
-      <c r="J9">
+      <c r="L9">
+        <v>0.9999788747862527</v>
+      </c>
+      <c r="M9">
         <v>0.9998943763264262</v>
-      </c>
-      <c r="K9">
-        <v>0.9999788747862527</v>
-      </c>
-      <c r="L9">
-        <v>1.00002640429888</v>
-      </c>
-      <c r="M9">
-        <v>0.999931323506833</v>
       </c>
       <c r="N9">
         <v>1.000070413876132</v>
@@ -1250,7 +1142,7 @@
         <v>0.9999930383051649</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1258,37 +1150,37 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>1.000055282523854</v>
+      </c>
+      <c r="D10">
+        <v>0.9998562160193032</v>
+      </c>
+      <c r="E10">
         <v>1.000147423918387</v>
-      </c>
-      <c r="D10">
-        <v>0.9997788624555113</v>
-      </c>
-      <c r="E10">
-        <v>1.000055282523854</v>
       </c>
       <c r="F10">
         <v>1.000147423918387</v>
       </c>
       <c r="G10">
+        <v>1.000082081275334</v>
+      </c>
+      <c r="H10">
         <v>0.9999524822596512</v>
       </c>
-      <c r="H10">
-        <v>1.000082081275334</v>
-      </c>
       <c r="I10">
+        <v>0.9997788624555113</v>
+      </c>
+      <c r="J10">
+        <v>1.000055282523854</v>
+      </c>
+      <c r="K10">
         <v>1.000147423918387</v>
       </c>
-      <c r="J10">
+      <c r="L10">
+        <v>0.9999557725423656</v>
+      </c>
+      <c r="M10">
         <v>0.9997788624555113</v>
-      </c>
-      <c r="K10">
-        <v>0.9999557725423656</v>
-      </c>
-      <c r="L10">
-        <v>1.000055282523854</v>
-      </c>
-      <c r="M10">
-        <v>0.9998562160193032</v>
       </c>
       <c r="N10">
         <v>1.000147423918387</v>
@@ -1321,7 +1213,7 @@
         <v>0.9999854254397824</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1329,37 +1221,37 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>1.000096524967597</v>
+      </c>
+      <c r="D11">
+        <v>0.9997489583275069</v>
+      </c>
+      <c r="E11">
         <v>1.000257399145513</v>
-      </c>
-      <c r="D11">
-        <v>0.9996139002056162</v>
-      </c>
-      <c r="E11">
-        <v>1.000096524967597</v>
       </c>
       <c r="F11">
         <v>1.000257399145513</v>
       </c>
       <c r="G11">
+        <v>1.000143317886023</v>
+      </c>
+      <c r="H11">
         <v>0.9999170368880097</v>
       </c>
-      <c r="H11">
-        <v>1.000143317886023</v>
-      </c>
       <c r="I11">
+        <v>0.9996139002056162</v>
+      </c>
+      <c r="J11">
+        <v>1.000096524967597</v>
+      </c>
+      <c r="K11">
         <v>1.000257399145513</v>
       </c>
-      <c r="J11">
+      <c r="L11">
+        <v>0.9999227784567838</v>
+      </c>
+      <c r="M11">
         <v>0.9996139002056162</v>
-      </c>
-      <c r="K11">
-        <v>0.9999227784567838</v>
-      </c>
-      <c r="L11">
-        <v>1.000096524967597</v>
-      </c>
-      <c r="M11">
-        <v>0.9997489583275069</v>
       </c>
       <c r="N11">
         <v>1.000257399145513</v>
@@ -1392,7 +1284,7 @@
         <v>0.999974555105581</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1400,49 +1292,49 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9971023725035183</v>
+        <v>0.9989133884888697</v>
       </c>
       <c r="D12">
+        <v>1.002826078447143</v>
+      </c>
+      <c r="E12">
+        <v>0.9971023725035181</v>
+      </c>
+      <c r="F12">
+        <v>0.9971023725035181</v>
+      </c>
+      <c r="G12">
+        <v>0.9983866389148851</v>
+      </c>
+      <c r="H12">
+        <v>1.000933937204605</v>
+      </c>
+      <c r="I12">
         <v>1.004346434178441</v>
       </c>
-      <c r="E12">
-        <v>0.9989133884888698</v>
-      </c>
-      <c r="F12">
-        <v>0.9971023725035183</v>
-      </c>
-      <c r="G12">
-        <v>1.000933937204605</v>
-      </c>
-      <c r="H12">
-        <v>0.9983866389148851</v>
-      </c>
-      <c r="I12">
-        <v>0.9971023725035183</v>
-      </c>
       <c r="J12">
+        <v>0.9989133884888697</v>
+      </c>
+      <c r="K12">
+        <v>0.9971023725035181</v>
+      </c>
+      <c r="L12">
+        <v>1.000869282925694</v>
+      </c>
+      <c r="M12">
         <v>1.004346434178441</v>
       </c>
-      <c r="K12">
-        <v>1.000869282925694</v>
-      </c>
-      <c r="L12">
-        <v>0.9989133884888698</v>
-      </c>
-      <c r="M12">
-        <v>1.002826078447143</v>
-      </c>
       <c r="N12">
-        <v>0.9971023725035183</v>
+        <v>0.9971023725035181</v>
       </c>
       <c r="O12">
-        <v>0.9989133884888698</v>
+        <v>0.9989133884888697</v>
       </c>
       <c r="P12">
         <v>1.001629911333656</v>
       </c>
       <c r="Q12">
-        <v>0.9999236628467372</v>
+        <v>0.9999236628467373</v>
       </c>
       <c r="R12">
         <v>1.00012073172361</v>
@@ -1454,16 +1346,16 @@
         <v>1.00012073172361</v>
       </c>
       <c r="U12">
-        <v>1.000324033093859</v>
+        <v>1.000324033093858</v>
       </c>
       <c r="V12">
-        <v>0.9996797009757905</v>
+        <v>0.9996797009757902</v>
       </c>
       <c r="W12">
         <v>1.000286440144003</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1471,37 +1363,37 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>0.9997182823393248</v>
+      </c>
+      <c r="D13">
+        <v>1.000732702200518</v>
+      </c>
+      <c r="E13">
         <v>0.9992487542895062</v>
-      </c>
-      <c r="D13">
-        <v>1.001126869722597</v>
-      </c>
-      <c r="E13">
-        <v>0.9997182823393248</v>
       </c>
       <c r="F13">
         <v>0.9992487542895062</v>
       </c>
       <c r="G13">
+        <v>0.9995817172483272</v>
+      </c>
+      <c r="H13">
         <v>1.000242137706485</v>
       </c>
-      <c r="H13">
-        <v>0.9995817172483272</v>
-      </c>
       <c r="I13">
+        <v>1.001126869722597</v>
+      </c>
+      <c r="J13">
+        <v>0.9997182823393248</v>
+      </c>
+      <c r="K13">
         <v>0.9992487542895062</v>
       </c>
-      <c r="J13">
+      <c r="L13">
+        <v>1.000225371874621</v>
+      </c>
+      <c r="M13">
         <v>1.001126869722597</v>
-      </c>
-      <c r="K13">
-        <v>1.000225371874621</v>
-      </c>
-      <c r="L13">
-        <v>0.9997182823393248</v>
-      </c>
-      <c r="M13">
-        <v>1.000732702200518</v>
       </c>
       <c r="N13">
         <v>0.9992487542895062</v>
@@ -1534,7 +1426,7 @@
         <v>1.000074264715088</v>
       </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1542,37 +1434,37 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>1.000059712681101</v>
+      </c>
+      <c r="D14">
+        <v>0.999844699531198</v>
+      </c>
+      <c r="E14">
         <v>1.000159231595163</v>
-      </c>
-      <c r="D14">
-        <v>0.9997611335528527</v>
-      </c>
-      <c r="E14">
-        <v>1.000059712681101</v>
       </c>
       <c r="F14">
         <v>1.000159231595163</v>
       </c>
       <c r="G14">
+        <v>1.000088667546649</v>
+      </c>
+      <c r="H14">
         <v>0.9999486714523894</v>
       </c>
-      <c r="H14">
-        <v>1.000088667546649</v>
-      </c>
       <c r="I14">
+        <v>0.9997611335528527</v>
+      </c>
+      <c r="J14">
+        <v>1.000059712681101</v>
+      </c>
+      <c r="K14">
         <v>1.000159231595163</v>
       </c>
-      <c r="J14">
+      <c r="L14">
+        <v>0.9999522243380066</v>
+      </c>
+      <c r="M14">
         <v>0.9997611335528527</v>
-      </c>
-      <c r="K14">
-        <v>0.9999522243380066</v>
-      </c>
-      <c r="L14">
-        <v>1.000059712681101</v>
-      </c>
-      <c r="M14">
-        <v>0.9998446995311981</v>
       </c>
       <c r="N14">
         <v>1.000159231595163</v>
@@ -1605,7 +1497,7 @@
         <v>0.9999842566723077</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1613,37 +1505,37 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>1.000017786627644</v>
+      </c>
+      <c r="D15">
+        <v>0.9999537480898497</v>
+      </c>
+      <c r="E15">
         <v>1.000047428793518</v>
-      </c>
-      <c r="D15">
-        <v>0.9999288572488794</v>
-      </c>
-      <c r="E15">
-        <v>1.000017786627644</v>
       </c>
       <c r="F15">
         <v>1.000047428793518</v>
       </c>
       <c r="G15">
+        <v>1.000026404573309</v>
+      </c>
+      <c r="H15">
         <v>0.9999847138744833</v>
       </c>
-      <c r="H15">
-        <v>1.000026404573309</v>
-      </c>
       <c r="I15">
+        <v>0.9999288572488794</v>
+      </c>
+      <c r="J15">
+        <v>1.000017786627644</v>
+      </c>
+      <c r="K15">
         <v>1.000047428793518</v>
       </c>
-      <c r="J15">
+      <c r="L15">
+        <v>0.9999857673088806</v>
+      </c>
+      <c r="M15">
         <v>0.9999288572488794</v>
-      </c>
-      <c r="K15">
-        <v>0.9999857673088806</v>
-      </c>
-      <c r="L15">
-        <v>1.000017786627644</v>
-      </c>
-      <c r="M15">
-        <v>0.9999537480898497</v>
       </c>
       <c r="N15">
         <v>1.000047428793518</v>
@@ -1676,7 +1568,7 @@
         <v>0.999995311643026</v>
       </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1684,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000788364539</v>
+        <v>1.001399602333584</v>
       </c>
       <c r="D16">
-        <v>0.999998815389085</v>
+        <v>0.996359884982554</v>
       </c>
       <c r="E16">
-        <v>1.000000294917477</v>
+        <v>1.003732264867958</v>
       </c>
       <c r="F16">
-        <v>1.000000788364539</v>
+        <v>1.003732264867958</v>
       </c>
       <c r="G16">
-        <v>0.9999997450482361</v>
+        <v>1.002078074805824</v>
       </c>
       <c r="H16">
-        <v>1.000000438232204</v>
+        <v>0.9987970363618708</v>
       </c>
       <c r="I16">
-        <v>1.000000788364539</v>
+        <v>0.9944016035632178</v>
       </c>
       <c r="J16">
-        <v>0.999998815389085</v>
+        <v>1.001399602333584</v>
       </c>
       <c r="K16">
-        <v>0.999999762694062</v>
+        <v>1.003732264867958</v>
       </c>
       <c r="L16">
-        <v>1.000000294917477</v>
+        <v>0.9988803253011131</v>
       </c>
       <c r="M16">
-        <v>0.9999992303951424</v>
+        <v>0.9944016035632178</v>
       </c>
       <c r="N16">
-        <v>1.000000788364539</v>
+        <v>1.003732264867958</v>
       </c>
       <c r="O16">
-        <v>1.000000294917477</v>
+        <v>1.001399602333584</v>
       </c>
       <c r="P16">
-        <v>0.999999555153281</v>
+        <v>0.997900602948401</v>
       </c>
       <c r="Q16">
-        <v>1.000000019982856</v>
+        <v>1.000098319347728</v>
       </c>
       <c r="R16">
-        <v>0.9999999662237005</v>
+        <v>0.9998444902549201</v>
       </c>
       <c r="S16">
-        <v>0.9999996184515995</v>
+        <v>0.9981994140862241</v>
       </c>
       <c r="T16">
-        <v>0.9999999662237004</v>
+        <v>0.9998444902549201</v>
       </c>
       <c r="U16">
-        <v>0.9999999109298343</v>
+        <v>0.9995826267816577</v>
       </c>
       <c r="V16">
-        <v>1.000000086416775</v>
+        <v>1.000412554398918</v>
       </c>
       <c r="W16">
-        <v>0.9999999212447778</v>
+        <v>0.9996310493187133</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1755,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000016725606483</v>
+        <v>1.001147136211812</v>
       </c>
       <c r="D17">
-        <v>0.9999749096812192</v>
+        <v>0.9970165031241708</v>
       </c>
       <c r="E17">
-        <v>1.000006272031574</v>
+        <v>1.00305902516592</v>
       </c>
       <c r="F17">
-        <v>1.000016725606483</v>
+        <v>1.00305902516592</v>
       </c>
       <c r="G17">
-        <v>0.9999946082836355</v>
+        <v>1.001703223995699</v>
       </c>
       <c r="H17">
-        <v>1.00000931199005</v>
+        <v>0.9990140315881788</v>
       </c>
       <c r="I17">
-        <v>1.000016725606483</v>
+        <v>0.9954114626199866</v>
       </c>
       <c r="J17">
-        <v>0.9999749096812192</v>
+        <v>1.001147136211812</v>
       </c>
       <c r="K17">
-        <v>0.9999949815678473</v>
+        <v>1.00305902516592</v>
       </c>
       <c r="L17">
-        <v>1.000006272031574</v>
+        <v>0.999082295309765</v>
       </c>
       <c r="M17">
-        <v>0.999983686495077</v>
+        <v>0.9954114626199866</v>
       </c>
       <c r="N17">
-        <v>1.000016725606483</v>
+        <v>1.00305902516592</v>
       </c>
       <c r="O17">
-        <v>1.000006272031574</v>
+        <v>1.001147136211812</v>
       </c>
       <c r="P17">
-        <v>0.9999905908563967</v>
+        <v>0.9982792994158993</v>
       </c>
       <c r="Q17">
-        <v>1.000000440157605</v>
+        <v>1.000080583899996</v>
       </c>
       <c r="R17">
-        <v>0.9999993024397588</v>
+        <v>0.9998725413325729</v>
       </c>
       <c r="S17">
-        <v>0.9999919299988097</v>
+        <v>0.9985242101399926</v>
       </c>
       <c r="T17">
-        <v>0.9999993024397588</v>
+        <v>0.9998725413325729</v>
       </c>
       <c r="U17">
-        <v>0.9999981289007279</v>
+        <v>0.9996579138964743</v>
       </c>
       <c r="V17">
-        <v>1.000001848241879</v>
+        <v>1.000338136150364</v>
       </c>
       <c r="W17">
-        <v>0.9999983459609325</v>
+        <v>0.999697601778418</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1826,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000058889342342</v>
+        <v>1.000642988855063</v>
       </c>
       <c r="D18">
-        <v>0.9999116654892591</v>
+        <v>0.9983276998142165</v>
       </c>
       <c r="E18">
-        <v>1.000022081553698</v>
+        <v>1.001714637667803</v>
       </c>
       <c r="F18">
-        <v>1.000058889342342</v>
+        <v>1.001714637667803</v>
       </c>
       <c r="G18">
-        <v>0.9999810188397871</v>
+        <v>1.000954686388298</v>
       </c>
       <c r="H18">
-        <v>1.000032788203891</v>
+        <v>0.9994473477048855</v>
       </c>
       <c r="I18">
-        <v>1.000058889342342</v>
+        <v>0.9974280451071549</v>
       </c>
       <c r="J18">
-        <v>0.9999116654892591</v>
+        <v>1.000642988855063</v>
       </c>
       <c r="K18">
-        <v>0.9999823330060112</v>
+        <v>1.001714637667803</v>
       </c>
       <c r="L18">
-        <v>1.000022081553698</v>
+        <v>0.9994856091843859</v>
       </c>
       <c r="M18">
-        <v>0.9999425645223938</v>
+        <v>0.9974280451071549</v>
       </c>
       <c r="N18">
-        <v>1.000058889342342</v>
+        <v>1.001714637667803</v>
       </c>
       <c r="O18">
-        <v>1.000022081553698</v>
+        <v>1.000642988855063</v>
       </c>
       <c r="P18">
-        <v>0.9999668735214784</v>
+        <v>0.9990355169811089</v>
       </c>
       <c r="Q18">
-        <v>1.000001550196742</v>
+        <v>1.000045168279974</v>
       </c>
       <c r="R18">
-        <v>0.9999975454617663</v>
+        <v>0.9999285572100067</v>
       </c>
       <c r="S18">
-        <v>0.9999715886275813</v>
+        <v>0.9991727938890346</v>
       </c>
       <c r="T18">
-        <v>0.9999975454617663</v>
+        <v>0.9999285572100067</v>
       </c>
       <c r="U18">
-        <v>0.9999934138062715</v>
+        <v>0.9998082548337264</v>
       </c>
       <c r="V18">
-        <v>1.000006508913486</v>
+        <v>1.000189531400542</v>
       </c>
       <c r="W18">
-        <v>0.999994177813885</v>
+        <v>0.9998305004471086</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1897,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.000703326241775</v>
+      </c>
+      <c r="D19">
+        <v>0.9981707804322059</v>
+      </c>
+      <c r="E19">
+        <v>1.001875530444913</v>
+      </c>
+      <c r="F19">
+        <v>1.001875530444913</v>
+      </c>
+      <c r="G19">
+        <v>1.001044274847723</v>
+      </c>
+      <c r="H19">
+        <v>0.99939548998977</v>
+      </c>
+      <c r="I19">
+        <v>0.9971867031194493</v>
+      </c>
+      <c r="J19">
+        <v>1.000703326241775</v>
+      </c>
+      <c r="K19">
+        <v>1.001875530444913</v>
+      </c>
+      <c r="L19">
+        <v>0.9994373356165782</v>
+      </c>
+      <c r="M19">
+        <v>0.9971867031194493</v>
+      </c>
+      <c r="N19">
+        <v>1.001875530444913</v>
+      </c>
+      <c r="O19">
+        <v>1.000703326241775</v>
+      </c>
+      <c r="P19">
+        <v>0.998945014680612</v>
+      </c>
+      <c r="Q19">
+        <v>1.000049408115772</v>
+      </c>
+      <c r="R19">
+        <v>0.9999218532687125</v>
+      </c>
+      <c r="S19">
+        <v>0.999095173116998</v>
+      </c>
+      <c r="T19">
+        <v>0.9999218532687125</v>
+      </c>
+      <c r="U19">
+        <v>0.9997902624489768</v>
+      </c>
+      <c r="V19">
+        <v>1.000207316048164</v>
+      </c>
+      <c r="W19">
+        <v>0.9998145958667737</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000000294917477</v>
+      </c>
+      <c r="D20">
+        <v>0.9999992303951424</v>
+      </c>
+      <c r="E20">
+        <v>1.000000788364539</v>
+      </c>
+      <c r="F20">
+        <v>1.000000788364539</v>
+      </c>
+      <c r="G20">
+        <v>1.000000438232204</v>
+      </c>
+      <c r="H20">
+        <v>0.9999997450482361</v>
+      </c>
+      <c r="I20">
+        <v>0.999998815389085</v>
+      </c>
+      <c r="J20">
+        <v>1.000000294917477</v>
+      </c>
+      <c r="K20">
+        <v>1.000000788364539</v>
+      </c>
+      <c r="L20">
+        <v>0.9999997626940618</v>
+      </c>
+      <c r="M20">
+        <v>0.999998815389085</v>
+      </c>
+      <c r="N20">
+        <v>1.000000788364539</v>
+      </c>
+      <c r="O20">
+        <v>1.000000294917477</v>
+      </c>
+      <c r="P20">
+        <v>0.999999555153281</v>
+      </c>
+      <c r="Q20">
+        <v>1.000000019982856</v>
+      </c>
+      <c r="R20">
+        <v>0.9999999662237005</v>
+      </c>
+      <c r="S20">
+        <v>0.9999996184515995</v>
+      </c>
+      <c r="T20">
+        <v>0.9999999662237004</v>
+      </c>
+      <c r="U20">
+        <v>0.9999999109298343</v>
+      </c>
+      <c r="V20">
+        <v>1.000000086416775</v>
+      </c>
+      <c r="W20">
+        <v>0.9999999212447778</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000006272031574</v>
+      </c>
+      <c r="D21">
+        <v>0.999983686495077</v>
+      </c>
+      <c r="E21">
+        <v>1.000016725606483</v>
+      </c>
+      <c r="F21">
+        <v>1.000016725606483</v>
+      </c>
+      <c r="G21">
+        <v>1.00000931199005</v>
+      </c>
+      <c r="H21">
+        <v>0.9999946082836355</v>
+      </c>
+      <c r="I21">
+        <v>0.9999749096812192</v>
+      </c>
+      <c r="J21">
+        <v>1.000006272031574</v>
+      </c>
+      <c r="K21">
+        <v>1.000016725606483</v>
+      </c>
+      <c r="L21">
+        <v>0.9999949815678474</v>
+      </c>
+      <c r="M21">
+        <v>0.9999749096812192</v>
+      </c>
+      <c r="N21">
+        <v>1.000016725606483</v>
+      </c>
+      <c r="O21">
+        <v>1.000006272031574</v>
+      </c>
+      <c r="P21">
+        <v>0.9999905908563967</v>
+      </c>
+      <c r="Q21">
+        <v>1.000000440157605</v>
+      </c>
+      <c r="R21">
+        <v>0.9999993024397588</v>
+      </c>
+      <c r="S21">
+        <v>0.9999919299988097</v>
+      </c>
+      <c r="T21">
+        <v>0.9999993024397588</v>
+      </c>
+      <c r="U21">
+        <v>0.9999981289007279</v>
+      </c>
+      <c r="V21">
+        <v>1.000001848241879</v>
+      </c>
+      <c r="W21">
+        <v>0.9999983459609325</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000022081553698</v>
+      </c>
+      <c r="D22">
+        <v>0.9999425645223938</v>
+      </c>
+      <c r="E22">
+        <v>1.000058889342342</v>
+      </c>
+      <c r="F22">
+        <v>1.000058889342342</v>
+      </c>
+      <c r="G22">
+        <v>1.000032788203891</v>
+      </c>
+      <c r="H22">
+        <v>0.9999810188397871</v>
+      </c>
+      <c r="I22">
+        <v>0.9999116654892591</v>
+      </c>
+      <c r="J22">
+        <v>1.000022081553698</v>
+      </c>
+      <c r="K22">
+        <v>1.000058889342342</v>
+      </c>
+      <c r="L22">
+        <v>0.9999823330060112</v>
+      </c>
+      <c r="M22">
+        <v>0.9999116654892591</v>
+      </c>
+      <c r="N22">
+        <v>1.000058889342342</v>
+      </c>
+      <c r="O22">
+        <v>1.000022081553698</v>
+      </c>
+      <c r="P22">
+        <v>0.9999668735214784</v>
+      </c>
+      <c r="Q22">
+        <v>1.000001550196742</v>
+      </c>
+      <c r="R22">
+        <v>0.9999975454617663</v>
+      </c>
+      <c r="S22">
+        <v>0.9999715886275813</v>
+      </c>
+      <c r="T22">
+        <v>0.9999975454617663</v>
+      </c>
+      <c r="U22">
+        <v>0.9999934138062715</v>
+      </c>
+      <c r="V22">
+        <v>1.000006508913486</v>
+      </c>
+      <c r="W22">
+        <v>0.999994177813885</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.000051736696326</v>
+      </c>
+      <c r="D23">
+        <v>0.9998654416796056</v>
+      </c>
+      <c r="E23">
         <v>1.000137965141022</v>
       </c>
-      <c r="D19">
-        <v>0.9997930565795672</v>
-      </c>
-      <c r="E19">
+      <c r="F23">
+        <v>1.000137965141022</v>
+      </c>
+      <c r="G23">
+        <v>1.000076816591264</v>
+      </c>
+      <c r="H23">
+        <v>0.9999555273856315</v>
+      </c>
+      <c r="I23">
+        <v>0.9997930565795675</v>
+      </c>
+      <c r="J23">
         <v>1.000051736696326</v>
       </c>
-      <c r="F19">
+      <c r="K23">
         <v>1.000137965141022</v>
       </c>
-      <c r="G19">
-        <v>0.9999555273856315</v>
-      </c>
-      <c r="H19">
-        <v>1.000076816591264</v>
-      </c>
-      <c r="I19">
+      <c r="L23">
+        <v>0.9999586137751959</v>
+      </c>
+      <c r="M23">
+        <v>0.9997930565795675</v>
+      </c>
+      <c r="N23">
         <v>1.000137965141022</v>
       </c>
-      <c r="J19">
-        <v>0.9997930565795672</v>
-      </c>
-      <c r="K19">
-        <v>0.9999586137751959</v>
-      </c>
-      <c r="L19">
+      <c r="O23">
         <v>1.000051736696326</v>
       </c>
-      <c r="M19">
-        <v>0.9998654416796056</v>
-      </c>
-      <c r="N19">
-        <v>1.000137965141022</v>
-      </c>
-      <c r="O19">
-        <v>1.000051736696326</v>
-      </c>
-      <c r="P19">
-        <v>0.9999223966379464</v>
-      </c>
-      <c r="Q19">
+      <c r="P23">
+        <v>0.9999223966379465</v>
+      </c>
+      <c r="Q23">
         <v>1.000003632040979</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9999942528056384</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9999334402205081</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9999942528056384</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>0.9999845714506367</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>1.000015250188714</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>0.9999863618181173</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW45.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000071726285555</v>
+        <v>1.000781170554755</v>
       </c>
       <c r="D3">
-        <v>0.9998134513274899</v>
+        <v>0.9979683128170014</v>
       </c>
       <c r="E3">
-        <v>1.00019126997851</v>
+        <v>1.002083123170026</v>
       </c>
       <c r="F3">
-        <v>1.00019126997851</v>
+        <v>1.002083123170026</v>
       </c>
       <c r="G3">
-        <v>1.000106496282311</v>
+        <v>1.001159855273777</v>
       </c>
       <c r="H3">
-        <v>0.9999383498791058</v>
+        <v>0.9993285800216146</v>
       </c>
       <c r="I3">
-        <v>0.9997130926615361</v>
+        <v>0.996875316289626</v>
       </c>
       <c r="J3">
-        <v>1.000071726285555</v>
+        <v>1.000781170554755</v>
       </c>
       <c r="K3">
-        <v>1.00019126997851</v>
+        <v>1.002083123170026</v>
       </c>
       <c r="L3">
-        <v>0.9999426184261588</v>
+        <v>0.9993750625216103</v>
       </c>
       <c r="M3">
-        <v>0.9997130926615361</v>
+        <v>0.996875316289626</v>
       </c>
       <c r="N3">
-        <v>1.00019126997851</v>
+        <v>1.002083123170026</v>
       </c>
       <c r="O3">
-        <v>1.000071726285555</v>
+        <v>1.000781170554755</v>
       </c>
       <c r="P3">
-        <v>0.9998924094735457</v>
+        <v>0.9988282434221907</v>
       </c>
       <c r="Q3">
-        <v>1.000005038082331</v>
+        <v>1.000054875288185</v>
       </c>
       <c r="R3">
-        <v>0.9999920296418671</v>
+        <v>0.9999132033381356</v>
       </c>
       <c r="S3">
-        <v>0.9999077229420658</v>
+        <v>0.9989950222886653</v>
       </c>
       <c r="T3">
-        <v>0.9999920296418671</v>
+        <v>0.9999132033381356</v>
       </c>
       <c r="U3">
-        <v>0.9999786097011768</v>
+        <v>0.9997670475090054</v>
       </c>
       <c r="V3">
-        <v>1.000021141756643</v>
+        <v>1.000230262641209</v>
       </c>
       <c r="W3">
-        <v>0.9999810913907778</v>
+        <v>0.9997940739003958</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000138466287114</v>
+        <v>1.000702030037276</v>
       </c>
       <c r="D4">
-        <v>0.999639869858744</v>
+        <v>0.998174142841968</v>
       </c>
       <c r="E4">
-        <v>1.000369245630465</v>
+        <v>1.001872081852403</v>
       </c>
       <c r="F4">
-        <v>1.000369245630465</v>
+        <v>1.001872081852403</v>
       </c>
       <c r="G4">
-        <v>1.000205592129352</v>
+        <v>1.001042350095045</v>
       </c>
       <c r="H4">
-        <v>0.999880985806552</v>
+        <v>0.999396601452667</v>
       </c>
       <c r="I4">
-        <v>0.9994461300683479</v>
+        <v>0.997191877376075</v>
       </c>
       <c r="J4">
-        <v>1.000138466287114</v>
+        <v>1.000702030037276</v>
       </c>
       <c r="K4">
-        <v>1.000369245630465</v>
+        <v>1.001872081852403</v>
       </c>
       <c r="L4">
-        <v>0.9998892274493317</v>
+        <v>0.9994383746887744</v>
       </c>
       <c r="M4">
-        <v>0.9994461300683479</v>
+        <v>0.997191877376075</v>
       </c>
       <c r="N4">
-        <v>1.000369245630465</v>
+        <v>1.001872081852403</v>
       </c>
       <c r="O4">
-        <v>1.000138466287114</v>
+        <v>1.000702030037276</v>
       </c>
       <c r="P4">
-        <v>0.999792298177731</v>
+        <v>0.9989469537066755</v>
       </c>
       <c r="Q4">
-        <v>1.000009726046833</v>
+        <v>1.000049315744971</v>
       </c>
       <c r="R4">
-        <v>0.9999846139953089</v>
+        <v>0.9999219964219179</v>
       </c>
       <c r="S4">
-        <v>0.9998218607206714</v>
+        <v>0.9990968362886727</v>
       </c>
       <c r="T4">
-        <v>0.9999846139953089</v>
+        <v>0.9999219964219179</v>
       </c>
       <c r="U4">
-        <v>0.9999587069481197</v>
+        <v>0.9997906476796052</v>
       </c>
       <c r="V4">
-        <v>1.000040814684589</v>
+        <v>1.000206934514165</v>
       </c>
       <c r="W4">
-        <v>0.9999634979396275</v>
+        <v>0.9998149360476856</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000265356436542</v>
+        <v>1.000933302183287</v>
       </c>
       <c r="D5">
-        <v>0.9993098546379499</v>
+        <v>0.9975726500269553</v>
       </c>
       <c r="E5">
-        <v>1.000707616876078</v>
+        <v>1.002488804636119</v>
       </c>
       <c r="F5">
-        <v>1.000707616876078</v>
+        <v>1.002488804636119</v>
       </c>
       <c r="G5">
-        <v>1.000393990386991</v>
+        <v>1.001385736334234</v>
       </c>
       <c r="H5">
-        <v>0.9997719215889141</v>
+        <v>0.9991978217789775</v>
       </c>
       <c r="I5">
-        <v>0.9989385745069974</v>
+        <v>0.9962667978975748</v>
       </c>
       <c r="J5">
-        <v>1.000265356436542</v>
+        <v>1.000933302183287</v>
       </c>
       <c r="K5">
-        <v>1.000707616876078</v>
+        <v>1.002488804636119</v>
       </c>
       <c r="L5">
-        <v>0.9997877181175204</v>
+        <v>0.9992533618598384</v>
       </c>
       <c r="M5">
-        <v>0.9989385745069974</v>
+        <v>0.9962667978975748</v>
       </c>
       <c r="N5">
-        <v>1.000707616876078</v>
+        <v>1.002488804636119</v>
       </c>
       <c r="O5">
-        <v>1.000265356436542</v>
+        <v>1.000933302183287</v>
       </c>
       <c r="P5">
-        <v>0.9996019654717698</v>
+        <v>0.998600050040431</v>
       </c>
       <c r="Q5">
-        <v>1.000018639012728</v>
+        <v>1.000065561981132</v>
       </c>
       <c r="R5">
-        <v>0.9999705159398727</v>
+        <v>0.9998963015723271</v>
       </c>
       <c r="S5">
-        <v>0.9996586175108179</v>
+        <v>0.9987993072866131</v>
       </c>
       <c r="T5">
-        <v>0.9999705159398727</v>
+        <v>0.9998963015723271</v>
       </c>
       <c r="U5">
-        <v>0.999920867352133</v>
+        <v>0.9997216816239897</v>
       </c>
       <c r="V5">
-        <v>1.000078217256922</v>
+        <v>1.000275106226416</v>
       </c>
       <c r="W5">
-        <v>0.9999300486234419</v>
+        <v>0.9997539721125341</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.000389194035772</v>
+        <v>1.001077526136364</v>
       </c>
       <c r="D6">
-        <v>0.9989877758472795</v>
+        <v>0.9971975436363633</v>
       </c>
       <c r="E6">
-        <v>1.001037853662546</v>
+        <v>1.002873404204546</v>
       </c>
       <c r="F6">
-        <v>1.001037853662546</v>
+        <v>1.002873404204546</v>
       </c>
       <c r="G6">
-        <v>1.000577867363823</v>
+        <v>1.001599878579545</v>
       </c>
       <c r="H6">
-        <v>0.9996654883417285</v>
+        <v>0.9990738596590907</v>
       </c>
       <c r="I6">
-        <v>0.9984432348543018</v>
+        <v>0.9956898972727274</v>
       </c>
       <c r="J6">
-        <v>1.000389194035772</v>
+        <v>1.001077526136364</v>
       </c>
       <c r="K6">
-        <v>1.001037853662546</v>
+        <v>1.002873404204546</v>
       </c>
       <c r="L6">
-        <v>0.9996886482300847</v>
+        <v>0.9991379769886359</v>
       </c>
       <c r="M6">
-        <v>0.9984432348543018</v>
+        <v>0.9956898972727274</v>
       </c>
       <c r="N6">
-        <v>1.001037853662546</v>
+        <v>1.002873404204546</v>
       </c>
       <c r="O6">
-        <v>1.000389194035772</v>
+        <v>1.001077526136364</v>
       </c>
       <c r="P6">
-        <v>0.9994162144450368</v>
+        <v>0.9983837117045458</v>
       </c>
       <c r="Q6">
-        <v>1.00002734118875</v>
+        <v>1.000075692897727</v>
       </c>
       <c r="R6">
-        <v>0.9999567608508734</v>
+        <v>0.9998802758712123</v>
       </c>
       <c r="S6">
-        <v>0.999499305743934</v>
+        <v>0.9986137610227274</v>
       </c>
       <c r="T6">
-        <v>0.9999567608508734</v>
+        <v>0.9998802758712122</v>
       </c>
       <c r="U6">
-        <v>0.9998839427235872</v>
+        <v>0.9996786718181818</v>
       </c>
       <c r="V6">
-        <v>1.000114724911379</v>
+        <v>1.000317618295455</v>
       </c>
       <c r="W6">
-        <v>0.9998974070464135</v>
+        <v>0.9997159515767045</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000006030572584</v>
+        <v>1.002746156661449</v>
       </c>
       <c r="D7">
-        <v>0.9999843126097737</v>
+        <v>0.992857716794474</v>
       </c>
       <c r="E7">
-        <v>1.000016083635006</v>
+        <v>1.007323106776749</v>
       </c>
       <c r="F7">
-        <v>1.000016083635006</v>
+        <v>1.007323106776749</v>
       </c>
       <c r="G7">
-        <v>1.000008954336435</v>
+        <v>1.00407742115013</v>
       </c>
       <c r="H7">
-        <v>0.9999948150861965</v>
+        <v>0.9976396640875871</v>
       </c>
       <c r="I7">
-        <v>0.9999758722968216</v>
+        <v>0.9890153483337571</v>
       </c>
       <c r="J7">
-        <v>1.000006030572584</v>
+        <v>1.002746156661449</v>
       </c>
       <c r="K7">
-        <v>1.000016083635006</v>
+        <v>1.007323106776749</v>
       </c>
       <c r="L7">
-        <v>0.999995174115157</v>
+        <v>0.9978030646285836</v>
       </c>
       <c r="M7">
-        <v>0.9999758722968216</v>
+        <v>0.9890153483337571</v>
       </c>
       <c r="N7">
-        <v>1.000016083635006</v>
+        <v>1.007323106776749</v>
       </c>
       <c r="O7">
-        <v>1.000006030572584</v>
+        <v>1.002746156661449</v>
       </c>
       <c r="P7">
-        <v>0.999990951434703</v>
+        <v>0.9958807524976032</v>
       </c>
       <c r="Q7">
-        <v>1.00000042282939</v>
+        <v>1.000192910374518</v>
       </c>
       <c r="R7">
-        <v>0.9999993288348041</v>
+        <v>0.9996948705906515</v>
       </c>
       <c r="S7">
-        <v>0.9999922393185341</v>
+        <v>0.9964670563609311</v>
       </c>
       <c r="T7">
-        <v>0.999999328834804</v>
+        <v>0.9996948705906515</v>
       </c>
       <c r="U7">
-        <v>0.9999982003976521</v>
+        <v>0.9991810689648855</v>
       </c>
       <c r="V7">
-        <v>1.000001777045123</v>
+        <v>1.000809476527258</v>
       </c>
       <c r="W7">
-        <v>0.9999984091530699</v>
+        <v>0.9992760793867723</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000017646108837</v>
+        <v>1.002762630039362</v>
       </c>
       <c r="D8">
-        <v>0.9999541023300308</v>
+        <v>0.9928148725221626</v>
       </c>
       <c r="E8">
-        <v>1.00004705876077</v>
+        <v>1.007367035694923</v>
       </c>
       <c r="F8">
-        <v>1.00004705876077</v>
+        <v>1.007367035694923</v>
       </c>
       <c r="G8">
-        <v>1.000026201093693</v>
+        <v>1.004101880208069</v>
       </c>
       <c r="H8">
-        <v>0.9999848314531895</v>
+        <v>0.9976255051748449</v>
       </c>
       <c r="I8">
-        <v>0.9999294095016235</v>
+        <v>0.988949454945755</v>
       </c>
       <c r="J8">
-        <v>1.000017646108837</v>
+        <v>1.002762630039362</v>
       </c>
       <c r="K8">
-        <v>1.00004705876077</v>
+        <v>1.007367035694923</v>
       </c>
       <c r="L8">
-        <v>0.9999858814875721</v>
+        <v>0.9977898859744462</v>
       </c>
       <c r="M8">
-        <v>0.9999294095016235</v>
+        <v>0.988949454945755</v>
       </c>
       <c r="N8">
-        <v>1.00004705876077</v>
+        <v>1.007367035694923</v>
       </c>
       <c r="O8">
-        <v>1.000017646108837</v>
+        <v>1.002762630039362</v>
       </c>
       <c r="P8">
-        <v>0.9999735278052302</v>
+        <v>0.9958560424925584</v>
       </c>
       <c r="Q8">
-        <v>1.000001238781013</v>
+        <v>1.000194067607103</v>
       </c>
       <c r="R8">
-        <v>0.9999980381237435</v>
+        <v>0.9996930402266798</v>
       </c>
       <c r="S8">
-        <v>0.9999772956878833</v>
+        <v>0.9964458633866539</v>
       </c>
       <c r="T8">
-        <v>0.9999980381237435</v>
+        <v>0.9996930402266798</v>
       </c>
       <c r="U8">
-        <v>0.999994736456105</v>
+        <v>0.999176156463721</v>
       </c>
       <c r="V8">
-        <v>1.000005200917038</v>
+        <v>1.000814332309961</v>
       </c>
       <c r="W8">
-        <v>0.9999953471055691</v>
+        <v>0.9992717368248656</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.00002640429888</v>
+        <v>1.002772682337669</v>
       </c>
       <c r="D9">
-        <v>0.999931323506833</v>
+        <v>0.9927887284016089</v>
       </c>
       <c r="E9">
-        <v>1.000070413876132</v>
+        <v>1.007393841800818</v>
       </c>
       <c r="F9">
-        <v>1.000070413876132</v>
+        <v>1.007393841800818</v>
       </c>
       <c r="G9">
-        <v>1.000039205748021</v>
+        <v>1.004116805486837</v>
       </c>
       <c r="H9">
-        <v>0.9999773035998936</v>
+        <v>0.9976168652206892</v>
       </c>
       <c r="I9">
-        <v>0.9998943763264262</v>
+        <v>0.9889092459890801</v>
       </c>
       <c r="J9">
-        <v>1.00002640429888</v>
+        <v>1.002772682337669</v>
       </c>
       <c r="K9">
-        <v>1.000070413876132</v>
+        <v>1.007393841800818</v>
       </c>
       <c r="L9">
-        <v>0.9999788747862527</v>
+        <v>0.9977818441921716</v>
       </c>
       <c r="M9">
-        <v>0.9998943763264262</v>
+        <v>0.9889092459890801</v>
       </c>
       <c r="N9">
-        <v>1.000070413876132</v>
+        <v>1.007393841800818</v>
       </c>
       <c r="O9">
-        <v>1.00002640429888</v>
+        <v>1.002772682337669</v>
       </c>
       <c r="P9">
-        <v>0.9999603903126533</v>
+        <v>0.9958409641633745</v>
       </c>
       <c r="Q9">
-        <v>1.000001853949387</v>
+        <v>1.000194773779179</v>
       </c>
       <c r="R9">
-        <v>0.999997064833813</v>
+        <v>0.9996919233758556</v>
       </c>
       <c r="S9">
-        <v>0.9999660280750667</v>
+        <v>0.9964329311824794</v>
       </c>
       <c r="T9">
-        <v>0.9999970648338131</v>
+        <v>0.9996919233758556</v>
       </c>
       <c r="U9">
-        <v>0.9999921245253333</v>
+        <v>0.9991731588370639</v>
       </c>
       <c r="V9">
-        <v>1.000007782395493</v>
+        <v>1.000817295429815</v>
       </c>
       <c r="W9">
-        <v>0.9999930383051649</v>
+        <v>0.9992690869708177</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000055282523854</v>
+        <v>1.002833114812412</v>
       </c>
       <c r="D10">
-        <v>0.9998562160193032</v>
+        <v>0.9926315536597549</v>
       </c>
       <c r="E10">
-        <v>1.000147423918387</v>
+        <v>1.007554995613636</v>
       </c>
       <c r="F10">
-        <v>1.000147423918387</v>
+        <v>1.007554995613636</v>
       </c>
       <c r="G10">
-        <v>1.000082081275334</v>
+        <v>1.004206533846534</v>
       </c>
       <c r="H10">
-        <v>0.9999524822596512</v>
+        <v>0.9975649230891118</v>
       </c>
       <c r="I10">
-        <v>0.9997788624555113</v>
+        <v>0.9886675153253371</v>
       </c>
       <c r="J10">
-        <v>1.000055282523854</v>
+        <v>1.002833114812412</v>
       </c>
       <c r="K10">
-        <v>1.000147423918387</v>
+        <v>1.007554995613636</v>
       </c>
       <c r="L10">
-        <v>0.9999557725423656</v>
+        <v>0.9977334980891114</v>
       </c>
       <c r="M10">
-        <v>0.9997788624555113</v>
+        <v>0.9886675153253371</v>
       </c>
       <c r="N10">
-        <v>1.000147423918387</v>
+        <v>1.007554995613636</v>
       </c>
       <c r="O10">
-        <v>1.000055282523854</v>
+        <v>1.002833114812412</v>
       </c>
       <c r="P10">
-        <v>0.9999170724896824</v>
+        <v>0.9957503150688747</v>
       </c>
       <c r="Q10">
-        <v>1.000003882391752</v>
+        <v>1.000199018950762</v>
       </c>
       <c r="R10">
-        <v>0.9999938562992506</v>
+        <v>0.9996852085837951</v>
       </c>
       <c r="S10">
-        <v>0.9999288757463387</v>
+        <v>0.9963551844089538</v>
       </c>
       <c r="T10">
-        <v>0.9999938562992506</v>
+        <v>0.9996852085837951</v>
       </c>
       <c r="U10">
-        <v>0.9999835127893508</v>
+        <v>0.9991551372101243</v>
       </c>
       <c r="V10">
-        <v>1.000016295015158</v>
+        <v>1.000835108890826</v>
       </c>
       <c r="W10">
-        <v>0.9999854254397824</v>
+        <v>0.9992531561560387</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000096524967597</v>
+        <v>1.000087254317405</v>
       </c>
       <c r="D11">
-        <v>0.9997489583275069</v>
+        <v>0.9997730656729822</v>
       </c>
       <c r="E11">
-        <v>1.000257399145513</v>
+        <v>1.000232678279272</v>
       </c>
       <c r="F11">
-        <v>1.000257399145513</v>
+        <v>1.000232678279272</v>
       </c>
       <c r="G11">
-        <v>1.000143317886023</v>
+        <v>1.000129552209902</v>
       </c>
       <c r="H11">
-        <v>0.9999170368880097</v>
+        <v>0.999925003153652</v>
       </c>
       <c r="I11">
-        <v>0.9996139002056162</v>
+        <v>0.9996509802313387</v>
       </c>
       <c r="J11">
-        <v>1.000096524967597</v>
+        <v>1.000087254317405</v>
       </c>
       <c r="K11">
-        <v>1.000257399145513</v>
+        <v>1.000232678279272</v>
       </c>
       <c r="L11">
-        <v>0.9999227784567838</v>
+        <v>0.9999301960553806</v>
       </c>
       <c r="M11">
-        <v>0.9996139002056162</v>
+        <v>0.9996509802313387</v>
       </c>
       <c r="N11">
-        <v>1.000257399145513</v>
+        <v>1.000232678279272</v>
       </c>
       <c r="O11">
-        <v>1.000096524967597</v>
+        <v>1.000087254317405</v>
       </c>
       <c r="P11">
-        <v>0.9998552125866069</v>
+        <v>0.9998691172743719</v>
       </c>
       <c r="Q11">
-        <v>1.000006780927804</v>
+        <v>1.000006128735528</v>
       </c>
       <c r="R11">
-        <v>0.999989274772909</v>
+        <v>0.9999903042760053</v>
       </c>
       <c r="S11">
-        <v>0.9998758206870745</v>
+        <v>0.9998877459007985</v>
       </c>
       <c r="T11">
-        <v>0.999989274772909</v>
+        <v>0.9999903042760053</v>
       </c>
       <c r="U11">
-        <v>0.9999712153016842</v>
+        <v>0.999973978995417</v>
       </c>
       <c r="V11">
-        <v>1.00002845207045</v>
+        <v>1.000025718852188</v>
       </c>
       <c r="W11">
-        <v>0.999974555105581</v>
+        <v>0.9999769980296671</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9989133884888697</v>
+        <v>1.000050769414633</v>
       </c>
       <c r="D12">
-        <v>1.002826078447143</v>
+        <v>0.9998679554818181</v>
       </c>
       <c r="E12">
-        <v>0.9971023725035181</v>
+        <v>1.000135386439358</v>
       </c>
       <c r="F12">
-        <v>0.9971023725035181</v>
+        <v>1.000135386439358</v>
       </c>
       <c r="G12">
-        <v>0.9983866389148851</v>
+        <v>1.000075380754177</v>
       </c>
       <c r="H12">
-        <v>1.000933937204605</v>
+        <v>0.9999563620810656</v>
       </c>
       <c r="I12">
-        <v>1.004346434178441</v>
+        <v>0.9997969181109384</v>
       </c>
       <c r="J12">
-        <v>0.9989133884888697</v>
+        <v>1.000050769414633</v>
       </c>
       <c r="K12">
-        <v>0.9971023725035181</v>
+        <v>1.000135386439358</v>
       </c>
       <c r="L12">
-        <v>1.000869282925694</v>
+        <v>0.9999593833793426</v>
       </c>
       <c r="M12">
-        <v>1.004346434178441</v>
+        <v>0.9997969181109384</v>
       </c>
       <c r="N12">
-        <v>0.9971023725035181</v>
+        <v>1.000135386439358</v>
       </c>
       <c r="O12">
-        <v>0.9989133884888697</v>
+        <v>1.000050769414633</v>
       </c>
       <c r="P12">
-        <v>1.001629911333656</v>
+        <v>0.9999238437627858</v>
       </c>
       <c r="Q12">
-        <v>0.9999236628467373</v>
+        <v>1.000003565747849</v>
       </c>
       <c r="R12">
-        <v>1.00012073172361</v>
+        <v>0.9999943579883098</v>
       </c>
       <c r="S12">
-        <v>1.001397919957305</v>
+        <v>0.9999346832022123</v>
       </c>
       <c r="T12">
-        <v>1.00012073172361</v>
+        <v>0.9999943579883098</v>
       </c>
       <c r="U12">
-        <v>1.000324033093858</v>
+        <v>0.9999848590114988</v>
       </c>
       <c r="V12">
-        <v>0.9996797009757902</v>
+        <v>1.000014964497071</v>
       </c>
       <c r="W12">
-        <v>1.000286440144003</v>
+        <v>0.9999866156344959</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9997182823393248</v>
+        <v>1.00018391122879</v>
       </c>
       <c r="D13">
-        <v>1.000732702200518</v>
+        <v>0.9995216723211219</v>
       </c>
       <c r="E13">
-        <v>0.9992487542895062</v>
+        <v>1.000490435588894</v>
       </c>
       <c r="F13">
-        <v>0.9992487542895062</v>
+        <v>1.000490435588894</v>
       </c>
       <c r="G13">
-        <v>0.9995817172483272</v>
+        <v>1.00027306953358</v>
       </c>
       <c r="H13">
-        <v>1.000242137706485</v>
+        <v>0.9998419238271986</v>
       </c>
       <c r="I13">
-        <v>1.001126869722597</v>
+        <v>0.9992643464389663</v>
       </c>
       <c r="J13">
-        <v>0.9997182823393248</v>
+        <v>1.00018391122879</v>
       </c>
       <c r="K13">
-        <v>0.9992487542895062</v>
+        <v>1.000490435588894</v>
       </c>
       <c r="L13">
-        <v>1.000225371874621</v>
+        <v>0.9998528714279908</v>
       </c>
       <c r="M13">
-        <v>1.001126869722597</v>
+        <v>0.9992643464389663</v>
       </c>
       <c r="N13">
-        <v>0.9992487542895062</v>
+        <v>1.000490435588894</v>
       </c>
       <c r="O13">
-        <v>0.9997182823393248</v>
+        <v>1.00018391122879</v>
       </c>
       <c r="P13">
-        <v>1.000422576030961</v>
+        <v>0.9997241288338781</v>
       </c>
       <c r="Q13">
-        <v>0.9999802100229047</v>
+        <v>1.000012917527994</v>
       </c>
       <c r="R13">
-        <v>1.000031302117143</v>
+        <v>0.9999795644188832</v>
       </c>
       <c r="S13">
-        <v>1.000362429922802</v>
+        <v>0.9997633938316516</v>
       </c>
       <c r="T13">
-        <v>1.000031302117143</v>
+        <v>0.9999795644188832</v>
       </c>
       <c r="U13">
-        <v>1.000084011014478</v>
+        <v>0.9999451542709621</v>
       </c>
       <c r="V13">
-        <v>0.9999169596694836</v>
+        <v>1.000054210534548</v>
       </c>
       <c r="W13">
-        <v>1.000074264715088</v>
+        <v>0.9999515176994164</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.000059712681101</v>
+        <v>1.000200923079242</v>
       </c>
       <c r="D14">
-        <v>0.999844699531198</v>
+        <v>0.9994774412582553</v>
       </c>
       <c r="E14">
-        <v>1.000159231595163</v>
+        <v>1.000535786246803</v>
       </c>
       <c r="F14">
-        <v>1.000159231595163</v>
+        <v>1.000535786246803</v>
       </c>
       <c r="G14">
-        <v>1.000088667546649</v>
+        <v>1.000298320640265</v>
       </c>
       <c r="H14">
-        <v>0.9999486714523894</v>
+        <v>0.9998273049005794</v>
       </c>
       <c r="I14">
-        <v>0.9997611335528527</v>
+        <v>0.9991963190588369</v>
       </c>
       <c r="J14">
-        <v>1.000059712681101</v>
+        <v>1.000200923079242</v>
       </c>
       <c r="K14">
-        <v>1.000159231595163</v>
+        <v>1.000535786246803</v>
       </c>
       <c r="L14">
-        <v>0.9999522243380066</v>
+        <v>0.9998392667678674</v>
       </c>
       <c r="M14">
-        <v>0.9997611335528527</v>
+        <v>0.9991963190588369</v>
       </c>
       <c r="N14">
-        <v>1.000159231595163</v>
+        <v>1.000535786246803</v>
       </c>
       <c r="O14">
-        <v>1.000059712681101</v>
+        <v>1.000200923079242</v>
       </c>
       <c r="P14">
-        <v>0.9999104231169769</v>
+        <v>0.9996986210690395</v>
       </c>
       <c r="Q14">
-        <v>1.000004192066745</v>
+        <v>1.000014113989911</v>
       </c>
       <c r="R14">
-        <v>0.9999933592763725</v>
+        <v>0.9999776761282941</v>
       </c>
       <c r="S14">
-        <v>0.9999231725621144</v>
+        <v>0.9997415156795527</v>
       </c>
       <c r="T14">
-        <v>0.9999933592763725</v>
+        <v>0.9999776761282941</v>
       </c>
       <c r="U14">
-        <v>0.9999821873203767</v>
+        <v>0.9999400833213654</v>
       </c>
       <c r="V14">
-        <v>1.000017596175334</v>
+        <v>1.000059223906453</v>
       </c>
       <c r="W14">
-        <v>0.9999842566723077</v>
+        <v>0.9999470356288864</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.000017786627644</v>
+        <v>1.000071726285555</v>
       </c>
       <c r="D15">
-        <v>0.9999537480898497</v>
+        <v>0.9998134513274899</v>
       </c>
       <c r="E15">
-        <v>1.000047428793518</v>
+        <v>1.00019126997851</v>
       </c>
       <c r="F15">
-        <v>1.000047428793518</v>
+        <v>1.00019126997851</v>
       </c>
       <c r="G15">
-        <v>1.000026404573309</v>
+        <v>1.000106496282311</v>
       </c>
       <c r="H15">
-        <v>0.9999847138744833</v>
+        <v>0.9999383498791058</v>
       </c>
       <c r="I15">
-        <v>0.9999288572488794</v>
+        <v>0.9997130926615361</v>
       </c>
       <c r="J15">
-        <v>1.000017786627644</v>
+        <v>1.000071726285555</v>
       </c>
       <c r="K15">
-        <v>1.000047428793518</v>
+        <v>1.00019126997851</v>
       </c>
       <c r="L15">
-        <v>0.9999857673088806</v>
+        <v>0.9999426184261588</v>
       </c>
       <c r="M15">
-        <v>0.9999288572488794</v>
+        <v>0.9997130926615361</v>
       </c>
       <c r="N15">
-        <v>1.000047428793518</v>
+        <v>1.00019126997851</v>
       </c>
       <c r="O15">
-        <v>1.000017786627644</v>
+        <v>1.000071726285555</v>
       </c>
       <c r="P15">
-        <v>0.9999733219382617</v>
+        <v>0.9998924094735457</v>
       </c>
       <c r="Q15">
-        <v>1.000001250251064</v>
+        <v>1.000005038082331</v>
       </c>
       <c r="R15">
-        <v>0.9999980242233472</v>
+        <v>0.9999920296418671</v>
       </c>
       <c r="S15">
-        <v>0.9999771192503356</v>
+        <v>0.9999077229420658</v>
       </c>
       <c r="T15">
-        <v>0.9999980242233472</v>
+        <v>0.9999920296418671</v>
       </c>
       <c r="U15">
-        <v>0.9999946966361313</v>
+        <v>0.9999786097011768</v>
       </c>
       <c r="V15">
-        <v>1.000005243067609</v>
+        <v>1.000021141756643</v>
       </c>
       <c r="W15">
-        <v>0.999995311643026</v>
+        <v>0.9999810913907778</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.001399602333584</v>
+        <v>1.000138466287114</v>
       </c>
       <c r="D16">
-        <v>0.996359884982554</v>
+        <v>0.999639869858744</v>
       </c>
       <c r="E16">
-        <v>1.003732264867958</v>
+        <v>1.000369245630465</v>
       </c>
       <c r="F16">
-        <v>1.003732264867958</v>
+        <v>1.000369245630465</v>
       </c>
       <c r="G16">
-        <v>1.002078074805824</v>
+        <v>1.000205592129352</v>
       </c>
       <c r="H16">
-        <v>0.9987970363618708</v>
+        <v>0.999880985806552</v>
       </c>
       <c r="I16">
-        <v>0.9944016035632178</v>
+        <v>0.9994461300683479</v>
       </c>
       <c r="J16">
-        <v>1.001399602333584</v>
+        <v>1.000138466287114</v>
       </c>
       <c r="K16">
-        <v>1.003732264867958</v>
+        <v>1.000369245630465</v>
       </c>
       <c r="L16">
-        <v>0.9988803253011131</v>
+        <v>0.9998892274493317</v>
       </c>
       <c r="M16">
-        <v>0.9944016035632178</v>
+        <v>0.9994461300683479</v>
       </c>
       <c r="N16">
-        <v>1.003732264867958</v>
+        <v>1.000369245630465</v>
       </c>
       <c r="O16">
-        <v>1.001399602333584</v>
+        <v>1.000138466287114</v>
       </c>
       <c r="P16">
-        <v>0.997900602948401</v>
+        <v>0.999792298177731</v>
       </c>
       <c r="Q16">
-        <v>1.000098319347728</v>
+        <v>1.000009726046833</v>
       </c>
       <c r="R16">
-        <v>0.9998444902549201</v>
+        <v>0.9999846139953089</v>
       </c>
       <c r="S16">
-        <v>0.9981994140862241</v>
+        <v>0.9998218607206714</v>
       </c>
       <c r="T16">
-        <v>0.9998444902549201</v>
+        <v>0.9999846139953089</v>
       </c>
       <c r="U16">
-        <v>0.9995826267816577</v>
+        <v>0.9999587069481197</v>
       </c>
       <c r="V16">
-        <v>1.000412554398918</v>
+        <v>1.000040814684589</v>
       </c>
       <c r="W16">
-        <v>0.9996310493187133</v>
+        <v>0.9999634979396275</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.001147136211812</v>
+        <v>1.000265356436542</v>
       </c>
       <c r="D17">
-        <v>0.9970165031241708</v>
+        <v>0.9993098546379499</v>
       </c>
       <c r="E17">
-        <v>1.00305902516592</v>
+        <v>1.000707616876078</v>
       </c>
       <c r="F17">
-        <v>1.00305902516592</v>
+        <v>1.000707616876078</v>
       </c>
       <c r="G17">
-        <v>1.001703223995699</v>
+        <v>1.000393990386991</v>
       </c>
       <c r="H17">
-        <v>0.9990140315881788</v>
+        <v>0.9997719215889141</v>
       </c>
       <c r="I17">
-        <v>0.9954114626199866</v>
+        <v>0.9989385745069974</v>
       </c>
       <c r="J17">
-        <v>1.001147136211812</v>
+        <v>1.000265356436542</v>
       </c>
       <c r="K17">
-        <v>1.00305902516592</v>
+        <v>1.000707616876078</v>
       </c>
       <c r="L17">
-        <v>0.999082295309765</v>
+        <v>0.9997877181175204</v>
       </c>
       <c r="M17">
-        <v>0.9954114626199866</v>
+        <v>0.9989385745069974</v>
       </c>
       <c r="N17">
-        <v>1.00305902516592</v>
+        <v>1.000707616876078</v>
       </c>
       <c r="O17">
-        <v>1.001147136211812</v>
+        <v>1.000265356436542</v>
       </c>
       <c r="P17">
-        <v>0.9982792994158993</v>
+        <v>0.9996019654717698</v>
       </c>
       <c r="Q17">
-        <v>1.000080583899996</v>
+        <v>1.000018639012728</v>
       </c>
       <c r="R17">
-        <v>0.9998725413325729</v>
+        <v>0.9999705159398727</v>
       </c>
       <c r="S17">
-        <v>0.9985242101399926</v>
+        <v>0.9996586175108179</v>
       </c>
       <c r="T17">
-        <v>0.9998725413325729</v>
+        <v>0.9999705159398727</v>
       </c>
       <c r="U17">
-        <v>0.9996579138964743</v>
+        <v>0.999920867352133</v>
       </c>
       <c r="V17">
-        <v>1.000338136150364</v>
+        <v>1.000078217256922</v>
       </c>
       <c r="W17">
-        <v>0.999697601778418</v>
+        <v>0.9999300486234419</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000642988855063</v>
+        <v>1.000389194035772</v>
       </c>
       <c r="D18">
-        <v>0.9983276998142165</v>
+        <v>0.9989877758472795</v>
       </c>
       <c r="E18">
-        <v>1.001714637667803</v>
+        <v>1.001037853662546</v>
       </c>
       <c r="F18">
-        <v>1.001714637667803</v>
+        <v>1.001037853662546</v>
       </c>
       <c r="G18">
-        <v>1.000954686388298</v>
+        <v>1.000577867363823</v>
       </c>
       <c r="H18">
-        <v>0.9994473477048855</v>
+        <v>0.9996654883417285</v>
       </c>
       <c r="I18">
-        <v>0.9974280451071549</v>
+        <v>0.9984432348543018</v>
       </c>
       <c r="J18">
-        <v>1.000642988855063</v>
+        <v>1.000389194035772</v>
       </c>
       <c r="K18">
-        <v>1.001714637667803</v>
+        <v>1.001037853662546</v>
       </c>
       <c r="L18">
-        <v>0.9994856091843859</v>
+        <v>0.9996886482300847</v>
       </c>
       <c r="M18">
-        <v>0.9974280451071549</v>
+        <v>0.9984432348543018</v>
       </c>
       <c r="N18">
-        <v>1.001714637667803</v>
+        <v>1.001037853662546</v>
       </c>
       <c r="O18">
-        <v>1.000642988855063</v>
+        <v>1.000389194035772</v>
       </c>
       <c r="P18">
-        <v>0.9990355169811089</v>
+        <v>0.9994162144450368</v>
       </c>
       <c r="Q18">
-        <v>1.000045168279974</v>
+        <v>1.00002734118875</v>
       </c>
       <c r="R18">
-        <v>0.9999285572100067</v>
+        <v>0.9999567608508734</v>
       </c>
       <c r="S18">
-        <v>0.9991727938890346</v>
+        <v>0.999499305743934</v>
       </c>
       <c r="T18">
-        <v>0.9999285572100067</v>
+        <v>0.9999567608508734</v>
       </c>
       <c r="U18">
-        <v>0.9998082548337264</v>
+        <v>0.9998839427235872</v>
       </c>
       <c r="V18">
-        <v>1.000189531400542</v>
+        <v>1.000114724911379</v>
       </c>
       <c r="W18">
-        <v>0.9998305004471086</v>
+        <v>0.9998974070464135</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000703326241775</v>
+        <v>1.000006030572584</v>
       </c>
       <c r="D19">
-        <v>0.9981707804322059</v>
+        <v>0.9999843126097737</v>
       </c>
       <c r="E19">
-        <v>1.001875530444913</v>
+        <v>1.000016083635006</v>
       </c>
       <c r="F19">
-        <v>1.001875530444913</v>
+        <v>1.000016083635006</v>
       </c>
       <c r="G19">
-        <v>1.001044274847723</v>
+        <v>1.000008954336435</v>
       </c>
       <c r="H19">
-        <v>0.99939548998977</v>
+        <v>0.9999948150861965</v>
       </c>
       <c r="I19">
-        <v>0.9971867031194493</v>
+        <v>0.9999758722968216</v>
       </c>
       <c r="J19">
-        <v>1.000703326241775</v>
+        <v>1.000006030572584</v>
       </c>
       <c r="K19">
-        <v>1.001875530444913</v>
+        <v>1.000016083635006</v>
       </c>
       <c r="L19">
-        <v>0.9994373356165782</v>
+        <v>0.999995174115157</v>
       </c>
       <c r="M19">
-        <v>0.9971867031194493</v>
+        <v>0.9999758722968216</v>
       </c>
       <c r="N19">
-        <v>1.001875530444913</v>
+        <v>1.000016083635006</v>
       </c>
       <c r="O19">
-        <v>1.000703326241775</v>
+        <v>1.000006030572584</v>
       </c>
       <c r="P19">
-        <v>0.998945014680612</v>
+        <v>0.999990951434703</v>
       </c>
       <c r="Q19">
-        <v>1.000049408115772</v>
+        <v>1.00000042282939</v>
       </c>
       <c r="R19">
-        <v>0.9999218532687125</v>
+        <v>0.9999993288348041</v>
       </c>
       <c r="S19">
-        <v>0.999095173116998</v>
+        <v>0.9999922393185341</v>
       </c>
       <c r="T19">
-        <v>0.9999218532687125</v>
+        <v>0.999999328834804</v>
       </c>
       <c r="U19">
-        <v>0.9997902624489768</v>
+        <v>0.9999982003976521</v>
       </c>
       <c r="V19">
-        <v>1.000207316048164</v>
+        <v>1.000001777045123</v>
       </c>
       <c r="W19">
-        <v>0.9998145958667737</v>
+        <v>0.9999984091530699</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000000294917477</v>
+        <v>1.000017646108837</v>
       </c>
       <c r="D20">
-        <v>0.9999992303951424</v>
+        <v>0.9999541023300308</v>
       </c>
       <c r="E20">
-        <v>1.000000788364539</v>
+        <v>1.00004705876077</v>
       </c>
       <c r="F20">
-        <v>1.000000788364539</v>
+        <v>1.00004705876077</v>
       </c>
       <c r="G20">
-        <v>1.000000438232204</v>
+        <v>1.000026201093693</v>
       </c>
       <c r="H20">
-        <v>0.9999997450482361</v>
+        <v>0.9999848314531895</v>
       </c>
       <c r="I20">
-        <v>0.999998815389085</v>
+        <v>0.9999294095016235</v>
       </c>
       <c r="J20">
-        <v>1.000000294917477</v>
+        <v>1.000017646108837</v>
       </c>
       <c r="K20">
-        <v>1.000000788364539</v>
+        <v>1.00004705876077</v>
       </c>
       <c r="L20">
-        <v>0.9999997626940618</v>
+        <v>0.9999858814875721</v>
       </c>
       <c r="M20">
-        <v>0.999998815389085</v>
+        <v>0.9999294095016235</v>
       </c>
       <c r="N20">
-        <v>1.000000788364539</v>
+        <v>1.00004705876077</v>
       </c>
       <c r="O20">
-        <v>1.000000294917477</v>
+        <v>1.000017646108837</v>
       </c>
       <c r="P20">
-        <v>0.999999555153281</v>
+        <v>0.9999735278052302</v>
       </c>
       <c r="Q20">
-        <v>1.000000019982856</v>
+        <v>1.000001238781013</v>
       </c>
       <c r="R20">
-        <v>0.9999999662237005</v>
+        <v>0.9999980381237435</v>
       </c>
       <c r="S20">
-        <v>0.9999996184515995</v>
+        <v>0.9999772956878833</v>
       </c>
       <c r="T20">
-        <v>0.9999999662237004</v>
+        <v>0.9999980381237435</v>
       </c>
       <c r="U20">
-        <v>0.9999999109298343</v>
+        <v>0.999994736456105</v>
       </c>
       <c r="V20">
-        <v>1.000000086416775</v>
+        <v>1.000005200917038</v>
       </c>
       <c r="W20">
-        <v>0.9999999212447778</v>
+        <v>0.9999953471055691</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000006272031574</v>
+        <v>1.00002640429888</v>
       </c>
       <c r="D21">
-        <v>0.999983686495077</v>
+        <v>0.999931323506833</v>
       </c>
       <c r="E21">
-        <v>1.000016725606483</v>
+        <v>1.000070413876132</v>
       </c>
       <c r="F21">
-        <v>1.000016725606483</v>
+        <v>1.000070413876132</v>
       </c>
       <c r="G21">
-        <v>1.00000931199005</v>
+        <v>1.000039205748021</v>
       </c>
       <c r="H21">
-        <v>0.9999946082836355</v>
+        <v>0.9999773035998936</v>
       </c>
       <c r="I21">
-        <v>0.9999749096812192</v>
+        <v>0.9998943763264262</v>
       </c>
       <c r="J21">
-        <v>1.000006272031574</v>
+        <v>1.00002640429888</v>
       </c>
       <c r="K21">
-        <v>1.000016725606483</v>
+        <v>1.000070413876132</v>
       </c>
       <c r="L21">
-        <v>0.9999949815678474</v>
+        <v>0.9999788747862527</v>
       </c>
       <c r="M21">
-        <v>0.9999749096812192</v>
+        <v>0.9998943763264262</v>
       </c>
       <c r="N21">
-        <v>1.000016725606483</v>
+        <v>1.000070413876132</v>
       </c>
       <c r="O21">
-        <v>1.000006272031574</v>
+        <v>1.00002640429888</v>
       </c>
       <c r="P21">
-        <v>0.9999905908563967</v>
+        <v>0.9999603903126533</v>
       </c>
       <c r="Q21">
-        <v>1.000000440157605</v>
+        <v>1.000001853949387</v>
       </c>
       <c r="R21">
-        <v>0.9999993024397588</v>
+        <v>0.999997064833813</v>
       </c>
       <c r="S21">
-        <v>0.9999919299988097</v>
+        <v>0.9999660280750667</v>
       </c>
       <c r="T21">
-        <v>0.9999993024397588</v>
+        <v>0.9999970648338131</v>
       </c>
       <c r="U21">
-        <v>0.9999981289007279</v>
+        <v>0.9999921245253333</v>
       </c>
       <c r="V21">
-        <v>1.000001848241879</v>
+        <v>1.000007782395493</v>
       </c>
       <c r="W21">
-        <v>0.9999983459609325</v>
+        <v>0.9999930383051649</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000022081553698</v>
+        <v>1.000055282523854</v>
       </c>
       <c r="D22">
-        <v>0.9999425645223938</v>
+        <v>0.9998562160193032</v>
       </c>
       <c r="E22">
-        <v>1.000058889342342</v>
+        <v>1.000147423918387</v>
       </c>
       <c r="F22">
-        <v>1.000058889342342</v>
+        <v>1.000147423918387</v>
       </c>
       <c r="G22">
-        <v>1.000032788203891</v>
+        <v>1.000082081275334</v>
       </c>
       <c r="H22">
-        <v>0.9999810188397871</v>
+        <v>0.9999524822596512</v>
       </c>
       <c r="I22">
-        <v>0.9999116654892591</v>
+        <v>0.9997788624555113</v>
       </c>
       <c r="J22">
-        <v>1.000022081553698</v>
+        <v>1.000055282523854</v>
       </c>
       <c r="K22">
-        <v>1.000058889342342</v>
+        <v>1.000147423918387</v>
       </c>
       <c r="L22">
-        <v>0.9999823330060112</v>
+        <v>0.9999557725423656</v>
       </c>
       <c r="M22">
-        <v>0.9999116654892591</v>
+        <v>0.9997788624555113</v>
       </c>
       <c r="N22">
-        <v>1.000058889342342</v>
+        <v>1.000147423918387</v>
       </c>
       <c r="O22">
-        <v>1.000022081553698</v>
+        <v>1.000055282523854</v>
       </c>
       <c r="P22">
-        <v>0.9999668735214784</v>
+        <v>0.9999170724896824</v>
       </c>
       <c r="Q22">
-        <v>1.000001550196742</v>
+        <v>1.000003882391752</v>
       </c>
       <c r="R22">
-        <v>0.9999975454617663</v>
+        <v>0.9999938562992506</v>
       </c>
       <c r="S22">
-        <v>0.9999715886275813</v>
+        <v>0.9999288757463387</v>
       </c>
       <c r="T22">
-        <v>0.9999975454617663</v>
+        <v>0.9999938562992506</v>
       </c>
       <c r="U22">
-        <v>0.9999934138062715</v>
+        <v>0.9999835127893508</v>
       </c>
       <c r="V22">
-        <v>1.000006508913486</v>
+        <v>1.000016295015158</v>
       </c>
       <c r="W22">
-        <v>0.999994177813885</v>
+        <v>0.9999854254397824</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.000096524967597</v>
+      </c>
+      <c r="D23">
+        <v>0.9997489583275069</v>
+      </c>
+      <c r="E23">
+        <v>1.000257399145513</v>
+      </c>
+      <c r="F23">
+        <v>1.000257399145513</v>
+      </c>
+      <c r="G23">
+        <v>1.000143317886023</v>
+      </c>
+      <c r="H23">
+        <v>0.9999170368880097</v>
+      </c>
+      <c r="I23">
+        <v>0.9996139002056162</v>
+      </c>
+      <c r="J23">
+        <v>1.000096524967597</v>
+      </c>
+      <c r="K23">
+        <v>1.000257399145513</v>
+      </c>
+      <c r="L23">
+        <v>0.9999227784567838</v>
+      </c>
+      <c r="M23">
+        <v>0.9996139002056162</v>
+      </c>
+      <c r="N23">
+        <v>1.000257399145513</v>
+      </c>
+      <c r="O23">
+        <v>1.000096524967597</v>
+      </c>
+      <c r="P23">
+        <v>0.9998552125866069</v>
+      </c>
+      <c r="Q23">
+        <v>1.000006780927804</v>
+      </c>
+      <c r="R23">
+        <v>0.999989274772909</v>
+      </c>
+      <c r="S23">
+        <v>0.9998758206870745</v>
+      </c>
+      <c r="T23">
+        <v>0.999989274772909</v>
+      </c>
+      <c r="U23">
+        <v>0.9999712153016842</v>
+      </c>
+      <c r="V23">
+        <v>1.00002845207045</v>
+      </c>
+      <c r="W23">
+        <v>0.999974555105581</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9989133884888697</v>
+      </c>
+      <c r="D24">
+        <v>1.002826078447143</v>
+      </c>
+      <c r="E24">
+        <v>0.9971023725035181</v>
+      </c>
+      <c r="F24">
+        <v>0.9971023725035181</v>
+      </c>
+      <c r="G24">
+        <v>0.9983866389148851</v>
+      </c>
+      <c r="H24">
+        <v>1.000933937204605</v>
+      </c>
+      <c r="I24">
+        <v>1.004346434178441</v>
+      </c>
+      <c r="J24">
+        <v>0.9989133884888697</v>
+      </c>
+      <c r="K24">
+        <v>0.9971023725035181</v>
+      </c>
+      <c r="L24">
+        <v>1.000869282925694</v>
+      </c>
+      <c r="M24">
+        <v>1.004346434178441</v>
+      </c>
+      <c r="N24">
+        <v>0.9971023725035181</v>
+      </c>
+      <c r="O24">
+        <v>0.9989133884888697</v>
+      </c>
+      <c r="P24">
+        <v>1.001629911333656</v>
+      </c>
+      <c r="Q24">
+        <v>0.9999236628467373</v>
+      </c>
+      <c r="R24">
+        <v>1.00012073172361</v>
+      </c>
+      <c r="S24">
+        <v>1.001397919957305</v>
+      </c>
+      <c r="T24">
+        <v>1.00012073172361</v>
+      </c>
+      <c r="U24">
+        <v>1.000324033093858</v>
+      </c>
+      <c r="V24">
+        <v>0.9996797009757902</v>
+      </c>
+      <c r="W24">
+        <v>1.000286440144003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9997182823393248</v>
+      </c>
+      <c r="D25">
+        <v>1.000732702200518</v>
+      </c>
+      <c r="E25">
+        <v>0.9992487542895062</v>
+      </c>
+      <c r="F25">
+        <v>0.9992487542895062</v>
+      </c>
+      <c r="G25">
+        <v>0.9995817172483272</v>
+      </c>
+      <c r="H25">
+        <v>1.000242137706485</v>
+      </c>
+      <c r="I25">
+        <v>1.001126869722597</v>
+      </c>
+      <c r="J25">
+        <v>0.9997182823393248</v>
+      </c>
+      <c r="K25">
+        <v>0.9992487542895062</v>
+      </c>
+      <c r="L25">
+        <v>1.000225371874621</v>
+      </c>
+      <c r="M25">
+        <v>1.001126869722597</v>
+      </c>
+      <c r="N25">
+        <v>0.9992487542895062</v>
+      </c>
+      <c r="O25">
+        <v>0.9997182823393248</v>
+      </c>
+      <c r="P25">
+        <v>1.000422576030961</v>
+      </c>
+      <c r="Q25">
+        <v>0.9999802100229047</v>
+      </c>
+      <c r="R25">
+        <v>1.000031302117143</v>
+      </c>
+      <c r="S25">
+        <v>1.000362429922802</v>
+      </c>
+      <c r="T25">
+        <v>1.000031302117143</v>
+      </c>
+      <c r="U25">
+        <v>1.000084011014478</v>
+      </c>
+      <c r="V25">
+        <v>0.9999169596694836</v>
+      </c>
+      <c r="W25">
+        <v>1.000074264715088</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.000059712681101</v>
+      </c>
+      <c r="D26">
+        <v>0.999844699531198</v>
+      </c>
+      <c r="E26">
+        <v>1.000159231595163</v>
+      </c>
+      <c r="F26">
+        <v>1.000159231595163</v>
+      </c>
+      <c r="G26">
+        <v>1.000088667546649</v>
+      </c>
+      <c r="H26">
+        <v>0.9999486714523894</v>
+      </c>
+      <c r="I26">
+        <v>0.9997611335528527</v>
+      </c>
+      <c r="J26">
+        <v>1.000059712681101</v>
+      </c>
+      <c r="K26">
+        <v>1.000159231595163</v>
+      </c>
+      <c r="L26">
+        <v>0.9999522243380066</v>
+      </c>
+      <c r="M26">
+        <v>0.9997611335528527</v>
+      </c>
+      <c r="N26">
+        <v>1.000159231595163</v>
+      </c>
+      <c r="O26">
+        <v>1.000059712681101</v>
+      </c>
+      <c r="P26">
+        <v>0.9999104231169769</v>
+      </c>
+      <c r="Q26">
+        <v>1.000004192066745</v>
+      </c>
+      <c r="R26">
+        <v>0.9999933592763725</v>
+      </c>
+      <c r="S26">
+        <v>0.9999231725621144</v>
+      </c>
+      <c r="T26">
+        <v>0.9999933592763725</v>
+      </c>
+      <c r="U26">
+        <v>0.9999821873203767</v>
+      </c>
+      <c r="V26">
+        <v>1.000017596175334</v>
+      </c>
+      <c r="W26">
+        <v>0.9999842566723077</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.000017786627644</v>
+      </c>
+      <c r="D27">
+        <v>0.9999537480898497</v>
+      </c>
+      <c r="E27">
+        <v>1.000047428793518</v>
+      </c>
+      <c r="F27">
+        <v>1.000047428793518</v>
+      </c>
+      <c r="G27">
+        <v>1.000026404573309</v>
+      </c>
+      <c r="H27">
+        <v>0.9999847138744833</v>
+      </c>
+      <c r="I27">
+        <v>0.9999288572488794</v>
+      </c>
+      <c r="J27">
+        <v>1.000017786627644</v>
+      </c>
+      <c r="K27">
+        <v>1.000047428793518</v>
+      </c>
+      <c r="L27">
+        <v>0.9999857673088806</v>
+      </c>
+      <c r="M27">
+        <v>0.9999288572488794</v>
+      </c>
+      <c r="N27">
+        <v>1.000047428793518</v>
+      </c>
+      <c r="O27">
+        <v>1.000017786627644</v>
+      </c>
+      <c r="P27">
+        <v>0.9999733219382617</v>
+      </c>
+      <c r="Q27">
+        <v>1.000001250251064</v>
+      </c>
+      <c r="R27">
+        <v>0.9999980242233472</v>
+      </c>
+      <c r="S27">
+        <v>0.9999771192503356</v>
+      </c>
+      <c r="T27">
+        <v>0.9999980242233472</v>
+      </c>
+      <c r="U27">
+        <v>0.9999946966361313</v>
+      </c>
+      <c r="V27">
+        <v>1.000005243067609</v>
+      </c>
+      <c r="W27">
+        <v>0.999995311643026</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.001399602333584</v>
+      </c>
+      <c r="D28">
+        <v>0.996359884982554</v>
+      </c>
+      <c r="E28">
+        <v>1.003732264867958</v>
+      </c>
+      <c r="F28">
+        <v>1.003732264867958</v>
+      </c>
+      <c r="G28">
+        <v>1.002078074805824</v>
+      </c>
+      <c r="H28">
+        <v>0.9987970363618708</v>
+      </c>
+      <c r="I28">
+        <v>0.9944016035632178</v>
+      </c>
+      <c r="J28">
+        <v>1.001399602333584</v>
+      </c>
+      <c r="K28">
+        <v>1.003732264867958</v>
+      </c>
+      <c r="L28">
+        <v>0.9988803253011131</v>
+      </c>
+      <c r="M28">
+        <v>0.9944016035632178</v>
+      </c>
+      <c r="N28">
+        <v>1.003732264867958</v>
+      </c>
+      <c r="O28">
+        <v>1.001399602333584</v>
+      </c>
+      <c r="P28">
+        <v>0.997900602948401</v>
+      </c>
+      <c r="Q28">
+        <v>1.000098319347728</v>
+      </c>
+      <c r="R28">
+        <v>0.9998444902549201</v>
+      </c>
+      <c r="S28">
+        <v>0.9981994140862241</v>
+      </c>
+      <c r="T28">
+        <v>0.9998444902549201</v>
+      </c>
+      <c r="U28">
+        <v>0.9995826267816577</v>
+      </c>
+      <c r="V28">
+        <v>1.000412554398918</v>
+      </c>
+      <c r="W28">
+        <v>0.9996310493187133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.001147136211812</v>
+      </c>
+      <c r="D29">
+        <v>0.9970165031241708</v>
+      </c>
+      <c r="E29">
+        <v>1.00305902516592</v>
+      </c>
+      <c r="F29">
+        <v>1.00305902516592</v>
+      </c>
+      <c r="G29">
+        <v>1.001703223995699</v>
+      </c>
+      <c r="H29">
+        <v>0.9990140315881788</v>
+      </c>
+      <c r="I29">
+        <v>0.9954114626199866</v>
+      </c>
+      <c r="J29">
+        <v>1.001147136211812</v>
+      </c>
+      <c r="K29">
+        <v>1.00305902516592</v>
+      </c>
+      <c r="L29">
+        <v>0.999082295309765</v>
+      </c>
+      <c r="M29">
+        <v>0.9954114626199866</v>
+      </c>
+      <c r="N29">
+        <v>1.00305902516592</v>
+      </c>
+      <c r="O29">
+        <v>1.001147136211812</v>
+      </c>
+      <c r="P29">
+        <v>0.9982792994158993</v>
+      </c>
+      <c r="Q29">
+        <v>1.000080583899996</v>
+      </c>
+      <c r="R29">
+        <v>0.9998725413325729</v>
+      </c>
+      <c r="S29">
+        <v>0.9985242101399926</v>
+      </c>
+      <c r="T29">
+        <v>0.9998725413325729</v>
+      </c>
+      <c r="U29">
+        <v>0.9996579138964743</v>
+      </c>
+      <c r="V29">
+        <v>1.000338136150364</v>
+      </c>
+      <c r="W29">
+        <v>0.999697601778418</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.000642988855063</v>
+      </c>
+      <c r="D30">
+        <v>0.9983276998142165</v>
+      </c>
+      <c r="E30">
+        <v>1.001714637667803</v>
+      </c>
+      <c r="F30">
+        <v>1.001714637667803</v>
+      </c>
+      <c r="G30">
+        <v>1.000954686388298</v>
+      </c>
+      <c r="H30">
+        <v>0.9994473477048855</v>
+      </c>
+      <c r="I30">
+        <v>0.9974280451071549</v>
+      </c>
+      <c r="J30">
+        <v>1.000642988855063</v>
+      </c>
+      <c r="K30">
+        <v>1.001714637667803</v>
+      </c>
+      <c r="L30">
+        <v>0.9994856091843859</v>
+      </c>
+      <c r="M30">
+        <v>0.9974280451071549</v>
+      </c>
+      <c r="N30">
+        <v>1.001714637667803</v>
+      </c>
+      <c r="O30">
+        <v>1.000642988855063</v>
+      </c>
+      <c r="P30">
+        <v>0.9990355169811089</v>
+      </c>
+      <c r="Q30">
+        <v>1.000045168279974</v>
+      </c>
+      <c r="R30">
+        <v>0.9999285572100067</v>
+      </c>
+      <c r="S30">
+        <v>0.9991727938890346</v>
+      </c>
+      <c r="T30">
+        <v>0.9999285572100067</v>
+      </c>
+      <c r="U30">
+        <v>0.9998082548337264</v>
+      </c>
+      <c r="V30">
+        <v>1.000189531400542</v>
+      </c>
+      <c r="W30">
+        <v>0.9998305004471086</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.000703326241775</v>
+      </c>
+      <c r="D31">
+        <v>0.9981707804322059</v>
+      </c>
+      <c r="E31">
+        <v>1.001875530444913</v>
+      </c>
+      <c r="F31">
+        <v>1.001875530444913</v>
+      </c>
+      <c r="G31">
+        <v>1.001044274847723</v>
+      </c>
+      <c r="H31">
+        <v>0.99939548998977</v>
+      </c>
+      <c r="I31">
+        <v>0.9971867031194493</v>
+      </c>
+      <c r="J31">
+        <v>1.000703326241775</v>
+      </c>
+      <c r="K31">
+        <v>1.001875530444913</v>
+      </c>
+      <c r="L31">
+        <v>0.9994373356165782</v>
+      </c>
+      <c r="M31">
+        <v>0.9971867031194493</v>
+      </c>
+      <c r="N31">
+        <v>1.001875530444913</v>
+      </c>
+      <c r="O31">
+        <v>1.000703326241775</v>
+      </c>
+      <c r="P31">
+        <v>0.998945014680612</v>
+      </c>
+      <c r="Q31">
+        <v>1.000049408115772</v>
+      </c>
+      <c r="R31">
+        <v>0.9999218532687125</v>
+      </c>
+      <c r="S31">
+        <v>0.999095173116998</v>
+      </c>
+      <c r="T31">
+        <v>0.9999218532687125</v>
+      </c>
+      <c r="U31">
+        <v>0.9997902624489768</v>
+      </c>
+      <c r="V31">
+        <v>1.000207316048164</v>
+      </c>
+      <c r="W31">
+        <v>0.9998145958667737</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.001739399726027</v>
+      </c>
+      <c r="D32">
+        <v>0.9954761323287674</v>
+      </c>
+      <c r="E32">
+        <v>1.004638389041095</v>
+      </c>
+      <c r="F32">
+        <v>1.004638389041095</v>
+      </c>
+      <c r="G32">
+        <v>1.002582592876712</v>
+      </c>
+      <c r="H32">
+        <v>0.9985049791780821</v>
+      </c>
+      <c r="I32">
+        <v>0.9930424172602741</v>
+      </c>
+      <c r="J32">
+        <v>1.001739399726027</v>
+      </c>
+      <c r="K32">
+        <v>1.004638389041095</v>
+      </c>
+      <c r="L32">
+        <v>0.9986084897260276</v>
+      </c>
+      <c r="M32">
+        <v>0.9930424172602741</v>
+      </c>
+      <c r="N32">
+        <v>1.004638389041095</v>
+      </c>
+      <c r="O32">
+        <v>1.001739399726027</v>
+      </c>
+      <c r="P32">
+        <v>0.9973909084931507</v>
+      </c>
+      <c r="Q32">
+        <v>1.000122189452055</v>
+      </c>
+      <c r="R32">
+        <v>0.9998067353424656</v>
+      </c>
+      <c r="S32">
+        <v>0.9977622653881278</v>
+      </c>
+      <c r="T32">
+        <v>0.9998067353424656</v>
+      </c>
+      <c r="U32">
+        <v>0.9994812963013697</v>
+      </c>
+      <c r="V32">
+        <v>1.000512714849315</v>
+      </c>
+      <c r="W32">
+        <v>0.9995414749828766</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.003079512105263</v>
+      </c>
+      <c r="D33">
+        <v>0.991990742631579</v>
+      </c>
+      <c r="E33">
+        <v>1.008212027894737</v>
+      </c>
+      <c r="F33">
+        <v>1.008212027894737</v>
+      </c>
+      <c r="G33">
+        <v>1.004572352631579</v>
+      </c>
+      <c r="H33">
+        <v>0.9973531510526316</v>
+      </c>
+      <c r="I33">
+        <v>0.9876819642105262</v>
+      </c>
+      <c r="J33">
+        <v>1.003079512105263</v>
+      </c>
+      <c r="K33">
+        <v>1.008212027894737</v>
+      </c>
+      <c r="L33">
+        <v>0.9975363889473683</v>
+      </c>
+      <c r="M33">
+        <v>0.9876819642105262</v>
+      </c>
+      <c r="N33">
+        <v>1.008212027894737</v>
+      </c>
+      <c r="O33">
+        <v>1.003079512105263</v>
+      </c>
+      <c r="P33">
+        <v>0.9953807381578947</v>
+      </c>
+      <c r="Q33">
+        <v>1.000216331578947</v>
+      </c>
+      <c r="R33">
+        <v>0.999657834736842</v>
+      </c>
+      <c r="S33">
+        <v>0.9960382091228071</v>
+      </c>
+      <c r="T33">
+        <v>0.999657834736842</v>
+      </c>
+      <c r="U33">
+        <v>0.9990816638157894</v>
+      </c>
+      <c r="V33">
+        <v>1.000907736631579</v>
+      </c>
+      <c r="W33">
+        <v>0.9991882064473685</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.002989138421053</v>
+      </c>
+      <c r="D34">
+        <v>0.9922257668421051</v>
+      </c>
+      <c r="E34">
+        <v>1.007971055789474</v>
+      </c>
+      <c r="F34">
+        <v>1.007971055789474</v>
+      </c>
+      <c r="G34">
+        <v>1.004438190526316</v>
+      </c>
+      <c r="H34">
+        <v>0.9974308210526316</v>
+      </c>
+      <c r="I34">
+        <v>0.9880434257894736</v>
+      </c>
+      <c r="J34">
+        <v>1.002989138421053</v>
+      </c>
+      <c r="K34">
+        <v>1.007971055789474</v>
+      </c>
+      <c r="L34">
+        <v>0.9976086805263158</v>
+      </c>
+      <c r="M34">
+        <v>0.9880434257894736</v>
+      </c>
+      <c r="N34">
+        <v>1.007971055789474</v>
+      </c>
+      <c r="O34">
+        <v>1.002989138421053</v>
+      </c>
+      <c r="P34">
+        <v>0.9955162821052632</v>
+      </c>
+      <c r="Q34">
+        <v>1.000209979736842</v>
+      </c>
+      <c r="R34">
+        <v>0.9996678733333333</v>
+      </c>
+      <c r="S34">
+        <v>0.996154461754386</v>
+      </c>
+      <c r="T34">
+        <v>0.9996678733333333</v>
+      </c>
+      <c r="U34">
+        <v>0.9991086102631579</v>
+      </c>
+      <c r="V34">
+        <v>1.000881099368421</v>
+      </c>
+      <c r="W34">
+        <v>0.9992120271710526</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.002517714603337</v>
+      </c>
+      <c r="D35">
+        <v>0.993451885544229</v>
+      </c>
+      <c r="E35">
+        <v>1.006713906519893</v>
+      </c>
+      <c r="F35">
+        <v>1.006713906519893</v>
+      </c>
+      <c r="G35">
+        <v>1.00373821712108</v>
+      </c>
+      <c r="H35">
+        <v>0.9978360189366661</v>
+      </c>
+      <c r="I35">
+        <v>0.9899291697275109</v>
+      </c>
+      <c r="J35">
+        <v>1.002517714603337</v>
+      </c>
+      <c r="K35">
+        <v>1.006713906519893</v>
+      </c>
+      <c r="L35">
+        <v>0.9979858325615042</v>
+      </c>
+      <c r="M35">
+        <v>0.9899291697275109</v>
+      </c>
+      <c r="N35">
+        <v>1.006713906519893</v>
+      </c>
+      <c r="O35">
+        <v>1.002517714603337</v>
+      </c>
+      <c r="P35">
+        <v>0.9962234421654239</v>
+      </c>
+      <c r="Q35">
+        <v>1.000176866770002</v>
+      </c>
+      <c r="R35">
+        <v>0.9997202636169137</v>
+      </c>
+      <c r="S35">
+        <v>0.9967609677558379</v>
+      </c>
+      <c r="T35">
+        <v>0.9997202636169137</v>
+      </c>
+      <c r="U35">
+        <v>0.9992492024468518</v>
+      </c>
+      <c r="V35">
+        <v>1.00074214326146</v>
+      </c>
+      <c r="W35">
+        <v>0.9993363074521946</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000000294917477</v>
+      </c>
+      <c r="D36">
+        <v>0.9999992303951424</v>
+      </c>
+      <c r="E36">
+        <v>1.000000788364539</v>
+      </c>
+      <c r="F36">
+        <v>1.000000788364539</v>
+      </c>
+      <c r="G36">
+        <v>1.000000438232204</v>
+      </c>
+      <c r="H36">
+        <v>0.9999997450482361</v>
+      </c>
+      <c r="I36">
+        <v>0.999998815389085</v>
+      </c>
+      <c r="J36">
+        <v>1.000000294917477</v>
+      </c>
+      <c r="K36">
+        <v>1.000000788364539</v>
+      </c>
+      <c r="L36">
+        <v>0.9999997626940618</v>
+      </c>
+      <c r="M36">
+        <v>0.999998815389085</v>
+      </c>
+      <c r="N36">
+        <v>1.000000788364539</v>
+      </c>
+      <c r="O36">
+        <v>1.000000294917477</v>
+      </c>
+      <c r="P36">
+        <v>0.999999555153281</v>
+      </c>
+      <c r="Q36">
+        <v>1.000000019982856</v>
+      </c>
+      <c r="R36">
+        <v>0.9999999662237005</v>
+      </c>
+      <c r="S36">
+        <v>0.9999996184515995</v>
+      </c>
+      <c r="T36">
+        <v>0.9999999662237004</v>
+      </c>
+      <c r="U36">
+        <v>0.9999999109298343</v>
+      </c>
+      <c r="V36">
+        <v>1.000000086416775</v>
+      </c>
+      <c r="W36">
+        <v>0.9999999212447778</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000006272031574</v>
+      </c>
+      <c r="D37">
+        <v>0.999983686495077</v>
+      </c>
+      <c r="E37">
+        <v>1.000016725606483</v>
+      </c>
+      <c r="F37">
+        <v>1.000016725606483</v>
+      </c>
+      <c r="G37">
+        <v>1.00000931199005</v>
+      </c>
+      <c r="H37">
+        <v>0.9999946082836355</v>
+      </c>
+      <c r="I37">
+        <v>0.9999749096812192</v>
+      </c>
+      <c r="J37">
+        <v>1.000006272031574</v>
+      </c>
+      <c r="K37">
+        <v>1.000016725606483</v>
+      </c>
+      <c r="L37">
+        <v>0.9999949815678474</v>
+      </c>
+      <c r="M37">
+        <v>0.9999749096812192</v>
+      </c>
+      <c r="N37">
+        <v>1.000016725606483</v>
+      </c>
+      <c r="O37">
+        <v>1.000006272031574</v>
+      </c>
+      <c r="P37">
+        <v>0.9999905908563967</v>
+      </c>
+      <c r="Q37">
+        <v>1.000000440157605</v>
+      </c>
+      <c r="R37">
+        <v>0.9999993024397588</v>
+      </c>
+      <c r="S37">
+        <v>0.9999919299988097</v>
+      </c>
+      <c r="T37">
+        <v>0.9999993024397588</v>
+      </c>
+      <c r="U37">
+        <v>0.9999981289007279</v>
+      </c>
+      <c r="V37">
+        <v>1.000001848241879</v>
+      </c>
+      <c r="W37">
+        <v>0.9999983459609325</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000022081553698</v>
+      </c>
+      <c r="D38">
+        <v>0.9999425645223938</v>
+      </c>
+      <c r="E38">
+        <v>1.000058889342342</v>
+      </c>
+      <c r="F38">
+        <v>1.000058889342342</v>
+      </c>
+      <c r="G38">
+        <v>1.000032788203891</v>
+      </c>
+      <c r="H38">
+        <v>0.9999810188397871</v>
+      </c>
+      <c r="I38">
+        <v>0.9999116654892591</v>
+      </c>
+      <c r="J38">
+        <v>1.000022081553698</v>
+      </c>
+      <c r="K38">
+        <v>1.000058889342342</v>
+      </c>
+      <c r="L38">
+        <v>0.9999823330060112</v>
+      </c>
+      <c r="M38">
+        <v>0.9999116654892591</v>
+      </c>
+      <c r="N38">
+        <v>1.000058889342342</v>
+      </c>
+      <c r="O38">
+        <v>1.000022081553698</v>
+      </c>
+      <c r="P38">
+        <v>0.9999668735214784</v>
+      </c>
+      <c r="Q38">
+        <v>1.000001550196742</v>
+      </c>
+      <c r="R38">
+        <v>0.9999975454617663</v>
+      </c>
+      <c r="S38">
+        <v>0.9999715886275813</v>
+      </c>
+      <c r="T38">
+        <v>0.9999975454617663</v>
+      </c>
+      <c r="U38">
+        <v>0.9999934138062715</v>
+      </c>
+      <c r="V38">
+        <v>1.000006508913486</v>
+      </c>
+      <c r="W38">
+        <v>0.999994177813885</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.000051736696326</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9998654416796056</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.000137965141022</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.000137965141022</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000076816591264</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9999555273856315</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9997930565795675</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.000051736696326</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.000137965141022</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9999586137751959</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9997930565795675</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.000137965141022</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.000051736696326</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9999223966379465</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.000003632040979</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999942528056384</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9999334402205081</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999942528056384</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>0.9999845714506367</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>1.000015250188714</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>0.9999863618181173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.001068410258191</v>
+      </c>
+      <c r="D40">
+        <v>0.9972212509523922</v>
+      </c>
+      <c r="E40">
+        <v>1.002849095399696</v>
+      </c>
+      <c r="F40">
+        <v>1.002849095399696</v>
+      </c>
+      <c r="G40">
+        <v>1.001586338464607</v>
+      </c>
+      <c r="H40">
+        <v>0.9990816957094786</v>
+      </c>
+      <c r="I40">
+        <v>0.9957263543618348</v>
+      </c>
+      <c r="J40">
+        <v>1.001068410258191</v>
+      </c>
+      <c r="K40">
+        <v>1.002849095399696</v>
+      </c>
+      <c r="L40">
+        <v>0.9991452709761421</v>
+      </c>
+      <c r="M40">
+        <v>0.9957263543618348</v>
+      </c>
+      <c r="N40">
+        <v>1.002849095399696</v>
+      </c>
+      <c r="O40">
+        <v>1.001068410258191</v>
+      </c>
+      <c r="P40">
+        <v>0.9983973823100132</v>
+      </c>
+      <c r="Q40">
+        <v>1.000075052983835</v>
+      </c>
+      <c r="R40">
+        <v>0.9998812866732406</v>
+      </c>
+      <c r="S40">
+        <v>0.9986254867765018</v>
+      </c>
+      <c r="T40">
+        <v>0.9998812866732406</v>
+      </c>
+      <c r="U40">
+        <v>0.9996813889323002</v>
+      </c>
+      <c r="V40">
+        <v>1.000314930225779</v>
+      </c>
+      <c r="W40">
+        <v>0.9997183532975666</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9994602651748093</v>
+      </c>
+      <c r="D41">
+        <v>1.001403752748062</v>
+      </c>
+      <c r="E41">
+        <v>0.9985607080156427</v>
+      </c>
+      <c r="F41">
+        <v>0.9985607080156427</v>
+      </c>
+      <c r="G41">
+        <v>0.9991986195694064</v>
+      </c>
+      <c r="H41">
+        <v>1.000463902546291</v>
+      </c>
+      <c r="I41">
+        <v>1.002158937391772</v>
+      </c>
+      <c r="J41">
+        <v>0.9994602651748093</v>
+      </c>
+      <c r="K41">
+        <v>0.9985607080156427</v>
+      </c>
+      <c r="L41">
+        <v>1.000431787887791</v>
+      </c>
+      <c r="M41">
+        <v>1.002158937391772</v>
+      </c>
+      <c r="N41">
+        <v>0.9985607080156427</v>
+      </c>
+      <c r="O41">
+        <v>0.9994602651748093</v>
+      </c>
+      <c r="P41">
+        <v>1.000809601283291</v>
+      </c>
+      <c r="Q41">
+        <v>0.9999620838605501</v>
+      </c>
+      <c r="R41">
+        <v>1.000059970194075</v>
+      </c>
+      <c r="S41">
+        <v>1.000694368370957</v>
+      </c>
+      <c r="T41">
+        <v>1.000059970194075</v>
+      </c>
+      <c r="U41">
+        <v>1.000160953282129</v>
+      </c>
+      <c r="V41">
+        <v>0.9998409042288315</v>
+      </c>
+      <c r="W41">
+        <v>1.000142279813573</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.000933639826375</v>
+      </c>
+      <c r="D42">
+        <v>0.9975717693559677</v>
+      </c>
+      <c r="E42">
+        <v>1.00248970200758</v>
+      </c>
+      <c r="F42">
+        <v>1.00248970200758</v>
+      </c>
+      <c r="G42">
+        <v>1.001386230940607</v>
+      </c>
+      <c r="H42">
+        <v>0.9991975332609574</v>
+      </c>
+      <c r="I42">
+        <v>0.9962654450249033</v>
+      </c>
+      <c r="J42">
+        <v>1.000933639826375</v>
+      </c>
+      <c r="K42">
+        <v>1.00248970200758</v>
+      </c>
+      <c r="L42">
+        <v>0.9992530907101521</v>
+      </c>
+      <c r="M42">
+        <v>0.9962654450249033</v>
+      </c>
+      <c r="N42">
+        <v>1.00248970200758</v>
+      </c>
+      <c r="O42">
+        <v>1.000933639826375</v>
+      </c>
+      <c r="P42">
+        <v>0.9985995424256391</v>
+      </c>
+      <c r="Q42">
+        <v>1.000065586543666</v>
+      </c>
+      <c r="R42">
+        <v>0.999896262286286</v>
+      </c>
+      <c r="S42">
+        <v>0.9987988727040785</v>
+      </c>
+      <c r="T42">
+        <v>0.999896262286286</v>
+      </c>
+      <c r="U42">
+        <v>0.9997215800299538</v>
+      </c>
+      <c r="V42">
+        <v>1.000275204425479</v>
+      </c>
+      <c r="W42">
+        <v>0.9997538813691145</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW45.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
     <t>[3, 3, 3]</t>
   </si>
   <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
     <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,68 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -630,130 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -761,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.00019126997851</v>
+        <v>1.000017646108837</v>
       </c>
       <c r="D3">
-        <v>0.9997130926615362</v>
+        <v>0.9999541023300308</v>
       </c>
       <c r="E3">
-        <v>1.000071726285555</v>
+        <v>1.00004705876077</v>
       </c>
       <c r="F3">
-        <v>1.00019126997851</v>
+        <v>1.00004705876077</v>
       </c>
       <c r="G3">
-        <v>0.9999383498791058</v>
+        <v>1.000026201093693</v>
       </c>
       <c r="H3">
-        <v>1.000106496282312</v>
+        <v>0.9999848314531895</v>
       </c>
       <c r="I3">
-        <v>1.00019126997851</v>
+        <v>0.9999294095016235</v>
       </c>
       <c r="J3">
-        <v>0.9997130926615362</v>
+        <v>1.000017646108837</v>
       </c>
       <c r="K3">
-        <v>0.9999426184261588</v>
+        <v>1.00004705876077</v>
       </c>
       <c r="L3">
-        <v>1.000071726285555</v>
+        <v>0.9999858814875721</v>
       </c>
       <c r="M3">
-        <v>0.9998134513274899</v>
+        <v>0.9999294095016235</v>
       </c>
       <c r="N3">
-        <v>1.00019126997851</v>
+        <v>1.00004705876077</v>
       </c>
       <c r="O3">
-        <v>1.000071726285555</v>
+        <v>1.000017646108837</v>
       </c>
       <c r="P3">
-        <v>0.9998924094735457</v>
+        <v>0.9999735278052302</v>
       </c>
       <c r="Q3">
-        <v>1.00000503808233</v>
+        <v>1.000001238781013</v>
       </c>
       <c r="R3">
-        <v>0.9999920296418671</v>
+        <v>0.9999980381237435</v>
       </c>
       <c r="S3">
-        <v>0.9999077229420658</v>
+        <v>0.9999772956878833</v>
       </c>
       <c r="T3">
-        <v>0.9999920296418671</v>
+        <v>0.9999980381237435</v>
       </c>
       <c r="U3">
-        <v>0.9999786097011768</v>
+        <v>0.999994736456105</v>
       </c>
       <c r="V3">
-        <v>1.000021141756643</v>
+        <v>1.000005200917038</v>
       </c>
       <c r="W3">
-        <v>0.9999810913907778</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43">
+        <v>0.9999953471055691</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -832,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000369245630465</v>
+        <v>1.001068410258191</v>
       </c>
       <c r="D4">
-        <v>0.9994461300683479</v>
+        <v>0.9972212509523922</v>
       </c>
       <c r="E4">
-        <v>1.000138466287114</v>
+        <v>1.002849095399696</v>
       </c>
       <c r="F4">
-        <v>1.000369245630465</v>
+        <v>1.002849095399696</v>
       </c>
       <c r="G4">
-        <v>0.999880985806552</v>
+        <v>1.001586338464607</v>
       </c>
       <c r="H4">
-        <v>1.000205592129352</v>
+        <v>0.9990816957094786</v>
       </c>
       <c r="I4">
-        <v>1.000369245630465</v>
+        <v>0.9957263543618348</v>
       </c>
       <c r="J4">
-        <v>0.9994461300683479</v>
+        <v>1.001068410258191</v>
       </c>
       <c r="K4">
-        <v>0.9998892274493322</v>
+        <v>1.002849095399696</v>
       </c>
       <c r="L4">
-        <v>1.000138466287114</v>
+        <v>0.9991452709761421</v>
       </c>
       <c r="M4">
-        <v>0.999639869858744</v>
+        <v>0.9957263543618348</v>
       </c>
       <c r="N4">
-        <v>1.000369245630465</v>
+        <v>1.002849095399696</v>
       </c>
       <c r="O4">
-        <v>1.000138466287114</v>
+        <v>1.001068410258191</v>
       </c>
       <c r="P4">
-        <v>0.999792298177731</v>
+        <v>0.9983973823100132</v>
       </c>
       <c r="Q4">
-        <v>1.000009726046833</v>
+        <v>1.000075052983835</v>
       </c>
       <c r="R4">
-        <v>0.9999846139953089</v>
+        <v>0.9998812866732406</v>
       </c>
       <c r="S4">
-        <v>0.9998218607206714</v>
+        <v>0.9986254867765018</v>
       </c>
       <c r="T4">
-        <v>0.9999846139953089</v>
+        <v>0.9998812866732406</v>
       </c>
       <c r="U4">
-        <v>0.9999587069481197</v>
+        <v>0.9996813889323002</v>
       </c>
       <c r="V4">
-        <v>1.000040814684589</v>
+        <v>1.000314930225779</v>
       </c>
       <c r="W4">
-        <v>0.9999634979396276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43">
+        <v>0.9997183532975666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -903,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000707616876078</v>
+        <v>1.000781170554755</v>
       </c>
       <c r="D5">
-        <v>0.9989385745069974</v>
+        <v>0.9979683128170014</v>
       </c>
       <c r="E5">
-        <v>1.000265356436542</v>
+        <v>1.002083123170026</v>
       </c>
       <c r="F5">
-        <v>1.000707616876078</v>
+        <v>1.002083123170026</v>
       </c>
       <c r="G5">
-        <v>0.9997719215889141</v>
+        <v>1.001159855273777</v>
       </c>
       <c r="H5">
-        <v>1.000393990386991</v>
+        <v>0.9993285800216146</v>
       </c>
       <c r="I5">
-        <v>1.000707616876078</v>
+        <v>0.996875316289626</v>
       </c>
       <c r="J5">
-        <v>0.9989385745069974</v>
+        <v>1.000781170554755</v>
       </c>
       <c r="K5">
-        <v>0.9997877181175203</v>
+        <v>1.002083123170026</v>
       </c>
       <c r="L5">
-        <v>1.000265356436542</v>
+        <v>0.9993750625216103</v>
       </c>
       <c r="M5">
-        <v>0.9993098546379499</v>
+        <v>0.996875316289626</v>
       </c>
       <c r="N5">
-        <v>1.000707616876078</v>
+        <v>1.002083123170026</v>
       </c>
       <c r="O5">
-        <v>1.000265356436542</v>
+        <v>1.000781170554755</v>
       </c>
       <c r="P5">
-        <v>0.9996019654717698</v>
+        <v>0.9988282434221907</v>
       </c>
       <c r="Q5">
-        <v>1.000018639012728</v>
+        <v>1.000054875288185</v>
       </c>
       <c r="R5">
-        <v>0.9999705159398724</v>
+        <v>0.9999132033381356</v>
       </c>
       <c r="S5">
-        <v>0.9996586175108179</v>
+        <v>0.9989950222886653</v>
       </c>
       <c r="T5">
-        <v>0.9999705159398724</v>
+        <v>0.9999132033381356</v>
       </c>
       <c r="U5">
-        <v>0.9999208673521328</v>
+        <v>0.9997670475090054</v>
       </c>
       <c r="V5">
-        <v>1.000078217256922</v>
+        <v>1.000230262641209</v>
       </c>
       <c r="W5">
-        <v>0.9999300486234419</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43">
+        <v>0.9997940739003958</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -974,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.001037853662546</v>
+        <v>1.002517714603337</v>
       </c>
       <c r="D6">
-        <v>0.9984432348543013</v>
+        <v>0.993451885544229</v>
       </c>
       <c r="E6">
-        <v>1.000389194035772</v>
+        <v>1.006713906519893</v>
       </c>
       <c r="F6">
-        <v>1.001037853662546</v>
+        <v>1.006713906519893</v>
       </c>
       <c r="G6">
-        <v>0.9996654883417285</v>
+        <v>1.00373821712108</v>
       </c>
       <c r="H6">
-        <v>1.000577867363823</v>
+        <v>0.9978360189366661</v>
       </c>
       <c r="I6">
-        <v>1.001037853662546</v>
+        <v>0.9899291697275109</v>
       </c>
       <c r="J6">
-        <v>0.9984432348543013</v>
+        <v>1.002517714603337</v>
       </c>
       <c r="K6">
-        <v>0.9996886482300847</v>
+        <v>1.006713906519893</v>
       </c>
       <c r="L6">
-        <v>1.000389194035772</v>
+        <v>0.9979858325615042</v>
       </c>
       <c r="M6">
-        <v>0.9989877758472795</v>
+        <v>0.9899291697275109</v>
       </c>
       <c r="N6">
-        <v>1.001037853662546</v>
+        <v>1.006713906519893</v>
       </c>
       <c r="O6">
-        <v>1.000389194035772</v>
+        <v>1.002517714603337</v>
       </c>
       <c r="P6">
-        <v>0.9994162144450366</v>
+        <v>0.9962234421654239</v>
       </c>
       <c r="Q6">
-        <v>1.00002734118875</v>
+        <v>1.000176866770002</v>
       </c>
       <c r="R6">
-        <v>0.999956760850873</v>
+        <v>0.9997202636169137</v>
       </c>
       <c r="S6">
-        <v>0.9994993057439339</v>
+        <v>0.9967609677558379</v>
       </c>
       <c r="T6">
-        <v>0.999956760850873</v>
+        <v>0.9997202636169137</v>
       </c>
       <c r="U6">
-        <v>0.9998839427235869</v>
+        <v>0.9992492024468518</v>
       </c>
       <c r="V6">
-        <v>1.000114724911379</v>
+        <v>1.00074214326146</v>
       </c>
       <c r="W6">
-        <v>0.9998974070464134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43">
+        <v>0.9993363074521946</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1045,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000016083635007</v>
+        <v>1.000087254317405</v>
       </c>
       <c r="D7">
-        <v>0.9999758722968216</v>
+        <v>0.9997730656729822</v>
       </c>
       <c r="E7">
-        <v>1.000006030572584</v>
+        <v>1.000232678279272</v>
       </c>
       <c r="F7">
-        <v>1.000016083635007</v>
+        <v>1.000232678279272</v>
       </c>
       <c r="G7">
-        <v>0.9999948150861965</v>
+        <v>1.000129552209902</v>
       </c>
       <c r="H7">
-        <v>1.000008954336435</v>
+        <v>0.999925003153652</v>
       </c>
       <c r="I7">
-        <v>1.000016083635007</v>
+        <v>0.9996509802313387</v>
       </c>
       <c r="J7">
-        <v>0.9999758722968216</v>
+        <v>1.000087254317405</v>
       </c>
       <c r="K7">
-        <v>0.999995174115157</v>
+        <v>1.000232678279272</v>
       </c>
       <c r="L7">
-        <v>1.000006030572584</v>
+        <v>0.9999301960553806</v>
       </c>
       <c r="M7">
-        <v>0.9999843126097737</v>
+        <v>0.9996509802313387</v>
       </c>
       <c r="N7">
-        <v>1.000016083635007</v>
+        <v>1.000232678279272</v>
       </c>
       <c r="O7">
-        <v>1.000006030572584</v>
+        <v>1.000087254317405</v>
       </c>
       <c r="P7">
-        <v>0.999990951434703</v>
+        <v>0.9998691172743719</v>
       </c>
       <c r="Q7">
-        <v>1.00000042282939</v>
+        <v>1.000006128735528</v>
       </c>
       <c r="R7">
-        <v>0.9999993288348042</v>
+        <v>0.9999903042760053</v>
       </c>
       <c r="S7">
-        <v>0.9999922393185341</v>
+        <v>0.9998877459007985</v>
       </c>
       <c r="T7">
-        <v>0.9999993288348042</v>
+        <v>0.9999903042760053</v>
       </c>
       <c r="U7">
-        <v>0.9999982003976523</v>
+        <v>0.999973978995417</v>
       </c>
       <c r="V7">
-        <v>1.000001777045123</v>
+        <v>1.000025718852188</v>
       </c>
       <c r="W7">
-        <v>0.99999840915307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43">
+        <v>0.9999769980296671</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1116,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.00004705876077</v>
+        <v>1.000006272031574</v>
       </c>
       <c r="D8">
-        <v>0.9999294095016235</v>
+        <v>0.999983686495077</v>
       </c>
       <c r="E8">
-        <v>1.000017646108837</v>
+        <v>1.000016725606483</v>
       </c>
       <c r="F8">
-        <v>1.00004705876077</v>
+        <v>1.000016725606483</v>
       </c>
       <c r="G8">
-        <v>0.9999848314531895</v>
+        <v>1.00000931199005</v>
       </c>
       <c r="H8">
-        <v>1.000026201093693</v>
+        <v>0.9999946082836355</v>
       </c>
       <c r="I8">
-        <v>1.00004705876077</v>
+        <v>0.9999749096812192</v>
       </c>
       <c r="J8">
-        <v>0.9999294095016235</v>
+        <v>1.000006272031574</v>
       </c>
       <c r="K8">
-        <v>0.9999858814875721</v>
+        <v>1.000016725606483</v>
       </c>
       <c r="L8">
-        <v>1.000017646108837</v>
+        <v>0.9999949815678474</v>
       </c>
       <c r="M8">
-        <v>0.9999541023300308</v>
+        <v>0.9999749096812192</v>
       </c>
       <c r="N8">
-        <v>1.00004705876077</v>
+        <v>1.000016725606483</v>
       </c>
       <c r="O8">
-        <v>1.000017646108837</v>
+        <v>1.000006272031574</v>
       </c>
       <c r="P8">
-        <v>0.9999735278052302</v>
+        <v>0.9999905908563967</v>
       </c>
       <c r="Q8">
-        <v>1.000001238781013</v>
+        <v>1.000000440157605</v>
       </c>
       <c r="R8">
-        <v>0.9999980381237435</v>
+        <v>0.9999993024397588</v>
       </c>
       <c r="S8">
-        <v>0.9999772956878833</v>
+        <v>0.9999919299988097</v>
       </c>
       <c r="T8">
-        <v>0.9999980381237435</v>
+        <v>0.9999993024397588</v>
       </c>
       <c r="U8">
-        <v>0.999994736456105</v>
+        <v>0.9999981289007279</v>
       </c>
       <c r="V8">
-        <v>1.000005200917038</v>
+        <v>1.000001848241879</v>
       </c>
       <c r="W8">
-        <v>0.9999953471055691</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43">
+        <v>0.9999983459609325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1187,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000070413876132</v>
+        <v>1.000138466287114</v>
       </c>
       <c r="D9">
-        <v>0.9998943763264262</v>
+        <v>0.999639869858744</v>
       </c>
       <c r="E9">
-        <v>1.00002640429888</v>
+        <v>1.000369245630465</v>
       </c>
       <c r="F9">
-        <v>1.000070413876132</v>
+        <v>1.000369245630465</v>
       </c>
       <c r="G9">
-        <v>0.9999773035998936</v>
+        <v>1.000205592129352</v>
       </c>
       <c r="H9">
-        <v>1.000039205748021</v>
+        <v>0.999880985806552</v>
       </c>
       <c r="I9">
-        <v>1.000070413876132</v>
+        <v>0.9994461300683479</v>
       </c>
       <c r="J9">
-        <v>0.9998943763264262</v>
+        <v>1.000138466287114</v>
       </c>
       <c r="K9">
-        <v>0.9999788747862527</v>
+        <v>1.000369245630465</v>
       </c>
       <c r="L9">
-        <v>1.00002640429888</v>
+        <v>0.9998892274493317</v>
       </c>
       <c r="M9">
-        <v>0.999931323506833</v>
+        <v>0.9994461300683479</v>
       </c>
       <c r="N9">
-        <v>1.000070413876132</v>
+        <v>1.000369245630465</v>
       </c>
       <c r="O9">
-        <v>1.00002640429888</v>
+        <v>1.000138466287114</v>
       </c>
       <c r="P9">
-        <v>0.9999603903126533</v>
+        <v>0.999792298177731</v>
       </c>
       <c r="Q9">
-        <v>1.000001853949387</v>
+        <v>1.000009726046833</v>
       </c>
       <c r="R9">
-        <v>0.999997064833813</v>
+        <v>0.9999846139953089</v>
       </c>
       <c r="S9">
-        <v>0.9999660280750667</v>
+        <v>0.9998218607206714</v>
       </c>
       <c r="T9">
-        <v>0.9999970648338131</v>
+        <v>0.9999846139953089</v>
       </c>
       <c r="U9">
-        <v>0.9999921245253333</v>
+        <v>0.9999587069481197</v>
       </c>
       <c r="V9">
-        <v>1.000007782395493</v>
+        <v>1.000040814684589</v>
       </c>
       <c r="W9">
-        <v>0.9999930383051649</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43">
+        <v>0.9999634979396275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1258,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000147423918387</v>
+        <v>1.002555108644636</v>
       </c>
       <c r="D10">
-        <v>0.9997788624555113</v>
+        <v>0.9933546314365362</v>
       </c>
       <c r="E10">
-        <v>1.000055282523854</v>
+        <v>1.006813623646293</v>
       </c>
       <c r="F10">
-        <v>1.000147423918387</v>
+        <v>1.006813623646293</v>
       </c>
       <c r="G10">
-        <v>0.9999524822596512</v>
+        <v>1.003793738906266</v>
       </c>
       <c r="H10">
-        <v>1.000082081275334</v>
+        <v>0.9978038785015703</v>
       </c>
       <c r="I10">
-        <v>1.000147423918387</v>
+        <v>0.9897795945047158</v>
       </c>
       <c r="J10">
-        <v>0.9997788624555113</v>
+        <v>1.002555108644636</v>
       </c>
       <c r="K10">
-        <v>0.9999557725423656</v>
+        <v>1.006813623646293</v>
       </c>
       <c r="L10">
-        <v>1.000055282523854</v>
+        <v>0.9979559168882449</v>
       </c>
       <c r="M10">
-        <v>0.9998562160193032</v>
+        <v>0.9897795945047158</v>
       </c>
       <c r="N10">
-        <v>1.000147423918387</v>
+        <v>1.006813623646293</v>
       </c>
       <c r="O10">
-        <v>1.000055282523854</v>
+        <v>1.002555108644636</v>
       </c>
       <c r="P10">
-        <v>0.9999170724896824</v>
+        <v>0.9961673515746758</v>
       </c>
       <c r="Q10">
-        <v>1.000003882391752</v>
+        <v>1.000179493573103</v>
       </c>
       <c r="R10">
-        <v>0.9999938562992506</v>
+        <v>0.9997161089318815</v>
       </c>
       <c r="S10">
-        <v>0.9999288757463387</v>
+        <v>0.9967128605503074</v>
       </c>
       <c r="T10">
-        <v>0.9999938562992506</v>
+        <v>0.9997161089318812</v>
       </c>
       <c r="U10">
-        <v>0.9999835127893508</v>
+        <v>0.9992380513243035</v>
       </c>
       <c r="V10">
-        <v>1.000016295015158</v>
+        <v>1.000753165788701</v>
       </c>
       <c r="W10">
-        <v>0.9999854254397824</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43">
+        <v>0.9993264501466121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1329,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000257399145513</v>
+        <v>1.000532326327223</v>
       </c>
       <c r="D11">
-        <v>0.9996139002056162</v>
+        <v>0.9986155106593858</v>
       </c>
       <c r="E11">
-        <v>1.000096524967597</v>
+        <v>1.001419537440134</v>
       </c>
       <c r="F11">
-        <v>1.000257399145513</v>
+        <v>1.001419537440134</v>
       </c>
       <c r="G11">
-        <v>0.9999170368880097</v>
+        <v>1.000790377807694</v>
       </c>
       <c r="H11">
-        <v>1.000143317886023</v>
+        <v>0.9995424618736725</v>
       </c>
       <c r="I11">
-        <v>1.000257399145513</v>
+        <v>0.9978706925536487</v>
       </c>
       <c r="J11">
-        <v>0.9996139002056162</v>
+        <v>1.000532326327223</v>
       </c>
       <c r="K11">
-        <v>0.9999227784567838</v>
+        <v>1.001419537440134</v>
       </c>
       <c r="L11">
-        <v>1.000096524967597</v>
+        <v>0.9995741395712759</v>
       </c>
       <c r="M11">
-        <v>0.9997489583275069</v>
+        <v>0.9978706925536487</v>
       </c>
       <c r="N11">
-        <v>1.000257399145513</v>
+        <v>1.001419537440134</v>
       </c>
       <c r="O11">
-        <v>1.000096524967597</v>
+        <v>1.000532326327223</v>
       </c>
       <c r="P11">
-        <v>0.9998552125866069</v>
+        <v>0.9992015094404358</v>
       </c>
       <c r="Q11">
-        <v>1.000006780927804</v>
+        <v>1.000037394100448</v>
       </c>
       <c r="R11">
-        <v>0.999989274772909</v>
+        <v>0.999940852107002</v>
       </c>
       <c r="S11">
-        <v>0.9998758206870745</v>
+        <v>0.9993151602515148</v>
       </c>
       <c r="T11">
-        <v>0.999989274772909</v>
+        <v>0.999940852107002</v>
       </c>
       <c r="U11">
-        <v>0.9999712153016842</v>
+        <v>0.9998412545486697</v>
       </c>
       <c r="V11">
-        <v>1.00002845207045</v>
+        <v>1.000156911126963</v>
       </c>
       <c r="W11">
-        <v>0.999974555105581</v>
-      </c>
-    </row>
-    <row r="12" spans="1:43">
+        <v>0.9998596715700321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1400,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9971023725035183</v>
+        <v>1.000778008768421</v>
       </c>
       <c r="D12">
-        <v>1.004346434178441</v>
+        <v>0.9979765381157883</v>
       </c>
       <c r="E12">
-        <v>0.9989133884888698</v>
+        <v>1.002074691094735</v>
       </c>
       <c r="F12">
-        <v>0.9971023725035183</v>
+        <v>1.002074691094735</v>
       </c>
       <c r="G12">
-        <v>1.000933937204605</v>
+        <v>1.001155161599999</v>
       </c>
       <c r="H12">
-        <v>0.9983866389148851</v>
+        <v>0.9993312975684222</v>
       </c>
       <c r="I12">
-        <v>0.9971023725035183</v>
+        <v>0.9968879653052622</v>
       </c>
       <c r="J12">
-        <v>1.004346434178441</v>
+        <v>1.000778008768421</v>
       </c>
       <c r="K12">
-        <v>1.000869282925694</v>
+        <v>1.002074691094735</v>
       </c>
       <c r="L12">
-        <v>0.9989133884888698</v>
+        <v>0.9993775912421039</v>
       </c>
       <c r="M12">
-        <v>1.002826078447143</v>
+        <v>0.9968879653052622</v>
       </c>
       <c r="N12">
-        <v>0.9971023725035183</v>
+        <v>1.002074691094735</v>
       </c>
       <c r="O12">
-        <v>0.9989133884888698</v>
+        <v>1.000778008768421</v>
       </c>
       <c r="P12">
-        <v>1.001629911333656</v>
+        <v>0.9988329870368415</v>
       </c>
       <c r="Q12">
-        <v>0.9999236628467372</v>
+        <v>1.000054653168422</v>
       </c>
       <c r="R12">
-        <v>1.00012073172361</v>
+        <v>0.9999135550561394</v>
       </c>
       <c r="S12">
-        <v>1.001397919957305</v>
+        <v>0.9989990905473684</v>
       </c>
       <c r="T12">
-        <v>1.00012073172361</v>
+        <v>0.9999135550561394</v>
       </c>
       <c r="U12">
-        <v>1.000324033093859</v>
+        <v>0.9997679906842101</v>
       </c>
       <c r="V12">
-        <v>0.9996797009757905</v>
+        <v>1.000229330766315</v>
       </c>
       <c r="W12">
-        <v>1.000286440144003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43">
+        <v>0.9997949078078939</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1471,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9992487542895062</v>
+        <v>0.9994974763941671</v>
       </c>
       <c r="D13">
-        <v>1.001126869722597</v>
+        <v>1.001306975937041</v>
       </c>
       <c r="E13">
-        <v>0.9997182823393248</v>
+        <v>0.9986599369439408</v>
       </c>
       <c r="F13">
-        <v>0.9992487542895062</v>
+        <v>0.9986599369439408</v>
       </c>
       <c r="G13">
-        <v>1.000242137706485</v>
+        <v>0.9992538714029694</v>
       </c>
       <c r="H13">
-        <v>0.9995817172483272</v>
+        <v>1.000431919563339</v>
       </c>
       <c r="I13">
-        <v>0.9992487542895062</v>
+        <v>1.002010092917355</v>
       </c>
       <c r="J13">
-        <v>1.001126869722597</v>
+        <v>0.9994974763941671</v>
       </c>
       <c r="K13">
-        <v>1.000225371874621</v>
+        <v>0.9986599369439408</v>
       </c>
       <c r="L13">
-        <v>0.9997182823393248</v>
+        <v>1.000402016318379</v>
       </c>
       <c r="M13">
-        <v>1.000732702200518</v>
+        <v>1.002010092917355</v>
       </c>
       <c r="N13">
-        <v>0.9992487542895062</v>
+        <v>0.9986599369439408</v>
       </c>
       <c r="O13">
-        <v>0.9997182823393248</v>
+        <v>0.9994974763941671</v>
       </c>
       <c r="P13">
-        <v>1.000422576030961</v>
+        <v>1.000753784655761</v>
       </c>
       <c r="Q13">
-        <v>0.9999802100229047</v>
+        <v>0.999964697978753</v>
       </c>
       <c r="R13">
-        <v>1.000031302117143</v>
+        <v>1.000055835418488</v>
       </c>
       <c r="S13">
-        <v>1.000362429922802</v>
+        <v>1.00064649629162</v>
       </c>
       <c r="T13">
-        <v>1.000031302117143</v>
+        <v>1.000055835418488</v>
       </c>
       <c r="U13">
-        <v>1.000084011014478</v>
+        <v>1.0001498564547</v>
       </c>
       <c r="V13">
-        <v>0.9999169596694836</v>
+        <v>0.9998518725525486</v>
       </c>
       <c r="W13">
-        <v>1.000074264715088</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43">
+        <v>1.00013247073392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1542,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.000159231595163</v>
+        <v>1.0044145</v>
       </c>
       <c r="D14">
-        <v>0.9997611335528527</v>
+        <v>0.9885186999999999</v>
       </c>
       <c r="E14">
-        <v>1.000059712681101</v>
+        <v>1.011772</v>
       </c>
       <c r="F14">
-        <v>1.000159231595163</v>
+        <v>1.011772</v>
       </c>
       <c r="G14">
-        <v>0.9999486714523894</v>
+        <v>1.006554499999999</v>
       </c>
       <c r="H14">
-        <v>1.000088667546649</v>
+        <v>0.9962057300000001</v>
       </c>
       <c r="I14">
-        <v>1.000159231595163</v>
+        <v>0.9823420599999999</v>
       </c>
       <c r="J14">
-        <v>0.9997611335528527</v>
+        <v>1.0044145</v>
       </c>
       <c r="K14">
-        <v>0.9999522243380066</v>
+        <v>1.011772</v>
       </c>
       <c r="L14">
-        <v>1.000059712681101</v>
+        <v>0.9964684099999999</v>
       </c>
       <c r="M14">
-        <v>0.9998446995311981</v>
+        <v>0.9823420599999999</v>
       </c>
       <c r="N14">
-        <v>1.000159231595163</v>
+        <v>1.011772</v>
       </c>
       <c r="O14">
-        <v>1.000059712681101</v>
+        <v>1.0044145</v>
       </c>
       <c r="P14">
-        <v>0.9999104231169769</v>
+        <v>0.9933782800000002</v>
       </c>
       <c r="Q14">
-        <v>1.000004192066745</v>
+        <v>1.000310115</v>
       </c>
       <c r="R14">
-        <v>0.9999933592763725</v>
+        <v>0.99950952</v>
       </c>
       <c r="S14">
-        <v>0.9999231725621144</v>
+        <v>0.9943207633333335</v>
       </c>
       <c r="T14">
-        <v>0.9999933592763725</v>
+        <v>0.99950952</v>
       </c>
       <c r="U14">
-        <v>0.9999821873203767</v>
+        <v>0.9986835725000001</v>
       </c>
       <c r="V14">
-        <v>1.000017596175334</v>
+        <v>1.001301258</v>
       </c>
       <c r="W14">
-        <v>0.9999842566723077</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43">
+        <v>0.9988363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1613,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.000047428793518</v>
+        <v>1.0077849</v>
       </c>
       <c r="D15">
-        <v>0.9999288572488794</v>
+        <v>0.9797527599999999</v>
       </c>
       <c r="E15">
-        <v>1.000017786627644</v>
+        <v>1.0207598</v>
       </c>
       <c r="F15">
-        <v>1.000047428793518</v>
+        <v>1.0207598</v>
       </c>
       <c r="G15">
-        <v>0.9999847138744833</v>
+        <v>1.0115588</v>
       </c>
       <c r="H15">
-        <v>1.000026404573309</v>
+        <v>0.99330882</v>
       </c>
       <c r="I15">
-        <v>1.000047428793518</v>
+        <v>0.96886026</v>
       </c>
       <c r="J15">
-        <v>0.9999288572488794</v>
+        <v>1.0077849</v>
       </c>
       <c r="K15">
-        <v>0.9999857673088806</v>
+        <v>1.0207598</v>
       </c>
       <c r="L15">
-        <v>1.000017786627644</v>
+        <v>0.99377205</v>
       </c>
       <c r="M15">
-        <v>0.9999537480898497</v>
+        <v>0.96886026</v>
       </c>
       <c r="N15">
-        <v>1.000047428793518</v>
+        <v>1.0207598</v>
       </c>
       <c r="O15">
-        <v>1.000017786627644</v>
+        <v>1.0077849</v>
       </c>
       <c r="P15">
-        <v>0.9999733219382617</v>
+        <v>0.9883225800000001</v>
       </c>
       <c r="Q15">
-        <v>1.000001250251064</v>
+        <v>1.00054686</v>
       </c>
       <c r="R15">
-        <v>0.9999980242233472</v>
+        <v>0.9991349866666667</v>
       </c>
       <c r="S15">
-        <v>0.9999771192503356</v>
+        <v>0.9899846600000001</v>
       </c>
       <c r="T15">
-        <v>0.9999980242233472</v>
+        <v>0.9991349866666667</v>
       </c>
       <c r="U15">
-        <v>0.9999946966361313</v>
+        <v>0.997678445</v>
       </c>
       <c r="V15">
-        <v>1.000005243067609</v>
+        <v>1.002294716</v>
       </c>
       <c r="W15">
-        <v>0.999995311643026</v>
-      </c>
-    </row>
-    <row r="16" spans="1:43">
+        <v>0.99794778625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1684,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000788364539</v>
+        <v>1.0075102</v>
       </c>
       <c r="D16">
-        <v>0.999998815389085</v>
+        <v>0.98046723</v>
       </c>
       <c r="E16">
-        <v>1.000000294917477</v>
+        <v>1.0200273</v>
       </c>
       <c r="F16">
-        <v>1.000000788364539</v>
+        <v>1.0200273</v>
       </c>
       <c r="G16">
-        <v>0.9999997450482361</v>
+        <v>1.0111509</v>
       </c>
       <c r="H16">
-        <v>1.000000438232204</v>
+        <v>0.9935449300000001</v>
       </c>
       <c r="I16">
-        <v>1.000000788364539</v>
+        <v>0.9699591</v>
       </c>
       <c r="J16">
-        <v>0.999998815389085</v>
+        <v>1.0075102</v>
       </c>
       <c r="K16">
-        <v>0.999999762694062</v>
+        <v>1.0200273</v>
       </c>
       <c r="L16">
-        <v>1.000000294917477</v>
+        <v>0.99399182</v>
       </c>
       <c r="M16">
-        <v>0.9999992303951424</v>
+        <v>0.9699591</v>
       </c>
       <c r="N16">
-        <v>1.000000788364539</v>
+        <v>1.0200273</v>
       </c>
       <c r="O16">
-        <v>1.000000294917477</v>
+        <v>1.0075102</v>
       </c>
       <c r="P16">
-        <v>0.999999555153281</v>
+        <v>0.98873465</v>
       </c>
       <c r="Q16">
-        <v>1.000000019982856</v>
+        <v>1.000527565</v>
       </c>
       <c r="R16">
-        <v>0.9999999662237005</v>
+        <v>0.9991655333333332</v>
       </c>
       <c r="S16">
-        <v>0.9999996184515995</v>
+        <v>0.9903380766666667</v>
       </c>
       <c r="T16">
-        <v>0.9999999662237004</v>
+        <v>0.9991655333333332</v>
       </c>
       <c r="U16">
-        <v>0.9999999109298343</v>
+        <v>0.9977603825</v>
       </c>
       <c r="V16">
-        <v>1.000000086416775</v>
+        <v>1.002213766</v>
       </c>
       <c r="W16">
-        <v>0.9999999212447778</v>
+        <v>0.99802021</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1755,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000016725606483</v>
+        <v>1.0021718</v>
       </c>
       <c r="D17">
-        <v>0.9999749096812192</v>
+        <v>0.99435158</v>
       </c>
       <c r="E17">
-        <v>1.000006272031574</v>
+        <v>1.0057914</v>
       </c>
       <c r="F17">
-        <v>1.000016725606483</v>
+        <v>1.0057914</v>
       </c>
       <c r="G17">
-        <v>0.9999946082836355</v>
+        <v>1.0032246</v>
       </c>
       <c r="H17">
-        <v>1.00000931199005</v>
+        <v>0.99813334</v>
       </c>
       <c r="I17">
-        <v>1.000016725606483</v>
+        <v>0.99131287</v>
       </c>
       <c r="J17">
-        <v>0.9999749096812192</v>
+        <v>1.0021718</v>
       </c>
       <c r="K17">
-        <v>0.9999949815678473</v>
+        <v>1.0057914</v>
       </c>
       <c r="L17">
-        <v>1.000006272031574</v>
+        <v>0.99826257</v>
       </c>
       <c r="M17">
-        <v>0.999983686495077</v>
+        <v>0.99131287</v>
       </c>
       <c r="N17">
-        <v>1.000016725606483</v>
+        <v>1.0057914</v>
       </c>
       <c r="O17">
-        <v>1.000006272031574</v>
+        <v>1.0021718</v>
       </c>
       <c r="P17">
-        <v>0.9999905908563967</v>
+        <v>0.996742335</v>
       </c>
       <c r="Q17">
-        <v>1.000000440157605</v>
+        <v>1.00015257</v>
       </c>
       <c r="R17">
-        <v>0.9999993024397588</v>
+        <v>0.9997586899999998</v>
       </c>
       <c r="S17">
-        <v>0.9999919299988097</v>
+        <v>0.9972060033333333</v>
       </c>
       <c r="T17">
-        <v>0.9999993024397588</v>
+        <v>0.9997586899999998</v>
       </c>
       <c r="U17">
-        <v>0.9999981289007279</v>
+        <v>0.9993523524999999</v>
       </c>
       <c r="V17">
-        <v>1.000001848241879</v>
+        <v>1.000640162</v>
       </c>
       <c r="W17">
-        <v>0.9999983459609325</v>
+        <v>0.9994274949999999</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1826,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000058889342342</v>
+        <v>1.001739399726027</v>
       </c>
       <c r="D18">
-        <v>0.9999116654892591</v>
+        <v>0.9954761323287674</v>
       </c>
       <c r="E18">
-        <v>1.000022081553698</v>
+        <v>1.004638389041095</v>
       </c>
       <c r="F18">
-        <v>1.000058889342342</v>
+        <v>1.004638389041095</v>
       </c>
       <c r="G18">
-        <v>0.9999810188397871</v>
+        <v>1.002582592876712</v>
       </c>
       <c r="H18">
-        <v>1.000032788203891</v>
+        <v>0.9985049791780821</v>
       </c>
       <c r="I18">
-        <v>1.000058889342342</v>
+        <v>0.9930424172602741</v>
       </c>
       <c r="J18">
-        <v>0.9999116654892591</v>
+        <v>1.001739399726027</v>
       </c>
       <c r="K18">
-        <v>0.9999823330060112</v>
+        <v>1.004638389041095</v>
       </c>
       <c r="L18">
-        <v>1.000022081553698</v>
+        <v>0.9986084897260276</v>
       </c>
       <c r="M18">
-        <v>0.9999425645223938</v>
+        <v>0.9930424172602741</v>
       </c>
       <c r="N18">
-        <v>1.000058889342342</v>
+        <v>1.004638389041095</v>
       </c>
       <c r="O18">
-        <v>1.000022081553698</v>
+        <v>1.001739399726027</v>
       </c>
       <c r="P18">
-        <v>0.9999668735214784</v>
+        <v>0.9973909084931507</v>
       </c>
       <c r="Q18">
-        <v>1.000001550196742</v>
+        <v>1.000122189452055</v>
       </c>
       <c r="R18">
-        <v>0.9999975454617663</v>
+        <v>0.9998067353424656</v>
       </c>
       <c r="S18">
-        <v>0.9999715886275813</v>
+        <v>0.9977622653881278</v>
       </c>
       <c r="T18">
-        <v>0.9999975454617663</v>
+        <v>0.9998067353424656</v>
       </c>
       <c r="U18">
-        <v>0.9999934138062715</v>
+        <v>0.9994812963013697</v>
       </c>
       <c r="V18">
-        <v>1.000006508913486</v>
+        <v>1.000512714849315</v>
       </c>
       <c r="W18">
-        <v>0.999994177813885</v>
+        <v>0.9995414749828766</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1897,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000137965141022</v>
+        <v>1.003079512105263</v>
       </c>
       <c r="D19">
-        <v>0.9997930565795672</v>
+        <v>0.991990742631579</v>
       </c>
       <c r="E19">
-        <v>1.000051736696326</v>
+        <v>1.008212027894737</v>
       </c>
       <c r="F19">
-        <v>1.000137965141022</v>
+        <v>1.008212027894737</v>
       </c>
       <c r="G19">
-        <v>0.9999555273856315</v>
+        <v>1.004572352631579</v>
       </c>
       <c r="H19">
-        <v>1.000076816591264</v>
+        <v>0.9973531510526316</v>
       </c>
       <c r="I19">
-        <v>1.000137965141022</v>
+        <v>0.9876819642105262</v>
       </c>
       <c r="J19">
-        <v>0.9997930565795672</v>
+        <v>1.003079512105263</v>
       </c>
       <c r="K19">
-        <v>0.9999586137751959</v>
+        <v>1.008212027894737</v>
       </c>
       <c r="L19">
-        <v>1.000051736696326</v>
+        <v>0.9975363889473683</v>
       </c>
       <c r="M19">
-        <v>0.9998654416796056</v>
+        <v>0.9876819642105262</v>
       </c>
       <c r="N19">
-        <v>1.000137965141022</v>
+        <v>1.008212027894737</v>
       </c>
       <c r="O19">
-        <v>1.000051736696326</v>
+        <v>1.003079512105263</v>
       </c>
       <c r="P19">
-        <v>0.9999223966379464</v>
+        <v>0.9953807381578947</v>
       </c>
       <c r="Q19">
-        <v>1.000003632040979</v>
+        <v>1.000216331578947</v>
       </c>
       <c r="R19">
-        <v>0.9999942528056384</v>
+        <v>0.999657834736842</v>
       </c>
       <c r="S19">
-        <v>0.9999334402205081</v>
+        <v>0.9960382091228071</v>
       </c>
       <c r="T19">
-        <v>0.9999942528056384</v>
+        <v>0.999657834736842</v>
       </c>
       <c r="U19">
-        <v>0.9999845714506367</v>
+        <v>0.9990816638157894</v>
       </c>
       <c r="V19">
-        <v>1.000015250188714</v>
+        <v>1.000907736631579</v>
       </c>
       <c r="W19">
-        <v>0.9999863618181173</v>
+        <v>0.9991882064473685</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.002989138421053</v>
+      </c>
+      <c r="D20">
+        <v>0.9922257668421051</v>
+      </c>
+      <c r="E20">
+        <v>1.007971055789474</v>
+      </c>
+      <c r="F20">
+        <v>1.007971055789474</v>
+      </c>
+      <c r="G20">
+        <v>1.004438190526316</v>
+      </c>
+      <c r="H20">
+        <v>0.9974308210526316</v>
+      </c>
+      <c r="I20">
+        <v>0.9880434257894736</v>
+      </c>
+      <c r="J20">
+        <v>1.002989138421053</v>
+      </c>
+      <c r="K20">
+        <v>1.007971055789474</v>
+      </c>
+      <c r="L20">
+        <v>0.9976086805263158</v>
+      </c>
+      <c r="M20">
+        <v>0.9880434257894736</v>
+      </c>
+      <c r="N20">
+        <v>1.007971055789474</v>
+      </c>
+      <c r="O20">
+        <v>1.002989138421053</v>
+      </c>
+      <c r="P20">
+        <v>0.9955162821052632</v>
+      </c>
+      <c r="Q20">
+        <v>1.000209979736842</v>
+      </c>
+      <c r="R20">
+        <v>0.9996678733333333</v>
+      </c>
+      <c r="S20">
+        <v>0.996154461754386</v>
+      </c>
+      <c r="T20">
+        <v>0.9996678733333333</v>
+      </c>
+      <c r="U20">
+        <v>0.9991086102631579</v>
+      </c>
+      <c r="V20">
+        <v>1.000881099368421</v>
+      </c>
+      <c r="W20">
+        <v>0.9992120271710526</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000059712681101</v>
+      </c>
+      <c r="D21">
+        <v>0.999844699531198</v>
+      </c>
+      <c r="E21">
+        <v>1.000159231595163</v>
+      </c>
+      <c r="F21">
+        <v>1.000159231595163</v>
+      </c>
+      <c r="G21">
+        <v>1.000088667546649</v>
+      </c>
+      <c r="H21">
+        <v>0.9999486714523894</v>
+      </c>
+      <c r="I21">
+        <v>0.9997611335528527</v>
+      </c>
+      <c r="J21">
+        <v>1.000059712681101</v>
+      </c>
+      <c r="K21">
+        <v>1.000159231595163</v>
+      </c>
+      <c r="L21">
+        <v>0.9999522243380066</v>
+      </c>
+      <c r="M21">
+        <v>0.9997611335528527</v>
+      </c>
+      <c r="N21">
+        <v>1.000159231595163</v>
+      </c>
+      <c r="O21">
+        <v>1.000059712681101</v>
+      </c>
+      <c r="P21">
+        <v>0.9999104231169769</v>
+      </c>
+      <c r="Q21">
+        <v>1.000004192066745</v>
+      </c>
+      <c r="R21">
+        <v>0.9999933592763725</v>
+      </c>
+      <c r="S21">
+        <v>0.9999231725621144</v>
+      </c>
+      <c r="T21">
+        <v>0.9999933592763725</v>
+      </c>
+      <c r="U21">
+        <v>0.9999821873203767</v>
+      </c>
+      <c r="V21">
+        <v>1.000017596175334</v>
+      </c>
+      <c r="W21">
+        <v>0.9999842566723077</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000017786627644</v>
+      </c>
+      <c r="D22">
+        <v>0.9999537480898497</v>
+      </c>
+      <c r="E22">
+        <v>1.000047428793518</v>
+      </c>
+      <c r="F22">
+        <v>1.000047428793518</v>
+      </c>
+      <c r="G22">
+        <v>1.000026404573309</v>
+      </c>
+      <c r="H22">
+        <v>0.9999847138744833</v>
+      </c>
+      <c r="I22">
+        <v>0.9999288572488794</v>
+      </c>
+      <c r="J22">
+        <v>1.000017786627644</v>
+      </c>
+      <c r="K22">
+        <v>1.000047428793518</v>
+      </c>
+      <c r="L22">
+        <v>0.9999857673088806</v>
+      </c>
+      <c r="M22">
+        <v>0.9999288572488794</v>
+      </c>
+      <c r="N22">
+        <v>1.000047428793518</v>
+      </c>
+      <c r="O22">
+        <v>1.000017786627644</v>
+      </c>
+      <c r="P22">
+        <v>0.9999733219382617</v>
+      </c>
+      <c r="Q22">
+        <v>1.000001250251064</v>
+      </c>
+      <c r="R22">
+        <v>0.9999980242233472</v>
+      </c>
+      <c r="S22">
+        <v>0.9999771192503356</v>
+      </c>
+      <c r="T22">
+        <v>0.9999980242233472</v>
+      </c>
+      <c r="U22">
+        <v>0.9999946966361313</v>
+      </c>
+      <c r="V22">
+        <v>1.000005243067609</v>
+      </c>
+      <c r="W22">
+        <v>0.999995311643026</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9989133884888697</v>
+      </c>
+      <c r="D23">
+        <v>1.002826078447143</v>
+      </c>
+      <c r="E23">
+        <v>0.9971023725035181</v>
+      </c>
+      <c r="F23">
+        <v>0.9971023725035181</v>
+      </c>
+      <c r="G23">
+        <v>0.9983866389148851</v>
+      </c>
+      <c r="H23">
+        <v>1.000933937204605</v>
+      </c>
+      <c r="I23">
+        <v>1.004346434178441</v>
+      </c>
+      <c r="J23">
+        <v>0.9989133884888697</v>
+      </c>
+      <c r="K23">
+        <v>0.9971023725035181</v>
+      </c>
+      <c r="L23">
+        <v>1.000869282925694</v>
+      </c>
+      <c r="M23">
+        <v>1.004346434178441</v>
+      </c>
+      <c r="N23">
+        <v>0.9971023725035181</v>
+      </c>
+      <c r="O23">
+        <v>0.9989133884888697</v>
+      </c>
+      <c r="P23">
+        <v>1.001629911333656</v>
+      </c>
+      <c r="Q23">
+        <v>0.9999236628467373</v>
+      </c>
+      <c r="R23">
+        <v>1.00012073172361</v>
+      </c>
+      <c r="S23">
+        <v>1.001397919957305</v>
+      </c>
+      <c r="T23">
+        <v>1.00012073172361</v>
+      </c>
+      <c r="U23">
+        <v>1.000324033093858</v>
+      </c>
+      <c r="V23">
+        <v>0.9996797009757902</v>
+      </c>
+      <c r="W23">
+        <v>1.000286440144003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9997182823393248</v>
+      </c>
+      <c r="D24">
+        <v>1.000732702200518</v>
+      </c>
+      <c r="E24">
+        <v>0.9992487542895062</v>
+      </c>
+      <c r="F24">
+        <v>0.9992487542895062</v>
+      </c>
+      <c r="G24">
+        <v>0.9995817172483272</v>
+      </c>
+      <c r="H24">
+        <v>1.000242137706485</v>
+      </c>
+      <c r="I24">
+        <v>1.001126869722597</v>
+      </c>
+      <c r="J24">
+        <v>0.9997182823393248</v>
+      </c>
+      <c r="K24">
+        <v>0.9992487542895062</v>
+      </c>
+      <c r="L24">
+        <v>1.000225371874621</v>
+      </c>
+      <c r="M24">
+        <v>1.001126869722597</v>
+      </c>
+      <c r="N24">
+        <v>0.9992487542895062</v>
+      </c>
+      <c r="O24">
+        <v>0.9997182823393248</v>
+      </c>
+      <c r="P24">
+        <v>1.000422576030961</v>
+      </c>
+      <c r="Q24">
+        <v>0.9999802100229047</v>
+      </c>
+      <c r="R24">
+        <v>1.000031302117143</v>
+      </c>
+      <c r="S24">
+        <v>1.000362429922802</v>
+      </c>
+      <c r="T24">
+        <v>1.000031302117143</v>
+      </c>
+      <c r="U24">
+        <v>1.000084011014478</v>
+      </c>
+      <c r="V24">
+        <v>0.9999169596694836</v>
+      </c>
+      <c r="W24">
+        <v>1.000074264715088</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.999799466211</v>
+      </c>
+      <c r="D25">
+        <v>1.000521541230315</v>
+      </c>
+      <c r="E25">
+        <v>0.9994652599560296</v>
+      </c>
+      <c r="F25">
+        <v>0.9994652599560296</v>
+      </c>
+      <c r="G25">
+        <v>0.9997022636742372</v>
+      </c>
+      <c r="H25">
+        <v>1.000172350709924</v>
+      </c>
+      <c r="I25">
+        <v>1.00080210700442</v>
+      </c>
+      <c r="J25">
+        <v>0.999799466211</v>
+      </c>
+      <c r="K25">
+        <v>0.9994652599560296</v>
+      </c>
+      <c r="L25">
+        <v>1.000160417817789</v>
+      </c>
+      <c r="M25">
+        <v>1.00080210700442</v>
+      </c>
+      <c r="N25">
+        <v>0.9994652599560296</v>
+      </c>
+      <c r="O25">
+        <v>0.999799466211</v>
+      </c>
+      <c r="P25">
+        <v>1.00030078660771</v>
+      </c>
+      <c r="Q25">
+        <v>0.9999859084604621</v>
+      </c>
+      <c r="R25">
+        <v>1.000022277723817</v>
+      </c>
+      <c r="S25">
+        <v>1.000257974641781</v>
+      </c>
+      <c r="T25">
+        <v>1.000022277723817</v>
+      </c>
+      <c r="U25">
+        <v>1.000059795970343</v>
+      </c>
+      <c r="V25">
+        <v>0.9999408887674808</v>
+      </c>
+      <c r="W25">
+        <v>1.000052859101839</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.999948200599766</v>
+      </c>
+      <c r="D26">
+        <v>1.000134740583607</v>
+      </c>
+      <c r="E26">
+        <v>0.9998618491667295</v>
+      </c>
+      <c r="F26">
+        <v>0.9998618491667295</v>
+      </c>
+      <c r="G26">
+        <v>0.9999230855289579</v>
+      </c>
+      <c r="H26">
+        <v>1.000044526455223</v>
+      </c>
+      <c r="I26">
+        <v>1.000207222188662</v>
+      </c>
+      <c r="J26">
+        <v>0.999948200599766</v>
+      </c>
+      <c r="K26">
+        <v>0.9998618491667295</v>
+      </c>
+      <c r="L26">
+        <v>1.000041441007941</v>
+      </c>
+      <c r="M26">
+        <v>1.000207222188662</v>
+      </c>
+      <c r="N26">
+        <v>0.9998618491667295</v>
+      </c>
+      <c r="O26">
+        <v>0.999948200599766</v>
+      </c>
+      <c r="P26">
+        <v>1.000077711394214</v>
+      </c>
+      <c r="Q26">
+        <v>0.9999963635274945</v>
+      </c>
+      <c r="R26">
+        <v>1.000005757318386</v>
+      </c>
+      <c r="S26">
+        <v>1.000066649747884</v>
+      </c>
+      <c r="T26">
+        <v>1.000005757318386</v>
+      </c>
+      <c r="U26">
+        <v>1.000015449602595</v>
+      </c>
+      <c r="V26">
+        <v>0.9999847295154222</v>
+      </c>
+      <c r="W26">
+        <v>1.000013658266332</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.000263096504961</v>
+      </c>
+      <c r="D27">
+        <v>0.9993157009489023</v>
+      </c>
+      <c r="E27">
+        <v>1.000701614409734</v>
+      </c>
+      <c r="F27">
+        <v>1.000701614409734</v>
+      </c>
+      <c r="G27">
+        <v>1.000390658520432</v>
+      </c>
+      <c r="H27">
+        <v>0.9997738625909557</v>
+      </c>
+      <c r="I27">
+        <v>0.9989475898575331</v>
+      </c>
+      <c r="J27">
+        <v>1.000263096504961</v>
+      </c>
+      <c r="K27">
+        <v>1.000701614409734</v>
+      </c>
+      <c r="L27">
+        <v>0.9997895033495273</v>
+      </c>
+      <c r="M27">
+        <v>0.9989475898575331</v>
+      </c>
+      <c r="N27">
+        <v>1.000701614409734</v>
+      </c>
+      <c r="O27">
+        <v>1.000263096504961</v>
+      </c>
+      <c r="P27">
+        <v>0.9996053431812468</v>
+      </c>
+      <c r="Q27">
+        <v>1.000018479547958</v>
+      </c>
+      <c r="R27">
+        <v>0.9999707669240757</v>
+      </c>
+      <c r="S27">
+        <v>0.9996615163178165</v>
+      </c>
+      <c r="T27">
+        <v>0.9999707669240757</v>
+      </c>
+      <c r="U27">
+        <v>0.9999215408407958</v>
+      </c>
+      <c r="V27">
+        <v>1.000077555554583</v>
+      </c>
+      <c r="W27">
+        <v>0.9999306403358756</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.000325647709058</v>
+      </c>
+      <c r="D28">
+        <v>0.9991530344564865</v>
+      </c>
+      <c r="E28">
+        <v>1.000868403888886</v>
+      </c>
+      <c r="F28">
+        <v>1.000868403888886</v>
+      </c>
+      <c r="G28">
+        <v>1.000483515681346</v>
+      </c>
+      <c r="H28">
+        <v>0.9997201033796893</v>
+      </c>
+      <c r="I28">
+        <v>0.9986974074809227</v>
+      </c>
+      <c r="J28">
+        <v>1.000325647709058</v>
+      </c>
+      <c r="K28">
+        <v>1.000868403888886</v>
+      </c>
+      <c r="L28">
+        <v>0.9997394925177681</v>
+      </c>
+      <c r="M28">
+        <v>0.9986974074809227</v>
+      </c>
+      <c r="N28">
+        <v>1.000868403888886</v>
+      </c>
+      <c r="O28">
+        <v>1.000325647709058</v>
+      </c>
+      <c r="P28">
+        <v>0.9995115275949903</v>
+      </c>
+      <c r="Q28">
+        <v>1.000022875544374</v>
+      </c>
+      <c r="R28">
+        <v>0.9999638196929554</v>
+      </c>
+      <c r="S28">
+        <v>0.9995810528565566</v>
+      </c>
+      <c r="T28">
+        <v>0.9999638196929554</v>
+      </c>
+      <c r="U28">
+        <v>0.9999028906146389</v>
+      </c>
+      <c r="V28">
+        <v>1.000095993269488</v>
+      </c>
+      <c r="W28">
+        <v>0.9999141566029017</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9995180734543543</v>
+      </c>
+      <c r="D29">
+        <v>1.001253383056554</v>
+      </c>
+      <c r="E29">
+        <v>0.9987148793245502</v>
+      </c>
+      <c r="F29">
+        <v>0.9987148793245502</v>
+      </c>
+      <c r="G29">
+        <v>0.9992844655726576</v>
+      </c>
+      <c r="H29">
+        <v>1.000414218940635</v>
+      </c>
+      <c r="I29">
+        <v>1.00192769512413</v>
+      </c>
+      <c r="J29">
+        <v>0.9995180734543543</v>
+      </c>
+      <c r="K29">
+        <v>0.9987148793245502</v>
+      </c>
+      <c r="L29">
+        <v>1.000385557069337</v>
+      </c>
+      <c r="M29">
+        <v>1.00192769512413</v>
+      </c>
+      <c r="N29">
+        <v>0.9987148793245502</v>
+      </c>
+      <c r="O29">
+        <v>0.9995180734543543</v>
+      </c>
+      <c r="P29">
+        <v>1.000722884289242</v>
+      </c>
+      <c r="Q29">
+        <v>0.9999661461974945</v>
+      </c>
+      <c r="R29">
+        <v>1.000053549301011</v>
+      </c>
+      <c r="S29">
+        <v>1.000619995839706</v>
+      </c>
+      <c r="T29">
+        <v>1.000053549301011</v>
+      </c>
+      <c r="U29">
+        <v>1.000143716710917</v>
+      </c>
+      <c r="V29">
+        <v>0.9998579492336439</v>
+      </c>
+      <c r="W29">
+        <v>1.000127043249571</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.001068410258191</v>
+        <v>1.000603575205777</v>
       </c>
       <c r="D4">
-        <v>0.9972212509523922</v>
+        <v>0.9984302056891277</v>
       </c>
       <c r="E4">
-        <v>1.002849095399696</v>
+        <v>1.001609536169291</v>
       </c>
       <c r="F4">
-        <v>1.002849095399696</v>
+        <v>1.001609536169291</v>
       </c>
       <c r="G4">
-        <v>1.001586338464607</v>
+        <v>1.000896167997554</v>
       </c>
       <c r="H4">
-        <v>0.9990816957094786</v>
+        <v>0.9994812235161883</v>
       </c>
       <c r="I4">
-        <v>0.9957263543618348</v>
+        <v>0.9975856953417082</v>
       </c>
       <c r="J4">
-        <v>1.001068410258191</v>
+        <v>1.000603575205777</v>
       </c>
       <c r="K4">
-        <v>1.002849095399696</v>
+        <v>1.001609536169291</v>
       </c>
       <c r="L4">
-        <v>0.9991452709761421</v>
+        <v>0.9995171382539845</v>
       </c>
       <c r="M4">
-        <v>0.9957263543618348</v>
+        <v>0.9975856953417082</v>
       </c>
       <c r="N4">
-        <v>1.002849095399696</v>
+        <v>1.001609536169291</v>
       </c>
       <c r="O4">
-        <v>1.001068410258191</v>
+        <v>1.000603575205777</v>
       </c>
       <c r="P4">
-        <v>0.9983973823100132</v>
+        <v>0.9990946352737424</v>
       </c>
       <c r="Q4">
-        <v>1.000075052983835</v>
+        <v>1.000042399360983</v>
       </c>
       <c r="R4">
-        <v>0.9998812866732406</v>
+        <v>0.9999329355722587</v>
       </c>
       <c r="S4">
-        <v>0.9986254867765018</v>
+        <v>0.9992234980212243</v>
       </c>
       <c r="T4">
-        <v>0.9998812866732406</v>
+        <v>0.9999329355722587</v>
       </c>
       <c r="U4">
-        <v>0.9996813889323002</v>
+        <v>0.9998200075582411</v>
       </c>
       <c r="V4">
-        <v>1.000314930225779</v>
+        <v>1.000177913280451</v>
       </c>
       <c r="W4">
-        <v>0.9997183532975666</v>
+        <v>0.999840889672426</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000781170554755</v>
+        <v>1.002762630039362</v>
       </c>
       <c r="D5">
-        <v>0.9979683128170014</v>
+        <v>0.9928148725221626</v>
       </c>
       <c r="E5">
-        <v>1.002083123170026</v>
+        <v>1.007367035694923</v>
       </c>
       <c r="F5">
-        <v>1.002083123170026</v>
+        <v>1.007367035694923</v>
       </c>
       <c r="G5">
-        <v>1.001159855273777</v>
+        <v>1.004101880208069</v>
       </c>
       <c r="H5">
-        <v>0.9993285800216146</v>
+        <v>0.9976255051748449</v>
       </c>
       <c r="I5">
-        <v>0.996875316289626</v>
+        <v>0.988949454945755</v>
       </c>
       <c r="J5">
-        <v>1.000781170554755</v>
+        <v>1.002762630039362</v>
       </c>
       <c r="K5">
-        <v>1.002083123170026</v>
+        <v>1.007367035694923</v>
       </c>
       <c r="L5">
-        <v>0.9993750625216103</v>
+        <v>0.9977898859744462</v>
       </c>
       <c r="M5">
-        <v>0.996875316289626</v>
+        <v>0.988949454945755</v>
       </c>
       <c r="N5">
-        <v>1.002083123170026</v>
+        <v>1.007367035694923</v>
       </c>
       <c r="O5">
-        <v>1.000781170554755</v>
+        <v>1.002762630039362</v>
       </c>
       <c r="P5">
-        <v>0.9988282434221907</v>
+        <v>0.9958560424925584</v>
       </c>
       <c r="Q5">
-        <v>1.000054875288185</v>
+        <v>1.000194067607103</v>
       </c>
       <c r="R5">
-        <v>0.9999132033381356</v>
+        <v>0.9996930402266798</v>
       </c>
       <c r="S5">
-        <v>0.9989950222886653</v>
+        <v>0.9964458633866539</v>
       </c>
       <c r="T5">
-        <v>0.9999132033381356</v>
+        <v>0.9996930402266798</v>
       </c>
       <c r="U5">
-        <v>0.9997670475090054</v>
+        <v>0.999176156463721</v>
       </c>
       <c r="V5">
-        <v>1.000230262641209</v>
+        <v>1.000814332309961</v>
       </c>
       <c r="W5">
-        <v>0.9997940739003958</v>
+        <v>0.9992717368248656</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.002517714603337</v>
+        <v>1.001068410258191</v>
       </c>
       <c r="D6">
-        <v>0.993451885544229</v>
+        <v>0.9972212509523922</v>
       </c>
       <c r="E6">
-        <v>1.006713906519893</v>
+        <v>1.002849095399696</v>
       </c>
       <c r="F6">
-        <v>1.006713906519893</v>
+        <v>1.002849095399696</v>
       </c>
       <c r="G6">
-        <v>1.00373821712108</v>
+        <v>1.001586338464607</v>
       </c>
       <c r="H6">
-        <v>0.9978360189366661</v>
+        <v>0.9990816957094786</v>
       </c>
       <c r="I6">
-        <v>0.9899291697275109</v>
+        <v>0.9957263543618348</v>
       </c>
       <c r="J6">
-        <v>1.002517714603337</v>
+        <v>1.001068410258191</v>
       </c>
       <c r="K6">
-        <v>1.006713906519893</v>
+        <v>1.002849095399696</v>
       </c>
       <c r="L6">
-        <v>0.9979858325615042</v>
+        <v>0.9991452709761421</v>
       </c>
       <c r="M6">
-        <v>0.9899291697275109</v>
+        <v>0.9957263543618348</v>
       </c>
       <c r="N6">
-        <v>1.006713906519893</v>
+        <v>1.002849095399696</v>
       </c>
       <c r="O6">
-        <v>1.002517714603337</v>
+        <v>1.001068410258191</v>
       </c>
       <c r="P6">
-        <v>0.9962234421654239</v>
+        <v>0.9983973823100132</v>
       </c>
       <c r="Q6">
-        <v>1.000176866770002</v>
+        <v>1.000075052983835</v>
       </c>
       <c r="R6">
-        <v>0.9997202636169137</v>
+        <v>0.9998812866732406</v>
       </c>
       <c r="S6">
-        <v>0.9967609677558379</v>
+        <v>0.9986254867765018</v>
       </c>
       <c r="T6">
-        <v>0.9997202636169137</v>
+        <v>0.9998812866732406</v>
       </c>
       <c r="U6">
-        <v>0.9992492024468518</v>
+        <v>0.9996813889323002</v>
       </c>
       <c r="V6">
-        <v>1.00074214326146</v>
+        <v>1.000314930225779</v>
       </c>
       <c r="W6">
-        <v>0.9993363074521946</v>
+        <v>0.9997183532975666</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000087254317405</v>
+        <v>1.000781170554755</v>
       </c>
       <c r="D7">
-        <v>0.9997730656729822</v>
+        <v>0.9979683128170014</v>
       </c>
       <c r="E7">
-        <v>1.000232678279272</v>
+        <v>1.002083123170026</v>
       </c>
       <c r="F7">
-        <v>1.000232678279272</v>
+        <v>1.002083123170026</v>
       </c>
       <c r="G7">
-        <v>1.000129552209902</v>
+        <v>1.001159855273777</v>
       </c>
       <c r="H7">
-        <v>0.999925003153652</v>
+        <v>0.9993285800216146</v>
       </c>
       <c r="I7">
-        <v>0.9996509802313387</v>
+        <v>0.996875316289626</v>
       </c>
       <c r="J7">
-        <v>1.000087254317405</v>
+        <v>1.000781170554755</v>
       </c>
       <c r="K7">
-        <v>1.000232678279272</v>
+        <v>1.002083123170026</v>
       </c>
       <c r="L7">
-        <v>0.9999301960553806</v>
+        <v>0.9993750625216103</v>
       </c>
       <c r="M7">
-        <v>0.9996509802313387</v>
+        <v>0.996875316289626</v>
       </c>
       <c r="N7">
-        <v>1.000232678279272</v>
+        <v>1.002083123170026</v>
       </c>
       <c r="O7">
-        <v>1.000087254317405</v>
+        <v>1.000781170554755</v>
       </c>
       <c r="P7">
-        <v>0.9998691172743719</v>
+        <v>0.9988282434221907</v>
       </c>
       <c r="Q7">
-        <v>1.000006128735528</v>
+        <v>1.000054875288185</v>
       </c>
       <c r="R7">
-        <v>0.9999903042760053</v>
+        <v>0.9999132033381356</v>
       </c>
       <c r="S7">
-        <v>0.9998877459007985</v>
+        <v>0.9989950222886653</v>
       </c>
       <c r="T7">
-        <v>0.9999903042760053</v>
+        <v>0.9999132033381356</v>
       </c>
       <c r="U7">
-        <v>0.999973978995417</v>
+        <v>0.9997670475090054</v>
       </c>
       <c r="V7">
-        <v>1.000025718852188</v>
+        <v>1.000230262641209</v>
       </c>
       <c r="W7">
-        <v>0.9999769980296671</v>
+        <v>0.9997940739003958</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000006272031574</v>
+        <v>1.002517714603337</v>
       </c>
       <c r="D8">
-        <v>0.999983686495077</v>
+        <v>0.993451885544229</v>
       </c>
       <c r="E8">
-        <v>1.000016725606483</v>
+        <v>1.006713906519893</v>
       </c>
       <c r="F8">
-        <v>1.000016725606483</v>
+        <v>1.006713906519893</v>
       </c>
       <c r="G8">
-        <v>1.00000931199005</v>
+        <v>1.00373821712108</v>
       </c>
       <c r="H8">
-        <v>0.9999946082836355</v>
+        <v>0.9978360189366661</v>
       </c>
       <c r="I8">
-        <v>0.9999749096812192</v>
+        <v>0.9899291697275109</v>
       </c>
       <c r="J8">
-        <v>1.000006272031574</v>
+        <v>1.002517714603337</v>
       </c>
       <c r="K8">
-        <v>1.000016725606483</v>
+        <v>1.006713906519893</v>
       </c>
       <c r="L8">
-        <v>0.9999949815678474</v>
+        <v>0.9979858325615042</v>
       </c>
       <c r="M8">
-        <v>0.9999749096812192</v>
+        <v>0.9899291697275109</v>
       </c>
       <c r="N8">
-        <v>1.000016725606483</v>
+        <v>1.006713906519893</v>
       </c>
       <c r="O8">
-        <v>1.000006272031574</v>
+        <v>1.002517714603337</v>
       </c>
       <c r="P8">
-        <v>0.9999905908563967</v>
+        <v>0.9962234421654239</v>
       </c>
       <c r="Q8">
-        <v>1.000000440157605</v>
+        <v>1.000176866770002</v>
       </c>
       <c r="R8">
-        <v>0.9999993024397588</v>
+        <v>0.9997202636169137</v>
       </c>
       <c r="S8">
-        <v>0.9999919299988097</v>
+        <v>0.9967609677558379</v>
       </c>
       <c r="T8">
-        <v>0.9999993024397588</v>
+        <v>0.9997202636169137</v>
       </c>
       <c r="U8">
-        <v>0.9999981289007279</v>
+        <v>0.9992492024468518</v>
       </c>
       <c r="V8">
-        <v>1.000001848241879</v>
+        <v>1.00074214326146</v>
       </c>
       <c r="W8">
-        <v>0.9999983459609325</v>
+        <v>0.9993363074521946</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000138466287114</v>
+        <v>1.000087254317405</v>
       </c>
       <c r="D9">
-        <v>0.999639869858744</v>
+        <v>0.9997730656729822</v>
       </c>
       <c r="E9">
-        <v>1.000369245630465</v>
+        <v>1.000232678279272</v>
       </c>
       <c r="F9">
-        <v>1.000369245630465</v>
+        <v>1.000232678279272</v>
       </c>
       <c r="G9">
-        <v>1.000205592129352</v>
+        <v>1.000129552209902</v>
       </c>
       <c r="H9">
-        <v>0.999880985806552</v>
+        <v>0.999925003153652</v>
       </c>
       <c r="I9">
-        <v>0.9994461300683479</v>
+        <v>0.9996509802313387</v>
       </c>
       <c r="J9">
-        <v>1.000138466287114</v>
+        <v>1.000087254317405</v>
       </c>
       <c r="K9">
-        <v>1.000369245630465</v>
+        <v>1.000232678279272</v>
       </c>
       <c r="L9">
-        <v>0.9998892274493317</v>
+        <v>0.9999301960553806</v>
       </c>
       <c r="M9">
-        <v>0.9994461300683479</v>
+        <v>0.9996509802313387</v>
       </c>
       <c r="N9">
-        <v>1.000369245630465</v>
+        <v>1.000232678279272</v>
       </c>
       <c r="O9">
-        <v>1.000138466287114</v>
+        <v>1.000087254317405</v>
       </c>
       <c r="P9">
-        <v>0.999792298177731</v>
+        <v>0.9998691172743719</v>
       </c>
       <c r="Q9">
-        <v>1.000009726046833</v>
+        <v>1.000006128735528</v>
       </c>
       <c r="R9">
-        <v>0.9999846139953089</v>
+        <v>0.9999903042760053</v>
       </c>
       <c r="S9">
-        <v>0.9998218607206714</v>
+        <v>0.9998877459007985</v>
       </c>
       <c r="T9">
-        <v>0.9999846139953089</v>
+        <v>0.9999903042760053</v>
       </c>
       <c r="U9">
-        <v>0.9999587069481197</v>
+        <v>0.999973978995417</v>
       </c>
       <c r="V9">
-        <v>1.000040814684589</v>
+        <v>1.000025718852188</v>
       </c>
       <c r="W9">
-        <v>0.9999634979396275</v>
+        <v>0.9999769980296671</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.002555108644636</v>
+        <v>1.000006272031574</v>
       </c>
       <c r="D10">
-        <v>0.9933546314365362</v>
+        <v>0.999983686495077</v>
       </c>
       <c r="E10">
-        <v>1.006813623646293</v>
+        <v>1.000016725606483</v>
       </c>
       <c r="F10">
-        <v>1.006813623646293</v>
+        <v>1.000016725606483</v>
       </c>
       <c r="G10">
-        <v>1.003793738906266</v>
+        <v>1.00000931199005</v>
       </c>
       <c r="H10">
-        <v>0.9978038785015703</v>
+        <v>0.9999946082836355</v>
       </c>
       <c r="I10">
-        <v>0.9897795945047158</v>
+        <v>0.9999749096812192</v>
       </c>
       <c r="J10">
-        <v>1.002555108644636</v>
+        <v>1.000006272031574</v>
       </c>
       <c r="K10">
-        <v>1.006813623646293</v>
+        <v>1.000016725606483</v>
       </c>
       <c r="L10">
-        <v>0.9979559168882449</v>
+        <v>0.9999949815678474</v>
       </c>
       <c r="M10">
-        <v>0.9897795945047158</v>
+        <v>0.9999749096812192</v>
       </c>
       <c r="N10">
-        <v>1.006813623646293</v>
+        <v>1.000016725606483</v>
       </c>
       <c r="O10">
-        <v>1.002555108644636</v>
+        <v>1.000006272031574</v>
       </c>
       <c r="P10">
-        <v>0.9961673515746758</v>
+        <v>0.9999905908563967</v>
       </c>
       <c r="Q10">
-        <v>1.000179493573103</v>
+        <v>1.000000440157605</v>
       </c>
       <c r="R10">
-        <v>0.9997161089318815</v>
+        <v>0.9999993024397588</v>
       </c>
       <c r="S10">
-        <v>0.9967128605503074</v>
+        <v>0.9999919299988097</v>
       </c>
       <c r="T10">
-        <v>0.9997161089318812</v>
+        <v>0.9999993024397588</v>
       </c>
       <c r="U10">
-        <v>0.9992380513243035</v>
+        <v>0.9999981289007279</v>
       </c>
       <c r="V10">
-        <v>1.000753165788701</v>
+        <v>1.000001848241879</v>
       </c>
       <c r="W10">
-        <v>0.9993264501466121</v>
+        <v>0.9999983459609325</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000532326327223</v>
+        <v>1.000138466287114</v>
       </c>
       <c r="D11">
-        <v>0.9986155106593858</v>
+        <v>0.999639869858744</v>
       </c>
       <c r="E11">
-        <v>1.001419537440134</v>
+        <v>1.000369245630465</v>
       </c>
       <c r="F11">
-        <v>1.001419537440134</v>
+        <v>1.000369245630465</v>
       </c>
       <c r="G11">
-        <v>1.000790377807694</v>
+        <v>1.000205592129352</v>
       </c>
       <c r="H11">
-        <v>0.9995424618736725</v>
+        <v>0.999880985806552</v>
       </c>
       <c r="I11">
-        <v>0.9978706925536487</v>
+        <v>0.9994461300683479</v>
       </c>
       <c r="J11">
-        <v>1.000532326327223</v>
+        <v>1.000138466287114</v>
       </c>
       <c r="K11">
-        <v>1.001419537440134</v>
+        <v>1.000369245630465</v>
       </c>
       <c r="L11">
-        <v>0.9995741395712759</v>
+        <v>0.9998892274493317</v>
       </c>
       <c r="M11">
-        <v>0.9978706925536487</v>
+        <v>0.9994461300683479</v>
       </c>
       <c r="N11">
-        <v>1.001419537440134</v>
+        <v>1.000369245630465</v>
       </c>
       <c r="O11">
-        <v>1.000532326327223</v>
+        <v>1.000138466287114</v>
       </c>
       <c r="P11">
-        <v>0.9992015094404358</v>
+        <v>0.999792298177731</v>
       </c>
       <c r="Q11">
-        <v>1.000037394100448</v>
+        <v>1.000009726046833</v>
       </c>
       <c r="R11">
-        <v>0.999940852107002</v>
+        <v>0.9999846139953089</v>
       </c>
       <c r="S11">
-        <v>0.9993151602515148</v>
+        <v>0.9998218607206714</v>
       </c>
       <c r="T11">
-        <v>0.999940852107002</v>
+        <v>0.9999846139953089</v>
       </c>
       <c r="U11">
-        <v>0.9998412545486697</v>
+        <v>0.9999587069481197</v>
       </c>
       <c r="V11">
-        <v>1.000156911126963</v>
+        <v>1.000040814684589</v>
       </c>
       <c r="W11">
-        <v>0.9998596715700321</v>
+        <v>0.9999634979396275</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.000778008768421</v>
+        <v>1.002555108644636</v>
       </c>
       <c r="D12">
-        <v>0.9979765381157883</v>
+        <v>0.9933546314365362</v>
       </c>
       <c r="E12">
-        <v>1.002074691094735</v>
+        <v>1.006813623646293</v>
       </c>
       <c r="F12">
-        <v>1.002074691094735</v>
+        <v>1.006813623646293</v>
       </c>
       <c r="G12">
-        <v>1.001155161599999</v>
+        <v>1.003793738906266</v>
       </c>
       <c r="H12">
-        <v>0.9993312975684222</v>
+        <v>0.9978038785015703</v>
       </c>
       <c r="I12">
-        <v>0.9968879653052622</v>
+        <v>0.9897795945047158</v>
       </c>
       <c r="J12">
-        <v>1.000778008768421</v>
+        <v>1.002555108644636</v>
       </c>
       <c r="K12">
-        <v>1.002074691094735</v>
+        <v>1.006813623646293</v>
       </c>
       <c r="L12">
-        <v>0.9993775912421039</v>
+        <v>0.9979559168882449</v>
       </c>
       <c r="M12">
-        <v>0.9968879653052622</v>
+        <v>0.9897795945047158</v>
       </c>
       <c r="N12">
-        <v>1.002074691094735</v>
+        <v>1.006813623646293</v>
       </c>
       <c r="O12">
-        <v>1.000778008768421</v>
+        <v>1.002555108644636</v>
       </c>
       <c r="P12">
-        <v>0.9988329870368415</v>
+        <v>0.9961673515746758</v>
       </c>
       <c r="Q12">
-        <v>1.000054653168422</v>
+        <v>1.000179493573103</v>
       </c>
       <c r="R12">
-        <v>0.9999135550561394</v>
+        <v>0.9997161089318815</v>
       </c>
       <c r="S12">
-        <v>0.9989990905473684</v>
+        <v>0.9967128605503074</v>
       </c>
       <c r="T12">
-        <v>0.9999135550561394</v>
+        <v>0.9997161089318812</v>
       </c>
       <c r="U12">
-        <v>0.9997679906842101</v>
+        <v>0.9992380513243035</v>
       </c>
       <c r="V12">
-        <v>1.000229330766315</v>
+        <v>1.000753165788701</v>
       </c>
       <c r="W12">
-        <v>0.9997949078078939</v>
+        <v>0.9993264501466121</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9994974763941671</v>
+        <v>1.000532326327223</v>
       </c>
       <c r="D13">
-        <v>1.001306975937041</v>
+        <v>0.9986155106593858</v>
       </c>
       <c r="E13">
-        <v>0.9986599369439408</v>
+        <v>1.001419537440134</v>
       </c>
       <c r="F13">
-        <v>0.9986599369439408</v>
+        <v>1.001419537440134</v>
       </c>
       <c r="G13">
-        <v>0.9992538714029694</v>
+        <v>1.000790377807694</v>
       </c>
       <c r="H13">
-        <v>1.000431919563339</v>
+        <v>0.9995424618736725</v>
       </c>
       <c r="I13">
-        <v>1.002010092917355</v>
+        <v>0.9978706925536487</v>
       </c>
       <c r="J13">
-        <v>0.9994974763941671</v>
+        <v>1.000532326327223</v>
       </c>
       <c r="K13">
-        <v>0.9986599369439408</v>
+        <v>1.001419537440134</v>
       </c>
       <c r="L13">
-        <v>1.000402016318379</v>
+        <v>0.9995741395712759</v>
       </c>
       <c r="M13">
-        <v>1.002010092917355</v>
+        <v>0.9978706925536487</v>
       </c>
       <c r="N13">
-        <v>0.9986599369439408</v>
+        <v>1.001419537440134</v>
       </c>
       <c r="O13">
-        <v>0.9994974763941671</v>
+        <v>1.000532326327223</v>
       </c>
       <c r="P13">
-        <v>1.000753784655761</v>
+        <v>0.9992015094404358</v>
       </c>
       <c r="Q13">
-        <v>0.999964697978753</v>
+        <v>1.000037394100448</v>
       </c>
       <c r="R13">
-        <v>1.000055835418488</v>
+        <v>0.999940852107002</v>
       </c>
       <c r="S13">
-        <v>1.00064649629162</v>
+        <v>0.9993151602515148</v>
       </c>
       <c r="T13">
-        <v>1.000055835418488</v>
+        <v>0.999940852107002</v>
       </c>
       <c r="U13">
-        <v>1.0001498564547</v>
+        <v>0.9998412545486697</v>
       </c>
       <c r="V13">
-        <v>0.9998518725525486</v>
+        <v>1.000156911126963</v>
       </c>
       <c r="W13">
-        <v>1.00013247073392</v>
+        <v>0.9998596715700321</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.0044145</v>
+        <v>1.000778008768421</v>
       </c>
       <c r="D14">
-        <v>0.9885186999999999</v>
+        <v>0.9979765381157883</v>
       </c>
       <c r="E14">
-        <v>1.011772</v>
+        <v>1.002074691094735</v>
       </c>
       <c r="F14">
-        <v>1.011772</v>
+        <v>1.002074691094735</v>
       </c>
       <c r="G14">
-        <v>1.006554499999999</v>
+        <v>1.001155161599999</v>
       </c>
       <c r="H14">
-        <v>0.9962057300000001</v>
+        <v>0.9993312975684222</v>
       </c>
       <c r="I14">
-        <v>0.9823420599999999</v>
+        <v>0.9968879653052622</v>
       </c>
       <c r="J14">
-        <v>1.0044145</v>
+        <v>1.000778008768421</v>
       </c>
       <c r="K14">
-        <v>1.011772</v>
+        <v>1.002074691094735</v>
       </c>
       <c r="L14">
-        <v>0.9964684099999999</v>
+        <v>0.9993775912421039</v>
       </c>
       <c r="M14">
-        <v>0.9823420599999999</v>
+        <v>0.9968879653052622</v>
       </c>
       <c r="N14">
-        <v>1.011772</v>
+        <v>1.002074691094735</v>
       </c>
       <c r="O14">
-        <v>1.0044145</v>
+        <v>1.000778008768421</v>
       </c>
       <c r="P14">
-        <v>0.9933782800000002</v>
+        <v>0.9988329870368415</v>
       </c>
       <c r="Q14">
-        <v>1.000310115</v>
+        <v>1.000054653168422</v>
       </c>
       <c r="R14">
-        <v>0.99950952</v>
+        <v>0.9999135550561394</v>
       </c>
       <c r="S14">
-        <v>0.9943207633333335</v>
+        <v>0.9989990905473684</v>
       </c>
       <c r="T14">
-        <v>0.99950952</v>
+        <v>0.9999135550561394</v>
       </c>
       <c r="U14">
-        <v>0.9986835725000001</v>
+        <v>0.9997679906842101</v>
       </c>
       <c r="V14">
-        <v>1.001301258</v>
+        <v>1.000229330766315</v>
       </c>
       <c r="W14">
-        <v>0.9988363</v>
+        <v>0.9997949078078939</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.0077849</v>
+        <v>0.9994974763941671</v>
       </c>
       <c r="D15">
-        <v>0.9797527599999999</v>
+        <v>1.001306975937041</v>
       </c>
       <c r="E15">
-        <v>1.0207598</v>
+        <v>0.9986599369439408</v>
       </c>
       <c r="F15">
-        <v>1.0207598</v>
+        <v>0.9986599369439408</v>
       </c>
       <c r="G15">
-        <v>1.0115588</v>
+        <v>0.9992538714029694</v>
       </c>
       <c r="H15">
-        <v>0.99330882</v>
+        <v>1.000431919563339</v>
       </c>
       <c r="I15">
-        <v>0.96886026</v>
+        <v>1.002010092917355</v>
       </c>
       <c r="J15">
-        <v>1.0077849</v>
+        <v>0.9994974763941671</v>
       </c>
       <c r="K15">
-        <v>1.0207598</v>
+        <v>0.9986599369439408</v>
       </c>
       <c r="L15">
-        <v>0.99377205</v>
+        <v>1.000402016318379</v>
       </c>
       <c r="M15">
-        <v>0.96886026</v>
+        <v>1.002010092917355</v>
       </c>
       <c r="N15">
-        <v>1.0207598</v>
+        <v>0.9986599369439408</v>
       </c>
       <c r="O15">
-        <v>1.0077849</v>
+        <v>0.9994974763941671</v>
       </c>
       <c r="P15">
-        <v>0.9883225800000001</v>
+        <v>1.000753784655761</v>
       </c>
       <c r="Q15">
-        <v>1.00054686</v>
+        <v>0.999964697978753</v>
       </c>
       <c r="R15">
-        <v>0.9991349866666667</v>
+        <v>1.000055835418488</v>
       </c>
       <c r="S15">
-        <v>0.9899846600000001</v>
+        <v>1.00064649629162</v>
       </c>
       <c r="T15">
-        <v>0.9991349866666667</v>
+        <v>1.000055835418488</v>
       </c>
       <c r="U15">
-        <v>0.997678445</v>
+        <v>1.0001498564547</v>
       </c>
       <c r="V15">
-        <v>1.002294716</v>
+        <v>0.9998518725525486</v>
       </c>
       <c r="W15">
-        <v>0.99794778625</v>
+        <v>1.00013247073392</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0075102</v>
+        <v>1.0044145</v>
       </c>
       <c r="D16">
-        <v>0.98046723</v>
+        <v>0.9885186999999999</v>
       </c>
       <c r="E16">
-        <v>1.0200273</v>
+        <v>1.011772</v>
       </c>
       <c r="F16">
-        <v>1.0200273</v>
+        <v>1.011772</v>
       </c>
       <c r="G16">
-        <v>1.0111509</v>
+        <v>1.006554499999999</v>
       </c>
       <c r="H16">
-        <v>0.9935449300000001</v>
+        <v>0.9962057300000001</v>
       </c>
       <c r="I16">
-        <v>0.9699591</v>
+        <v>0.9823420599999999</v>
       </c>
       <c r="J16">
-        <v>1.0075102</v>
+        <v>1.0044145</v>
       </c>
       <c r="K16">
-        <v>1.0200273</v>
+        <v>1.011772</v>
       </c>
       <c r="L16">
-        <v>0.99399182</v>
+        <v>0.9964684099999999</v>
       </c>
       <c r="M16">
-        <v>0.9699591</v>
+        <v>0.9823420599999999</v>
       </c>
       <c r="N16">
-        <v>1.0200273</v>
+        <v>1.011772</v>
       </c>
       <c r="O16">
-        <v>1.0075102</v>
+        <v>1.0044145</v>
       </c>
       <c r="P16">
-        <v>0.98873465</v>
+        <v>0.9933782800000002</v>
       </c>
       <c r="Q16">
-        <v>1.000527565</v>
+        <v>1.000310115</v>
       </c>
       <c r="R16">
-        <v>0.9991655333333332</v>
+        <v>0.99950952</v>
       </c>
       <c r="S16">
-        <v>0.9903380766666667</v>
+        <v>0.9943207633333335</v>
       </c>
       <c r="T16">
-        <v>0.9991655333333332</v>
+        <v>0.99950952</v>
       </c>
       <c r="U16">
-        <v>0.9977603825</v>
+        <v>0.9986835725000001</v>
       </c>
       <c r="V16">
-        <v>1.002213766</v>
+        <v>1.001301258</v>
       </c>
       <c r="W16">
-        <v>0.99802021</v>
+        <v>0.9988363</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.0021718</v>
+        <v>1.0077849</v>
       </c>
       <c r="D17">
-        <v>0.99435158</v>
+        <v>0.9797527599999999</v>
       </c>
       <c r="E17">
-        <v>1.0057914</v>
+        <v>1.0207598</v>
       </c>
       <c r="F17">
-        <v>1.0057914</v>
+        <v>1.0207598</v>
       </c>
       <c r="G17">
-        <v>1.0032246</v>
+        <v>1.0115588</v>
       </c>
       <c r="H17">
-        <v>0.99813334</v>
+        <v>0.99330882</v>
       </c>
       <c r="I17">
-        <v>0.99131287</v>
+        <v>0.96886026</v>
       </c>
       <c r="J17">
-        <v>1.0021718</v>
+        <v>1.0077849</v>
       </c>
       <c r="K17">
-        <v>1.0057914</v>
+        <v>1.0207598</v>
       </c>
       <c r="L17">
-        <v>0.99826257</v>
+        <v>0.99377205</v>
       </c>
       <c r="M17">
-        <v>0.99131287</v>
+        <v>0.96886026</v>
       </c>
       <c r="N17">
-        <v>1.0057914</v>
+        <v>1.0207598</v>
       </c>
       <c r="O17">
-        <v>1.0021718</v>
+        <v>1.0077849</v>
       </c>
       <c r="P17">
-        <v>0.996742335</v>
+        <v>0.9883225800000001</v>
       </c>
       <c r="Q17">
-        <v>1.00015257</v>
+        <v>1.00054686</v>
       </c>
       <c r="R17">
-        <v>0.9997586899999998</v>
+        <v>0.9991349866666667</v>
       </c>
       <c r="S17">
-        <v>0.9972060033333333</v>
+        <v>0.9899846600000001</v>
       </c>
       <c r="T17">
-        <v>0.9997586899999998</v>
+        <v>0.9991349866666667</v>
       </c>
       <c r="U17">
-        <v>0.9993523524999999</v>
+        <v>0.997678445</v>
       </c>
       <c r="V17">
-        <v>1.000640162</v>
+        <v>1.002294716</v>
       </c>
       <c r="W17">
-        <v>0.9994274949999999</v>
+        <v>0.99794778625</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.001739399726027</v>
+        <v>1.0075102</v>
       </c>
       <c r="D18">
-        <v>0.9954761323287674</v>
+        <v>0.98046723</v>
       </c>
       <c r="E18">
-        <v>1.004638389041095</v>
+        <v>1.0200273</v>
       </c>
       <c r="F18">
-        <v>1.004638389041095</v>
+        <v>1.0200273</v>
       </c>
       <c r="G18">
-        <v>1.002582592876712</v>
+        <v>1.0111509</v>
       </c>
       <c r="H18">
-        <v>0.9985049791780821</v>
+        <v>0.9935449300000001</v>
       </c>
       <c r="I18">
-        <v>0.9930424172602741</v>
+        <v>0.9699591</v>
       </c>
       <c r="J18">
-        <v>1.001739399726027</v>
+        <v>1.0075102</v>
       </c>
       <c r="K18">
-        <v>1.004638389041095</v>
+        <v>1.0200273</v>
       </c>
       <c r="L18">
-        <v>0.9986084897260276</v>
+        <v>0.99399182</v>
       </c>
       <c r="M18">
-        <v>0.9930424172602741</v>
+        <v>0.9699591</v>
       </c>
       <c r="N18">
-        <v>1.004638389041095</v>
+        <v>1.0200273</v>
       </c>
       <c r="O18">
-        <v>1.001739399726027</v>
+        <v>1.0075102</v>
       </c>
       <c r="P18">
-        <v>0.9973909084931507</v>
+        <v>0.98873465</v>
       </c>
       <c r="Q18">
-        <v>1.000122189452055</v>
+        <v>1.000527565</v>
       </c>
       <c r="R18">
-        <v>0.9998067353424656</v>
+        <v>0.9991655333333332</v>
       </c>
       <c r="S18">
-        <v>0.9977622653881278</v>
+        <v>0.9903380766666667</v>
       </c>
       <c r="T18">
-        <v>0.9998067353424656</v>
+        <v>0.9991655333333332</v>
       </c>
       <c r="U18">
-        <v>0.9994812963013697</v>
+        <v>0.9977603825</v>
       </c>
       <c r="V18">
-        <v>1.000512714849315</v>
+        <v>1.002213766</v>
       </c>
       <c r="W18">
-        <v>0.9995414749828766</v>
+        <v>0.99802021</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.003079512105263</v>
+        <v>1.0021718</v>
       </c>
       <c r="D19">
-        <v>0.991990742631579</v>
+        <v>0.99435158</v>
       </c>
       <c r="E19">
-        <v>1.008212027894737</v>
+        <v>1.0057914</v>
       </c>
       <c r="F19">
-        <v>1.008212027894737</v>
+        <v>1.0057914</v>
       </c>
       <c r="G19">
-        <v>1.004572352631579</v>
+        <v>1.0032246</v>
       </c>
       <c r="H19">
-        <v>0.9973531510526316</v>
+        <v>0.99813334</v>
       </c>
       <c r="I19">
-        <v>0.9876819642105262</v>
+        <v>0.99131287</v>
       </c>
       <c r="J19">
-        <v>1.003079512105263</v>
+        <v>1.0021718</v>
       </c>
       <c r="K19">
-        <v>1.008212027894737</v>
+        <v>1.0057914</v>
       </c>
       <c r="L19">
-        <v>0.9975363889473683</v>
+        <v>0.99826257</v>
       </c>
       <c r="M19">
-        <v>0.9876819642105262</v>
+        <v>0.99131287</v>
       </c>
       <c r="N19">
-        <v>1.008212027894737</v>
+        <v>1.0057914</v>
       </c>
       <c r="O19">
-        <v>1.003079512105263</v>
+        <v>1.0021718</v>
       </c>
       <c r="P19">
-        <v>0.9953807381578947</v>
+        <v>0.996742335</v>
       </c>
       <c r="Q19">
-        <v>1.000216331578947</v>
+        <v>1.00015257</v>
       </c>
       <c r="R19">
-        <v>0.999657834736842</v>
+        <v>0.9997586899999998</v>
       </c>
       <c r="S19">
-        <v>0.9960382091228071</v>
+        <v>0.9972060033333333</v>
       </c>
       <c r="T19">
-        <v>0.999657834736842</v>
+        <v>0.9997586899999998</v>
       </c>
       <c r="U19">
-        <v>0.9990816638157894</v>
+        <v>0.9993523524999999</v>
       </c>
       <c r="V19">
-        <v>1.000907736631579</v>
+        <v>1.000640162</v>
       </c>
       <c r="W19">
-        <v>0.9991882064473685</v>
+        <v>0.9994274949999999</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.002989138421053</v>
+        <v>1.001739399726027</v>
       </c>
       <c r="D20">
-        <v>0.9922257668421051</v>
+        <v>0.9954761323287674</v>
       </c>
       <c r="E20">
-        <v>1.007971055789474</v>
+        <v>1.004638389041095</v>
       </c>
       <c r="F20">
-        <v>1.007971055789474</v>
+        <v>1.004638389041095</v>
       </c>
       <c r="G20">
-        <v>1.004438190526316</v>
+        <v>1.002582592876712</v>
       </c>
       <c r="H20">
-        <v>0.9974308210526316</v>
+        <v>0.9985049791780821</v>
       </c>
       <c r="I20">
-        <v>0.9880434257894736</v>
+        <v>0.9930424172602741</v>
       </c>
       <c r="J20">
-        <v>1.002989138421053</v>
+        <v>1.001739399726027</v>
       </c>
       <c r="K20">
-        <v>1.007971055789474</v>
+        <v>1.004638389041095</v>
       </c>
       <c r="L20">
-        <v>0.9976086805263158</v>
+        <v>0.9986084897260276</v>
       </c>
       <c r="M20">
-        <v>0.9880434257894736</v>
+        <v>0.9930424172602741</v>
       </c>
       <c r="N20">
-        <v>1.007971055789474</v>
+        <v>1.004638389041095</v>
       </c>
       <c r="O20">
-        <v>1.002989138421053</v>
+        <v>1.001739399726027</v>
       </c>
       <c r="P20">
-        <v>0.9955162821052632</v>
+        <v>0.9973909084931507</v>
       </c>
       <c r="Q20">
-        <v>1.000209979736842</v>
+        <v>1.000122189452055</v>
       </c>
       <c r="R20">
-        <v>0.9996678733333333</v>
+        <v>0.9998067353424656</v>
       </c>
       <c r="S20">
-        <v>0.996154461754386</v>
+        <v>0.9977622653881278</v>
       </c>
       <c r="T20">
-        <v>0.9996678733333333</v>
+        <v>0.9998067353424656</v>
       </c>
       <c r="U20">
-        <v>0.9991086102631579</v>
+        <v>0.9994812963013697</v>
       </c>
       <c r="V20">
-        <v>1.000881099368421</v>
+        <v>1.000512714849315</v>
       </c>
       <c r="W20">
-        <v>0.9992120271710526</v>
+        <v>0.9995414749828766</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000059712681101</v>
+        <v>1.003079512105263</v>
       </c>
       <c r="D21">
-        <v>0.999844699531198</v>
+        <v>0.991990742631579</v>
       </c>
       <c r="E21">
-        <v>1.000159231595163</v>
+        <v>1.008212027894737</v>
       </c>
       <c r="F21">
-        <v>1.000159231595163</v>
+        <v>1.008212027894737</v>
       </c>
       <c r="G21">
-        <v>1.000088667546649</v>
+        <v>1.004572352631579</v>
       </c>
       <c r="H21">
-        <v>0.9999486714523894</v>
+        <v>0.9973531510526316</v>
       </c>
       <c r="I21">
-        <v>0.9997611335528527</v>
+        <v>0.9876819642105262</v>
       </c>
       <c r="J21">
-        <v>1.000059712681101</v>
+        <v>1.003079512105263</v>
       </c>
       <c r="K21">
-        <v>1.000159231595163</v>
+        <v>1.008212027894737</v>
       </c>
       <c r="L21">
-        <v>0.9999522243380066</v>
+        <v>0.9975363889473683</v>
       </c>
       <c r="M21">
-        <v>0.9997611335528527</v>
+        <v>0.9876819642105262</v>
       </c>
       <c r="N21">
-        <v>1.000159231595163</v>
+        <v>1.008212027894737</v>
       </c>
       <c r="O21">
-        <v>1.000059712681101</v>
+        <v>1.003079512105263</v>
       </c>
       <c r="P21">
-        <v>0.9999104231169769</v>
+        <v>0.9953807381578947</v>
       </c>
       <c r="Q21">
-        <v>1.000004192066745</v>
+        <v>1.000216331578947</v>
       </c>
       <c r="R21">
-        <v>0.9999933592763725</v>
+        <v>0.999657834736842</v>
       </c>
       <c r="S21">
-        <v>0.9999231725621144</v>
+        <v>0.9960382091228071</v>
       </c>
       <c r="T21">
-        <v>0.9999933592763725</v>
+        <v>0.999657834736842</v>
       </c>
       <c r="U21">
-        <v>0.9999821873203767</v>
+        <v>0.9990816638157894</v>
       </c>
       <c r="V21">
-        <v>1.000017596175334</v>
+        <v>1.000907736631579</v>
       </c>
       <c r="W21">
-        <v>0.9999842566723077</v>
+        <v>0.9991882064473685</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000017786627644</v>
+        <v>1.002989138421053</v>
       </c>
       <c r="D22">
-        <v>0.9999537480898497</v>
+        <v>0.9922257668421051</v>
       </c>
       <c r="E22">
-        <v>1.000047428793518</v>
+        <v>1.007971055789474</v>
       </c>
       <c r="F22">
-        <v>1.000047428793518</v>
+        <v>1.007971055789474</v>
       </c>
       <c r="G22">
-        <v>1.000026404573309</v>
+        <v>1.004438190526316</v>
       </c>
       <c r="H22">
-        <v>0.9999847138744833</v>
+        <v>0.9974308210526316</v>
       </c>
       <c r="I22">
-        <v>0.9999288572488794</v>
+        <v>0.9880434257894736</v>
       </c>
       <c r="J22">
-        <v>1.000017786627644</v>
+        <v>1.002989138421053</v>
       </c>
       <c r="K22">
-        <v>1.000047428793518</v>
+        <v>1.007971055789474</v>
       </c>
       <c r="L22">
-        <v>0.9999857673088806</v>
+        <v>0.9976086805263158</v>
       </c>
       <c r="M22">
-        <v>0.9999288572488794</v>
+        <v>0.9880434257894736</v>
       </c>
       <c r="N22">
-        <v>1.000047428793518</v>
+        <v>1.007971055789474</v>
       </c>
       <c r="O22">
-        <v>1.000017786627644</v>
+        <v>1.002989138421053</v>
       </c>
       <c r="P22">
-        <v>0.9999733219382617</v>
+        <v>0.9955162821052632</v>
       </c>
       <c r="Q22">
-        <v>1.000001250251064</v>
+        <v>1.000209979736842</v>
       </c>
       <c r="R22">
-        <v>0.9999980242233472</v>
+        <v>0.9996678733333333</v>
       </c>
       <c r="S22">
-        <v>0.9999771192503356</v>
+        <v>0.996154461754386</v>
       </c>
       <c r="T22">
-        <v>0.9999980242233472</v>
+        <v>0.9996678733333333</v>
       </c>
       <c r="U22">
-        <v>0.9999946966361313</v>
+        <v>0.9991086102631579</v>
       </c>
       <c r="V22">
-        <v>1.000005243067609</v>
+        <v>1.000881099368421</v>
       </c>
       <c r="W22">
-        <v>0.999995311643026</v>
+        <v>0.9992120271710526</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9989133884888697</v>
+        <v>1.000059712681101</v>
       </c>
       <c r="D23">
-        <v>1.002826078447143</v>
+        <v>0.999844699531198</v>
       </c>
       <c r="E23">
-        <v>0.9971023725035181</v>
+        <v>1.000159231595163</v>
       </c>
       <c r="F23">
-        <v>0.9971023725035181</v>
+        <v>1.000159231595163</v>
       </c>
       <c r="G23">
-        <v>0.9983866389148851</v>
+        <v>1.000088667546649</v>
       </c>
       <c r="H23">
-        <v>1.000933937204605</v>
+        <v>0.9999486714523894</v>
       </c>
       <c r="I23">
-        <v>1.004346434178441</v>
+        <v>0.9997611335528527</v>
       </c>
       <c r="J23">
-        <v>0.9989133884888697</v>
+        <v>1.000059712681101</v>
       </c>
       <c r="K23">
-        <v>0.9971023725035181</v>
+        <v>1.000159231595163</v>
       </c>
       <c r="L23">
-        <v>1.000869282925694</v>
+        <v>0.9999522243380066</v>
       </c>
       <c r="M23">
-        <v>1.004346434178441</v>
+        <v>0.9997611335528527</v>
       </c>
       <c r="N23">
-        <v>0.9971023725035181</v>
+        <v>1.000159231595163</v>
       </c>
       <c r="O23">
-        <v>0.9989133884888697</v>
+        <v>1.000059712681101</v>
       </c>
       <c r="P23">
-        <v>1.001629911333656</v>
+        <v>0.9999104231169769</v>
       </c>
       <c r="Q23">
-        <v>0.9999236628467373</v>
+        <v>1.000004192066745</v>
       </c>
       <c r="R23">
-        <v>1.00012073172361</v>
+        <v>0.9999933592763725</v>
       </c>
       <c r="S23">
-        <v>1.001397919957305</v>
+        <v>0.9999231725621144</v>
       </c>
       <c r="T23">
-        <v>1.00012073172361</v>
+        <v>0.9999933592763725</v>
       </c>
       <c r="U23">
-        <v>1.000324033093858</v>
+        <v>0.9999821873203767</v>
       </c>
       <c r="V23">
-        <v>0.9996797009757902</v>
+        <v>1.000017596175334</v>
       </c>
       <c r="W23">
-        <v>1.000286440144003</v>
+        <v>0.9999842566723077</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9997182823393248</v>
+        <v>1.000017786627644</v>
       </c>
       <c r="D24">
-        <v>1.000732702200518</v>
+        <v>0.9999537480898497</v>
       </c>
       <c r="E24">
-        <v>0.9992487542895062</v>
+        <v>1.000047428793518</v>
       </c>
       <c r="F24">
-        <v>0.9992487542895062</v>
+        <v>1.000047428793518</v>
       </c>
       <c r="G24">
-        <v>0.9995817172483272</v>
+        <v>1.000026404573309</v>
       </c>
       <c r="H24">
-        <v>1.000242137706485</v>
+        <v>0.9999847138744833</v>
       </c>
       <c r="I24">
-        <v>1.001126869722597</v>
+        <v>0.9999288572488794</v>
       </c>
       <c r="J24">
-        <v>0.9997182823393248</v>
+        <v>1.000017786627644</v>
       </c>
       <c r="K24">
-        <v>0.9992487542895062</v>
+        <v>1.000047428793518</v>
       </c>
       <c r="L24">
-        <v>1.000225371874621</v>
+        <v>0.9999857673088806</v>
       </c>
       <c r="M24">
-        <v>1.001126869722597</v>
+        <v>0.9999288572488794</v>
       </c>
       <c r="N24">
-        <v>0.9992487542895062</v>
+        <v>1.000047428793518</v>
       </c>
       <c r="O24">
-        <v>0.9997182823393248</v>
+        <v>1.000017786627644</v>
       </c>
       <c r="P24">
-        <v>1.000422576030961</v>
+        <v>0.9999733219382617</v>
       </c>
       <c r="Q24">
-        <v>0.9999802100229047</v>
+        <v>1.000001250251064</v>
       </c>
       <c r="R24">
-        <v>1.000031302117143</v>
+        <v>0.9999980242233472</v>
       </c>
       <c r="S24">
-        <v>1.000362429922802</v>
+        <v>0.9999771192503356</v>
       </c>
       <c r="T24">
-        <v>1.000031302117143</v>
+        <v>0.9999980242233472</v>
       </c>
       <c r="U24">
-        <v>1.000084011014478</v>
+        <v>0.9999946966361313</v>
       </c>
       <c r="V24">
-        <v>0.9999169596694836</v>
+        <v>1.000005243067609</v>
       </c>
       <c r="W24">
-        <v>1.000074264715088</v>
+        <v>0.999995311643026</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.999799466211</v>
+        <v>0.9989133884888697</v>
       </c>
       <c r="D25">
-        <v>1.000521541230315</v>
+        <v>1.002826078447143</v>
       </c>
       <c r="E25">
-        <v>0.9994652599560296</v>
+        <v>0.9971023725035181</v>
       </c>
       <c r="F25">
-        <v>0.9994652599560296</v>
+        <v>0.9971023725035181</v>
       </c>
       <c r="G25">
-        <v>0.9997022636742372</v>
+        <v>0.9983866389148851</v>
       </c>
       <c r="H25">
-        <v>1.000172350709924</v>
+        <v>1.000933937204605</v>
       </c>
       <c r="I25">
-        <v>1.00080210700442</v>
+        <v>1.004346434178441</v>
       </c>
       <c r="J25">
-        <v>0.999799466211</v>
+        <v>0.9989133884888697</v>
       </c>
       <c r="K25">
-        <v>0.9994652599560296</v>
+        <v>0.9971023725035181</v>
       </c>
       <c r="L25">
-        <v>1.000160417817789</v>
+        <v>1.000869282925694</v>
       </c>
       <c r="M25">
-        <v>1.00080210700442</v>
+        <v>1.004346434178441</v>
       </c>
       <c r="N25">
-        <v>0.9994652599560296</v>
+        <v>0.9971023725035181</v>
       </c>
       <c r="O25">
-        <v>0.999799466211</v>
+        <v>0.9989133884888697</v>
       </c>
       <c r="P25">
-        <v>1.00030078660771</v>
+        <v>1.001629911333656</v>
       </c>
       <c r="Q25">
-        <v>0.9999859084604621</v>
+        <v>0.9999236628467373</v>
       </c>
       <c r="R25">
-        <v>1.000022277723817</v>
+        <v>1.00012073172361</v>
       </c>
       <c r="S25">
-        <v>1.000257974641781</v>
+        <v>1.001397919957305</v>
       </c>
       <c r="T25">
-        <v>1.000022277723817</v>
+        <v>1.00012073172361</v>
       </c>
       <c r="U25">
-        <v>1.000059795970343</v>
+        <v>1.000324033093858</v>
       </c>
       <c r="V25">
-        <v>0.9999408887674808</v>
+        <v>0.9996797009757902</v>
       </c>
       <c r="W25">
-        <v>1.000052859101839</v>
+        <v>1.000286440144003</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.999948200599766</v>
+        <v>0.9997182823393248</v>
       </c>
       <c r="D26">
-        <v>1.000134740583607</v>
+        <v>1.000732702200518</v>
       </c>
       <c r="E26">
-        <v>0.9998618491667295</v>
+        <v>0.9992487542895062</v>
       </c>
       <c r="F26">
-        <v>0.9998618491667295</v>
+        <v>0.9992487542895062</v>
       </c>
       <c r="G26">
-        <v>0.9999230855289579</v>
+        <v>0.9995817172483272</v>
       </c>
       <c r="H26">
-        <v>1.000044526455223</v>
+        <v>1.000242137706485</v>
       </c>
       <c r="I26">
-        <v>1.000207222188662</v>
+        <v>1.001126869722597</v>
       </c>
       <c r="J26">
-        <v>0.999948200599766</v>
+        <v>0.9997182823393248</v>
       </c>
       <c r="K26">
-        <v>0.9998618491667295</v>
+        <v>0.9992487542895062</v>
       </c>
       <c r="L26">
-        <v>1.000041441007941</v>
+        <v>1.000225371874621</v>
       </c>
       <c r="M26">
-        <v>1.000207222188662</v>
+        <v>1.001126869722597</v>
       </c>
       <c r="N26">
-        <v>0.9998618491667295</v>
+        <v>0.9992487542895062</v>
       </c>
       <c r="O26">
-        <v>0.999948200599766</v>
+        <v>0.9997182823393248</v>
       </c>
       <c r="P26">
-        <v>1.000077711394214</v>
+        <v>1.000422576030961</v>
       </c>
       <c r="Q26">
-        <v>0.9999963635274945</v>
+        <v>0.9999802100229047</v>
       </c>
       <c r="R26">
-        <v>1.000005757318386</v>
+        <v>1.000031302117143</v>
       </c>
       <c r="S26">
-        <v>1.000066649747884</v>
+        <v>1.000362429922802</v>
       </c>
       <c r="T26">
-        <v>1.000005757318386</v>
+        <v>1.000031302117143</v>
       </c>
       <c r="U26">
-        <v>1.000015449602595</v>
+        <v>1.000084011014478</v>
       </c>
       <c r="V26">
-        <v>0.9999847295154222</v>
+        <v>0.9999169596694836</v>
       </c>
       <c r="W26">
-        <v>1.000013658266332</v>
+        <v>1.000074264715088</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.000263096504961</v>
+        <v>0.999799466211</v>
       </c>
       <c r="D27">
-        <v>0.9993157009489023</v>
+        <v>1.000521541230315</v>
       </c>
       <c r="E27">
-        <v>1.000701614409734</v>
+        <v>0.9994652599560296</v>
       </c>
       <c r="F27">
-        <v>1.000701614409734</v>
+        <v>0.9994652599560296</v>
       </c>
       <c r="G27">
-        <v>1.000390658520432</v>
+        <v>0.9997022636742372</v>
       </c>
       <c r="H27">
-        <v>0.9997738625909557</v>
+        <v>1.000172350709924</v>
       </c>
       <c r="I27">
-        <v>0.9989475898575331</v>
+        <v>1.00080210700442</v>
       </c>
       <c r="J27">
-        <v>1.000263096504961</v>
+        <v>0.999799466211</v>
       </c>
       <c r="K27">
-        <v>1.000701614409734</v>
+        <v>0.9994652599560296</v>
       </c>
       <c r="L27">
-        <v>0.9997895033495273</v>
+        <v>1.000160417817789</v>
       </c>
       <c r="M27">
-        <v>0.9989475898575331</v>
+        <v>1.00080210700442</v>
       </c>
       <c r="N27">
-        <v>1.000701614409734</v>
+        <v>0.9994652599560296</v>
       </c>
       <c r="O27">
-        <v>1.000263096504961</v>
+        <v>0.999799466211</v>
       </c>
       <c r="P27">
-        <v>0.9996053431812468</v>
+        <v>1.00030078660771</v>
       </c>
       <c r="Q27">
-        <v>1.000018479547958</v>
+        <v>0.9999859084604621</v>
       </c>
       <c r="R27">
-        <v>0.9999707669240757</v>
+        <v>1.000022277723817</v>
       </c>
       <c r="S27">
-        <v>0.9996615163178165</v>
+        <v>1.000257974641781</v>
       </c>
       <c r="T27">
-        <v>0.9999707669240757</v>
+        <v>1.000022277723817</v>
       </c>
       <c r="U27">
-        <v>0.9999215408407958</v>
+        <v>1.000059795970343</v>
       </c>
       <c r="V27">
-        <v>1.000077555554583</v>
+        <v>0.9999408887674808</v>
       </c>
       <c r="W27">
-        <v>0.9999306403358756</v>
+        <v>1.000052859101839</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.000325647709058</v>
+        <v>0.999948200599766</v>
       </c>
       <c r="D28">
-        <v>0.9991530344564865</v>
+        <v>1.000134740583607</v>
       </c>
       <c r="E28">
-        <v>1.000868403888886</v>
+        <v>0.9998618491667295</v>
       </c>
       <c r="F28">
-        <v>1.000868403888886</v>
+        <v>0.9998618491667295</v>
       </c>
       <c r="G28">
-        <v>1.000483515681346</v>
+        <v>0.9999230855289579</v>
       </c>
       <c r="H28">
-        <v>0.9997201033796893</v>
+        <v>1.000044526455223</v>
       </c>
       <c r="I28">
-        <v>0.9986974074809227</v>
+        <v>1.000207222188662</v>
       </c>
       <c r="J28">
-        <v>1.000325647709058</v>
+        <v>0.999948200599766</v>
       </c>
       <c r="K28">
-        <v>1.000868403888886</v>
+        <v>0.9998618491667295</v>
       </c>
       <c r="L28">
-        <v>0.9997394925177681</v>
+        <v>1.000041441007941</v>
       </c>
       <c r="M28">
-        <v>0.9986974074809227</v>
+        <v>1.000207222188662</v>
       </c>
       <c r="N28">
-        <v>1.000868403888886</v>
+        <v>0.9998618491667295</v>
       </c>
       <c r="O28">
-        <v>1.000325647709058</v>
+        <v>0.999948200599766</v>
       </c>
       <c r="P28">
-        <v>0.9995115275949903</v>
+        <v>1.000077711394214</v>
       </c>
       <c r="Q28">
-        <v>1.000022875544374</v>
+        <v>0.9999963635274945</v>
       </c>
       <c r="R28">
-        <v>0.9999638196929554</v>
+        <v>1.000005757318386</v>
       </c>
       <c r="S28">
-        <v>0.9995810528565566</v>
+        <v>1.000066649747884</v>
       </c>
       <c r="T28">
-        <v>0.9999638196929554</v>
+        <v>1.000005757318386</v>
       </c>
       <c r="U28">
-        <v>0.9999028906146389</v>
+        <v>1.000015449602595</v>
       </c>
       <c r="V28">
-        <v>1.000095993269488</v>
+        <v>0.9999847295154222</v>
       </c>
       <c r="W28">
-        <v>0.9999141566029017</v>
+        <v>1.000013658266332</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.000263096504961</v>
+      </c>
+      <c r="D29">
+        <v>0.9993157009489023</v>
+      </c>
+      <c r="E29">
+        <v>1.000701614409734</v>
+      </c>
+      <c r="F29">
+        <v>1.000701614409734</v>
+      </c>
+      <c r="G29">
+        <v>1.000390658520432</v>
+      </c>
+      <c r="H29">
+        <v>0.9997738625909557</v>
+      </c>
+      <c r="I29">
+        <v>0.9989475898575331</v>
+      </c>
+      <c r="J29">
+        <v>1.000263096504961</v>
+      </c>
+      <c r="K29">
+        <v>1.000701614409734</v>
+      </c>
+      <c r="L29">
+        <v>0.9997895033495273</v>
+      </c>
+      <c r="M29">
+        <v>0.9989475898575331</v>
+      </c>
+      <c r="N29">
+        <v>1.000701614409734</v>
+      </c>
+      <c r="O29">
+        <v>1.000263096504961</v>
+      </c>
+      <c r="P29">
+        <v>0.9996053431812468</v>
+      </c>
+      <c r="Q29">
+        <v>1.000018479547958</v>
+      </c>
+      <c r="R29">
+        <v>0.9999707669240757</v>
+      </c>
+      <c r="S29">
+        <v>0.9996615163178165</v>
+      </c>
+      <c r="T29">
+        <v>0.9999707669240757</v>
+      </c>
+      <c r="U29">
+        <v>0.9999215408407958</v>
+      </c>
+      <c r="V29">
+        <v>1.000077555554583</v>
+      </c>
+      <c r="W29">
+        <v>0.9999306403358756</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.000325647709058</v>
+      </c>
+      <c r="D30">
+        <v>0.9991530344564865</v>
+      </c>
+      <c r="E30">
+        <v>1.000868403888886</v>
+      </c>
+      <c r="F30">
+        <v>1.000868403888886</v>
+      </c>
+      <c r="G30">
+        <v>1.000483515681346</v>
+      </c>
+      <c r="H30">
+        <v>0.9997201033796893</v>
+      </c>
+      <c r="I30">
+        <v>0.9986974074809227</v>
+      </c>
+      <c r="J30">
+        <v>1.000325647709058</v>
+      </c>
+      <c r="K30">
+        <v>1.000868403888886</v>
+      </c>
+      <c r="L30">
+        <v>0.9997394925177681</v>
+      </c>
+      <c r="M30">
+        <v>0.9986974074809227</v>
+      </c>
+      <c r="N30">
+        <v>1.000868403888886</v>
+      </c>
+      <c r="O30">
+        <v>1.000325647709058</v>
+      </c>
+      <c r="P30">
+        <v>0.9995115275949903</v>
+      </c>
+      <c r="Q30">
+        <v>1.000022875544374</v>
+      </c>
+      <c r="R30">
+        <v>0.9999638196929554</v>
+      </c>
+      <c r="S30">
+        <v>0.9995810528565566</v>
+      </c>
+      <c r="T30">
+        <v>0.9999638196929554</v>
+      </c>
+      <c r="U30">
+        <v>0.9999028906146389</v>
+      </c>
+      <c r="V30">
+        <v>1.000095993269488</v>
+      </c>
+      <c r="W30">
+        <v>0.9999141566029017</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9995180734543543</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.001253383056554</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9987148793245502</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9987148793245502</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9992844655726576</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.000414218940635</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.00192769512413</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9995180734543543</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9987148793245502</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.000385557069337</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.00192769512413</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9987148793245502</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9995180734543543</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.000722884289242</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9999661461974945</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.000053549301011</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.000619995839706</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000053549301011</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>1.000143716710917</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.9998579492336439</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.000127043249571</v>
       </c>
     </row>
